--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_636.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_636.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32897-d78444-Reviews-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-By-Marriott-Anaheim-Placentia-Fullerton.h23378.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_636.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_636.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2212 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r573856000-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>32897</t>
+  </si>
+  <si>
+    <t>78444</t>
+  </si>
+  <si>
+    <t>573856000</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>4.5 - Great stay with the family</t>
+  </si>
+  <si>
+    <t>We stayed here as we were on a family vacation to the Disney area. We choose this place to allow more of us to stay in one room, and the value was great. This allowed us to have all of us together. We stayed in the room with the bed in the loft and two queen beds below. Although the loft bed is great, it's a bit open and there is no real way for privacy in that room, that was a bit disappointing. Parking was easy, free. Breakfast was pretty good, they could have mixed it up a bit, but for the price this was a great value. The reception was great and they got me all checked in, and gave me a free item from the concession area. After a really long drive a few oreos to the family as we walked to the room was great. I would be glad to choose this place again should we return to this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tish S, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here as we were on a family vacation to the Disney area. We choose this place to allow more of us to stay in one room, and the value was great. This allowed us to have all of us together. We stayed in the room with the bed in the loft and two queen beds below. Although the loft bed is great, it's a bit open and there is no real way for privacy in that room, that was a bit disappointing. Parking was easy, free. Breakfast was pretty good, they could have mixed it up a bit, but for the price this was a great value. The reception was great and they got me all checked in, and gave me a free item from the concession area. After a really long drive a few oreos to the family as we walked to the room was great. I would be glad to choose this place again should we return to this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r565800294-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>565800294</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Typical Old Style Residence In</t>
+  </si>
+  <si>
+    <t>Fine large big rooms that are dated but fully functional. Staff when we checked in were great. Morning person on the weekend not so much. If I had used the common living room area in our 2 bedroom suite I would have had to change rooms do to the very loud and obnoxious vibrations from the heating system. That needs to be looked at but the bedrooms remained quiet and we all slept very well. The breakfast during the week was much better than the fare that put out on the weekend for some reason. Quite a surprise to see the change, but there was still plenty of food and the service people in the breakfast room are great.  Location is not as convenient to Anaheim Convention Center as I thought it would be - feel further than the 6 miles it is due to traffic and the roads. The hotel is located in a business park just off the freeway but you have to go around several blocks to get on and off and get to the hotel. I did not hear any road noise though which is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Tish S, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Fine large big rooms that are dated but fully functional. Staff when we checked in were great. Morning person on the weekend not so much. If I had used the common living room area in our 2 bedroom suite I would have had to change rooms do to the very loud and obnoxious vibrations from the heating system. That needs to be looked at but the bedrooms remained quiet and we all slept very well. The breakfast during the week was much better than the fare that put out on the weekend for some reason. Quite a surprise to see the change, but there was still plenty of food and the service people in the breakfast room are great.  Location is not as convenient to Anaheim Convention Center as I thought it would be - feel further than the 6 miles it is due to traffic and the roads. The hotel is located in a business park just off the freeway but you have to go around several blocks to get on and off and get to the hotel. I did not hear any road noise though which is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r563989205-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>563989205</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, convenient and comfortable </t>
+  </si>
+  <si>
+    <t>So these suites are very close to Disneyland LA if you are driving. Rooms are quite spacious and have full kitchen. Cleanliness is of high standard and parking is free in very close proximity of your room. There is a small outside pool which is heated and quite relaxing. There are no lifts to first floor suites but the staff are quite helpful and help with heavier luggage. Recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Tish S, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>So these suites are very close to Disneyland LA if you are driving. Rooms are quite spacious and have full kitchen. Cleanliness is of high standard and parking is free in very close proximity of your room. There is a small outside pool which is heated and quite relaxing. There are no lifts to first floor suites but the staff are quite helpful and help with heavier luggage. Recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r557224321-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>557224321</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Weekend at Disneyland &amp; California Adventure with kids</t>
+  </si>
+  <si>
+    <t>This hotel is your basic Residence Inn.
+I booked it through Southwest Vacations with our plane tickets and did my review research and mapping- it seemed like an okay fit- but in the end was not ideal.
+Pros: 
+It includes a basic but hot breakfast and a happy hour (we missed it bc we were at the parks), it has a pool which kids love and there is a kitchen for families who may want to cook or store stuff in the fridge. It has reasonably comfortable beds and a good sized room for a family with 2 kids who can share a sofa bed. If you are travelling with two older/larger kids the sofa bed will be WAY too small.
+Cons: 
+The main issue with THIS location is that on the map it seems not to far from the park, and if you have your own vehicle it is not too bad of a drive. I am not sure if there is a fee for parking at this location- many in Anaheim hotels do have a fee. The cost to park at Disney is currently $20 per day. 
+We went based on distance from park but it was actually a $13-26 UberX or cab ride each direction (which was still cheaper than renting a car and paying for parking but it added up over 3 days) AND it was too far to dodge back for an afternoon nap to...This hotel is your basic Residence Inn.I booked it through Southwest Vacations with our plane tickets and did my review research and mapping- it seemed like an okay fit- but in the end was not ideal.Pros: It includes a basic but hot breakfast and a happy hour (we missed it bc we were at the parks), it has a pool which kids love and there is a kitchen for families who may want to cook or store stuff in the fridge. It has reasonably comfortable beds and a good sized room for a family with 2 kids who can share a sofa bed. If you are travelling with two older/larger kids the sofa bed will be WAY too small.Cons: The main issue with THIS location is that on the map it seems not to far from the park, and if you have your own vehicle it is not too bad of a drive. I am not sure if there is a fee for parking at this location- many in Anaheim hotels do have a fee. The cost to park at Disney is currently $20 per day. We went based on distance from park but it was actually a $13-26 UberX or cab ride each direction (which was still cheaper than renting a car and paying for parking but it added up over 3 days) AND it was too far to dodge back for an afternoon nap to gather energy for an evening at the parks. On average it took 20-30 mins to drive the approximately 6ish miles listed on the map....SO I'd say if you are going in your own car and planning to go early AM and head home when you are done, or go later and finish out at the parks' closing then this is a reasonable choice but otherwise too far to drop back for a rest and in kind of a remote, random location (weird business park at the end of a cul de sac with nothing nearby).Also it is very close to a freeway and the windows are thin so after my kids went to bed they asked if I could close the window bc it was too noisy! (IF you need true silence to sleep this is NOT the hotel for you). We were all pooped from Disney so it was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Tish S, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is your basic Residence Inn.
+I booked it through Southwest Vacations with our plane tickets and did my review research and mapping- it seemed like an okay fit- but in the end was not ideal.
+Pros: 
+It includes a basic but hot breakfast and a happy hour (we missed it bc we were at the parks), it has a pool which kids love and there is a kitchen for families who may want to cook or store stuff in the fridge. It has reasonably comfortable beds and a good sized room for a family with 2 kids who can share a sofa bed. If you are travelling with two older/larger kids the sofa bed will be WAY too small.
+Cons: 
+The main issue with THIS location is that on the map it seems not to far from the park, and if you have your own vehicle it is not too bad of a drive. I am not sure if there is a fee for parking at this location- many in Anaheim hotels do have a fee. The cost to park at Disney is currently $20 per day. 
+We went based on distance from park but it was actually a $13-26 UberX or cab ride each direction (which was still cheaper than renting a car and paying for parking but it added up over 3 days) AND it was too far to dodge back for an afternoon nap to...This hotel is your basic Residence Inn.I booked it through Southwest Vacations with our plane tickets and did my review research and mapping- it seemed like an okay fit- but in the end was not ideal.Pros: It includes a basic but hot breakfast and a happy hour (we missed it bc we were at the parks), it has a pool which kids love and there is a kitchen for families who may want to cook or store stuff in the fridge. It has reasonably comfortable beds and a good sized room for a family with 2 kids who can share a sofa bed. If you are travelling with two older/larger kids the sofa bed will be WAY too small.Cons: The main issue with THIS location is that on the map it seems not to far from the park, and if you have your own vehicle it is not too bad of a drive. I am not sure if there is a fee for parking at this location- many in Anaheim hotels do have a fee. The cost to park at Disney is currently $20 per day. We went based on distance from park but it was actually a $13-26 UberX or cab ride each direction (which was still cheaper than renting a car and paying for parking but it added up over 3 days) AND it was too far to dodge back for an afternoon nap to gather energy for an evening at the parks. On average it took 20-30 mins to drive the approximately 6ish miles listed on the map....SO I'd say if you are going in your own car and planning to go early AM and head home when you are done, or go later and finish out at the parks' closing then this is a reasonable choice but otherwise too far to drop back for a rest and in kind of a remote, random location (weird business park at the end of a cul de sac with nothing nearby).Also it is very close to a freeway and the windows are thin so after my kids went to bed they asked if I could close the window bc it was too noisy! (IF you need true silence to sleep this is NOT the hotel for you). We were all pooped from Disney so it was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r547566989-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>547566989</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>So and so</t>
+  </si>
+  <si>
+    <t>We’ve stayed here for 3 night for a getaway, room was old and outdated, love the kitchen.  When my kids try to open the sofa sleeper it was not done usually it’s made already but it’s ok. When we got the linens from the cabinet the bedsheets was just crumpled on the floor with the blanket don’t know if it’s used or not but it has a lot of hairs on it so we decided to use the plain sheet on the bed too late to disturb housekeeping. Breakfast was good they had different hot foods everyday and attendants were very friendly and helpful. It was not a great stay nor worse just so and so due to no quality inspection before making the room available for guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Tish S, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>We’ve stayed here for 3 night for a getaway, room was old and outdated, love the kitchen.  When my kids try to open the sofa sleeper it was not done usually it’s made already but it’s ok. When we got the linens from the cabinet the bedsheets was just crumpled on the floor with the blanket don’t know if it’s used or not but it has a lot of hairs on it so we decided to use the plain sheet on the bed too late to disturb housekeeping. Breakfast was good they had different hot foods everyday and attendants were very friendly and helpful. It was not a great stay nor worse just so and so due to no quality inspection before making the room available for guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r535155889-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>535155889</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>We stayed here from August 22nd to October 4th. It was pleasant, clean and an amazing experience. They served a large hot buffet everyday with new items, housekeeping was wonderful and I always felt like family. They do allow pets, although we dont have any. They have a full kitchen, utensils, dishwasher and nice interior decorating. We had a three bed room, which was two levels and had two bathrooms. We only had housekeeping when we wanted it, which wasnt often. Parking is $5 per night until you are there for 30 nights. Worth every penny. There is a pool, laundry room and basketball court. Loved it here and will definitely go again, if needed! Recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Tish S, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here from August 22nd to October 4th. It was pleasant, clean and an amazing experience. They served a large hot buffet everyday with new items, housekeeping was wonderful and I always felt like family. They do allow pets, although we dont have any. They have a full kitchen, utensils, dishwasher and nice interior decorating. We had a three bed room, which was two levels and had two bathrooms. We only had housekeeping when we wanted it, which wasnt often. Parking is $5 per night until you are there for 30 nights. Worth every penny. There is a pool, laundry room and basketball court. Loved it here and will definitely go again, if needed! Recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r518953624-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>518953624</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>I stayed at this property as it was reasonably priced and close to Chapman University and surrounding places of interest. parking was free now it's $5 per car. Breakfast was good. Request 2nd floor unit as being on the 1st floor can be sometimes noisier but depends on who is staying above you. I received a late 2pm checkout however our roomkey was deactivated prior to checkout. Why?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r500270620-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>500270620</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>On First Time for one night</t>
+  </si>
+  <si>
+    <t>Our first experience with this hotel. To sum it up: Very clean; Friendly employees; separate a/c for every unit; Comfortable beds and great shower; Good breakfast with a great variety: A good experience and they deserve 5 stars.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r494373315-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>494373315</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Facility was fine - service and attitude was poor.</t>
+  </si>
+  <si>
+    <t>This was my 2nd and last stay - both were business related.  My disappointments were driven solely through the attitudes I received when conflicts and issues occurred.  I realize that, by design, Residence Inns aren't really business related, but the location works (worked - I won't go back) for our meetings, so we've been using it when in this area of LA.  Since I wasn't the traditional transient guest, I was therefore an annoyance.  My room &amp; tax was to be paid by my company, but they stated they had no record of it.  They had the contract booking my room as well as the meeting room on the 2nd floor, they confirmed it was reserved for me to use, but they had no form of payment of either room (???)  How is that possible? I was told they would contact my company rep and investigate.  I had a discussion with my company rep approx. 2 hours later and she informed me she had just spoken with the hotel and the issue was resolved and both the meeting room and the room &amp; tax was to be paid by my company.  At checkout, the hotel held the position that no discussion had occurred and I was responsible for the ROOM charges, but not the MEETING ROOM charges... somehow the meeting room had been paid for since I checked in, but I had to pay the rm &amp; tx because "they...This was my 2nd and last stay - both were business related.  My disappointments were driven solely through the attitudes I received when conflicts and issues occurred.  I realize that, by design, Residence Inns aren't really business related, but the location works (worked - I won't go back) for our meetings, so we've been using it when in this area of LA.  Since I wasn't the traditional transient guest, I was therefore an annoyance.  My room &amp; tax was to be paid by my company, but they stated they had no record of it.  They had the contract booking my room as well as the meeting room on the 2nd floor, they confirmed it was reserved for me to use, but they had no form of payment of either room (???)  How is that possible? I was told they would contact my company rep and investigate.  I had a discussion with my company rep approx. 2 hours later and she informed me she had just spoken with the hotel and the issue was resolved and both the meeting room and the room &amp; tax was to be paid by my company.  At checkout, the hotel held the position that no discussion had occurred and I was responsible for the ROOM charges, but not the MEETING ROOM charges... somehow the meeting room had been paid for since I checked in, but I had to pay the rm &amp; tx because "they weren't sure".The 2 lobby computers were incapable of opening .doc, .xls or .pdf files.  At first, the response and attitude of the staff was, "oh well...."  After convincing the staff I had to have access to these softwares, I was allowed into the admin area to work on one of their computers.Finally, I was expecting a package, which I later found out was delivered Thursday afternoon, 6/15/17, the day before checkout.  Thursday evening I inquired about my package and was told nothing had arrived.  I received a call today asking me what to do with my package.  When Stephanie told me it was at my own expense and I explained to her the situation, she was clearly annoyed and simply wanted to get off the phone.  When I asked to speak with the manager, I was told Courtney was out, and she did not know when he would be available (???) and I could leave a voicemail.  I've decided I'd rather spend the $50 to re-order what's in the package than pay Marriott Residence Inn Placentia the $5-$10 to ship it to my house, and simply write-off this hotel for future use.If you're looking for a place to lay your head and take a swim, this place held well to Marriott standards, which is why I didn't give the worst rating available..  If you're looking for any professionalism above the high school level, look somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>This was my 2nd and last stay - both were business related.  My disappointments were driven solely through the attitudes I received when conflicts and issues occurred.  I realize that, by design, Residence Inns aren't really business related, but the location works (worked - I won't go back) for our meetings, so we've been using it when in this area of LA.  Since I wasn't the traditional transient guest, I was therefore an annoyance.  My room &amp; tax was to be paid by my company, but they stated they had no record of it.  They had the contract booking my room as well as the meeting room on the 2nd floor, they confirmed it was reserved for me to use, but they had no form of payment of either room (???)  How is that possible? I was told they would contact my company rep and investigate.  I had a discussion with my company rep approx. 2 hours later and she informed me she had just spoken with the hotel and the issue was resolved and both the meeting room and the room &amp; tax was to be paid by my company.  At checkout, the hotel held the position that no discussion had occurred and I was responsible for the ROOM charges, but not the MEETING ROOM charges... somehow the meeting room had been paid for since I checked in, but I had to pay the rm &amp; tx because "they...This was my 2nd and last stay - both were business related.  My disappointments were driven solely through the attitudes I received when conflicts and issues occurred.  I realize that, by design, Residence Inns aren't really business related, but the location works (worked - I won't go back) for our meetings, so we've been using it when in this area of LA.  Since I wasn't the traditional transient guest, I was therefore an annoyance.  My room &amp; tax was to be paid by my company, but they stated they had no record of it.  They had the contract booking my room as well as the meeting room on the 2nd floor, they confirmed it was reserved for me to use, but they had no form of payment of either room (???)  How is that possible? I was told they would contact my company rep and investigate.  I had a discussion with my company rep approx. 2 hours later and she informed me she had just spoken with the hotel and the issue was resolved and both the meeting room and the room &amp; tax was to be paid by my company.  At checkout, the hotel held the position that no discussion had occurred and I was responsible for the ROOM charges, but not the MEETING ROOM charges... somehow the meeting room had been paid for since I checked in, but I had to pay the rm &amp; tx because "they weren't sure".The 2 lobby computers were incapable of opening .doc, .xls or .pdf files.  At first, the response and attitude of the staff was, "oh well...."  After convincing the staff I had to have access to these softwares, I was allowed into the admin area to work on one of their computers.Finally, I was expecting a package, which I later found out was delivered Thursday afternoon, 6/15/17, the day before checkout.  Thursday evening I inquired about my package and was told nothing had arrived.  I received a call today asking me what to do with my package.  When Stephanie told me it was at my own expense and I explained to her the situation, she was clearly annoyed and simply wanted to get off the phone.  When I asked to speak with the manager, I was told Courtney was out, and she did not know when he would be available (???) and I could leave a voicemail.  I've decided I'd rather spend the $50 to re-order what's in the package than pay Marriott Residence Inn Placentia the $5-$10 to ship it to my house, and simply write-off this hotel for future use.If you're looking for a place to lay your head and take a swim, this place held well to Marriott standards, which is why I didn't give the worst rating available..  If you're looking for any professionalism above the high school level, look somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r485033990-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>485033990</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect in everyway</t>
+  </si>
+  <si>
+    <t>Clean room, great breakfast, attentive staff, on site laundry room, fire pit and pool, stayed 2 nights with my daughter, quiet even though we were by the pool, HBO, in room kitchen and dinning table, will grocery shop for you. Need I say more.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r480977956-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>480977956</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>A decent RI in a not so good area</t>
+  </si>
+  <si>
+    <t>I chose this Hotel as it was the only Marriott property where I could use my free e-cert which is only good at Cat 1-5 Hotels and this one is a Category 4.  This is one of the main reasons why I'll be canceling Marriott credit cards as Cat 1-5 Hotels are becoming scarce making the free certs difficult to use but that is another issue.
+As I drove into this property I was already concerned about the area and the safety of my vehicle.  The sign saying management isn't responsible for vehicle theft was a clue that it happens often here.  It's in the middle of an industrial area with office complexes around and the freeway to the side.  At check in they also require you to sign a waver stating you won't have loud parties and you have to put down an extra deposit in case you decide to damage your room.  Another clue that this place has issues.  I was put in a suite next to the freeway and I requested a change to a quieter location which was accommodated so that was good.
+On a positive note, the service here was ok and the area around my suite was generally quiet all night although the smell from the garbage disposal in the kitchen was a downer when entering the place.  There were some families with kids using the pool and they have a firepit there that's...I chose this Hotel as it was the only Marriott property where I could use my free e-cert which is only good at Cat 1-5 Hotels and this one is a Category 4.  This is one of the main reasons why I'll be canceling Marriott credit cards as Cat 1-5 Hotels are becoming scarce making the free certs difficult to use but that is another issue.As I drove into this property I was already concerned about the area and the safety of my vehicle.  The sign saying management isn't responsible for vehicle theft was a clue that it happens often here.  It's in the middle of an industrial area with office complexes around and the freeway to the side.  At check in they also require you to sign a waver stating you won't have loud parties and you have to put down an extra deposit in case you decide to damage your room.  Another clue that this place has issues.  I was put in a suite next to the freeway and I requested a change to a quieter location which was accommodated so that was good.On a positive note, the service here was ok and the area around my suite was generally quiet all night although the smell from the garbage disposal in the kitchen was a downer when entering the place.  There were some families with kids using the pool and they have a firepit there that's lit up at night.One other problem was the flat screen TV display was broken and the picture was really dark with one light spot at the top.  I was nervous going out to my car in the morning but there was no break in and everything seemed fine.  The free breakfast buffet was good and very crowded with people probably getting ready to go to Disneyland.  I wouldn't choose this place again and would look for other options closer to Anaheim.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>I chose this Hotel as it was the only Marriott property where I could use my free e-cert which is only good at Cat 1-5 Hotels and this one is a Category 4.  This is one of the main reasons why I'll be canceling Marriott credit cards as Cat 1-5 Hotels are becoming scarce making the free certs difficult to use but that is another issue.
+As I drove into this property I was already concerned about the area and the safety of my vehicle.  The sign saying management isn't responsible for vehicle theft was a clue that it happens often here.  It's in the middle of an industrial area with office complexes around and the freeway to the side.  At check in they also require you to sign a waver stating you won't have loud parties and you have to put down an extra deposit in case you decide to damage your room.  Another clue that this place has issues.  I was put in a suite next to the freeway and I requested a change to a quieter location which was accommodated so that was good.
+On a positive note, the service here was ok and the area around my suite was generally quiet all night although the smell from the garbage disposal in the kitchen was a downer when entering the place.  There were some families with kids using the pool and they have a firepit there that's...I chose this Hotel as it was the only Marriott property where I could use my free e-cert which is only good at Cat 1-5 Hotels and this one is a Category 4.  This is one of the main reasons why I'll be canceling Marriott credit cards as Cat 1-5 Hotels are becoming scarce making the free certs difficult to use but that is another issue.As I drove into this property I was already concerned about the area and the safety of my vehicle.  The sign saying management isn't responsible for vehicle theft was a clue that it happens often here.  It's in the middle of an industrial area with office complexes around and the freeway to the side.  At check in they also require you to sign a waver stating you won't have loud parties and you have to put down an extra deposit in case you decide to damage your room.  Another clue that this place has issues.  I was put in a suite next to the freeway and I requested a change to a quieter location which was accommodated so that was good.On a positive note, the service here was ok and the area around my suite was generally quiet all night although the smell from the garbage disposal in the kitchen was a downer when entering the place.  There were some families with kids using the pool and they have a firepit there that's lit up at night.One other problem was the flat screen TV display was broken and the picture was really dark with one light spot at the top.  I was nervous going out to my car in the morning but there was no break in and everything seemed fine.  The free breakfast buffet was good and very crowded with people probably getting ready to go to Disneyland.  I wouldn't choose this place again and would look for other options closer to Anaheim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r473430426-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>473430426</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Good Senior Rate, Location &amp; B'fast Buffet!</t>
+  </si>
+  <si>
+    <t>Spent a relaxed 3 nights here; near popular SoCal attractions, good food choices, and freeway access (but not noise). Rooms have complete kitchens, sofa-beds, and comfy kings (but small bath areas). Good for families w/kids; friendly service &amp; attentive staff oversight of breakfast line. Recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r459228751-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>459228751</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Romantic getaway</t>
+  </si>
+  <si>
+    <t>My honey and I decided to go to California for our anniversary. We spent a few days at Disneyland and one day in LA, this hotel was a perfect place for us. We stayed in the #4 building on the 1st floor, it was a wheelchair accessible so there was only a shower (no tub but not a big deal to us). The suite came with a full kitchen with dishwasher. It was about 30 minute drive from the hotel to disneyland and another to LA. The room itself was very spacious (queen bed suite) and was very clean. We were close to the interstate but we could not hear any noise, not even from the room above us. The staff were all very nice and very helpful with giving directions. The breakfast was hot and helped us get our days started. We stayed for 4 nights.They have free wi-fi or you could pay for the upgrade (I used the free wifi and had no problems checking fb).MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>My honey and I decided to go to California for our anniversary. We spent a few days at Disneyland and one day in LA, this hotel was a perfect place for us. We stayed in the #4 building on the 1st floor, it was a wheelchair accessible so there was only a shower (no tub but not a big deal to us). The suite came with a full kitchen with dishwasher. It was about 30 minute drive from the hotel to disneyland and another to LA. The room itself was very spacious (queen bed suite) and was very clean. We were close to the interstate but we could not hear any noise, not even from the room above us. The staff were all very nice and very helpful with giving directions. The breakfast was hot and helped us get our days started. We stayed for 4 nights.They have free wi-fi or you could pay for the upgrade (I used the free wifi and had no problems checking fb).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r450588062-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>450588062</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Courteous Staff but Noisy Location</t>
+  </si>
+  <si>
+    <t>Stayed during the last week of December 2016 for a conference. The staff was very warm and courteous. The location itself was average at best. Our suite (building 5) was right next to the freeway and if you are a light sleeper, you might want to ask for a suite far far away. The noise from the freeway was way too loud. Also, I wish the loft design was enclosed and not open which would allow for more privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Stayed during the last week of December 2016 for a conference. The staff was very warm and courteous. The location itself was average at best. Our suite (building 5) was right next to the freeway and if you are a light sleeper, you might want to ask for a suite far far away. The noise from the freeway was way too loud. Also, I wish the loft design was enclosed and not open which would allow for more privacy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r447569184-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>447569184</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay for a Disney Trip</t>
+  </si>
+  <si>
+    <t>We stayed here for a Disney trip using marriot points. Was happy with the distance from Disneyland, maybe a 10-15 minute drive. Room was clean and large. Breakfast was great, had a good selection and all members of our party were happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for a Disney trip using marriot points. Was happy with the distance from Disneyland, maybe a 10-15 minute drive. Room was clean and large. Breakfast was great, had a good selection and all members of our party were happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r434772760-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>434772760</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Close to The Bruery</t>
+  </si>
+  <si>
+    <t>Althought the Res Inn is basically behind The Bruery and you could throw a rock and hit the building, there is a fence between the two properties. It is scaleable, but after a lot of beer, one might use caution. If you walk around the fence, it is about a 15 minute walk. A category 4 (20,000 pts) hotel, this property checked the box for my specific need. It was in proximity of The Bruery (for safely walking back to hotel) and it had a bed. Clean spaces, fine area. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Althought the Res Inn is basically behind The Bruery and you could throw a rock and hit the building, there is a fence between the two properties. It is scaleable, but after a lot of beer, one might use caution. If you walk around the fence, it is about a 15 minute walk. A category 4 (20,000 pts) hotel, this property checked the box for my specific need. It was in proximity of The Bruery (for safely walking back to hotel) and it had a bed. Clean spaces, fine area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r423612178-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>423612178</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Might End Up Being a Very Expensive Stay if You Have an SUV!</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights(Disney Trip) and the room and staff was excellent. If just rating the room and staff I encountered I would give 4 stars. Only 6 miles from Disney which is a huge plus.  My issue was with the fact the staff knew there has been some break ins in the parking lot but yet never said a word to warn anyone. In my case, I’m not sure that would have helped as last thing I’d expect to get stolen was seats out of the vehicle.  There is a sign in the parking area saying something of the nature "not responsible for break ins and to lock/secure your valuables", that should have been my first sign of a possible problem.   Nothing like waking up to go pack ones truck and seeing the back window pried open then opening the hatch to find the seats missing. Manager was prompt in calling the police and was very sincere about the ordeal. He did say there were some break ins in the parking lot over the last couple months; however he claims (verified in next day email) this was the first he ever heard of seats being taken, so it was a first for all I guess. However, once the police arrived, the officer said it has happened numerous times in the So Cal Area as there is a HUGE black market for 3rd row seats in SO Cal Area.   A...We stayed 2 nights(Disney Trip) and the room and staff was excellent. If just rating the room and staff I encountered I would give 4 stars. Only 6 miles from Disney which is a huge plus.  My issue was with the fact the staff knew there has been some break ins in the parking lot but yet never said a word to warn anyone. In my case, I’m not sure that would have helped as last thing I’d expect to get stolen was seats out of the vehicle.  There is a sign in the parking area saying something of the nature "not responsible for break ins and to lock/secure your valuables", that should have been my first sign of a possible problem.   Nothing like waking up to go pack ones truck and seeing the back window pried open then opening the hatch to find the seats missing. Manager was prompt in calling the police and was very sincere about the ordeal. He did say there were some break ins in the parking lot over the last couple months; however he claims (verified in next day email) this was the first he ever heard of seats being taken, so it was a first for all I guess. However, once the police arrived, the officer said it has happened numerous times in the So Cal Area as there is a HUGE black market for 3rd row seats in SO Cal Area.   A quick Google search (after the fact for me) did reveal a HUGE ongoing problem in the area with thieves targeting large SUV’s and stealing the 3rd row seats.   When we asked the Police about the area, we got the impression it is not the best area to stay in as she cringed when asked how safe is this area. This was the first time I stayed at a property in Southern California that A: Didn’t charge for parking and/or had a secured lot, or B: Had a mandatory Valet, which was also secure. I did receive an email from the manger the next day stating I would get my points back that I used to stay there, so that was a nice gesture.  However, with the busted window/lock and seats I’m looking at close to 3 grand to repair if insurance doesn’t cover it. $500 if they do, either way I’m out way more than the room rate.  Like the aforementioned stated, the hotel and staff are great and would have stayed there again if this didn’t happen, however I suggest people spend the extra few bucks for a place with secured parking and you will be happy EVERYONE in your car has a seatbelt, better yet a seat to ride home in.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights(Disney Trip) and the room and staff was excellent. If just rating the room and staff I encountered I would give 4 stars. Only 6 miles from Disney which is a huge plus.  My issue was with the fact the staff knew there has been some break ins in the parking lot but yet never said a word to warn anyone. In my case, I’m not sure that would have helped as last thing I’d expect to get stolen was seats out of the vehicle.  There is a sign in the parking area saying something of the nature "not responsible for break ins and to lock/secure your valuables", that should have been my first sign of a possible problem.   Nothing like waking up to go pack ones truck and seeing the back window pried open then opening the hatch to find the seats missing. Manager was prompt in calling the police and was very sincere about the ordeal. He did say there were some break ins in the parking lot over the last couple months; however he claims (verified in next day email) this was the first he ever heard of seats being taken, so it was a first for all I guess. However, once the police arrived, the officer said it has happened numerous times in the So Cal Area as there is a HUGE black market for 3rd row seats in SO Cal Area.   A...We stayed 2 nights(Disney Trip) and the room and staff was excellent. If just rating the room and staff I encountered I would give 4 stars. Only 6 miles from Disney which is a huge plus.  My issue was with the fact the staff knew there has been some break ins in the parking lot but yet never said a word to warn anyone. In my case, I’m not sure that would have helped as last thing I’d expect to get stolen was seats out of the vehicle.  There is a sign in the parking area saying something of the nature "not responsible for break ins and to lock/secure your valuables", that should have been my first sign of a possible problem.   Nothing like waking up to go pack ones truck and seeing the back window pried open then opening the hatch to find the seats missing. Manager was prompt in calling the police and was very sincere about the ordeal. He did say there were some break ins in the parking lot over the last couple months; however he claims (verified in next day email) this was the first he ever heard of seats being taken, so it was a first for all I guess. However, once the police arrived, the officer said it has happened numerous times in the So Cal Area as there is a HUGE black market for 3rd row seats in SO Cal Area.   A quick Google search (after the fact for me) did reveal a HUGE ongoing problem in the area with thieves targeting large SUV’s and stealing the 3rd row seats.   When we asked the Police about the area, we got the impression it is not the best area to stay in as she cringed when asked how safe is this area. This was the first time I stayed at a property in Southern California that A: Didn’t charge for parking and/or had a secured lot, or B: Had a mandatory Valet, which was also secure. I did receive an email from the manger the next day stating I would get my points back that I used to stay there, so that was a nice gesture.  However, with the busted window/lock and seats I’m looking at close to 3 grand to repair if insurance doesn’t cover it. $500 if they do, either way I’m out way more than the room rate.  Like the aforementioned stated, the hotel and staff are great and would have stayed there again if this didn’t happen, however I suggest people spend the extra few bucks for a place with secured parking and you will be happy EVERYONE in your car has a seatbelt, better yet a seat to ride home in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r422239686-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>422239686</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Good choice for SoCal Attractions Visit</t>
+  </si>
+  <si>
+    <t>Redeemed Marriott Points for two night stay - great value and no parking fee !Check-in and Check-out were both fast and friendly.  A listing of local recommended restaurants with brief directions was provided.   Room was modern and clean.  Nights were comfortable and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Redeemed Marriott Points for two night stay - great value and no parking fee !Check-in and Check-out were both fast and friendly.  A listing of local recommended restaurants with brief directions was provided.   Room was modern and clean.  Nights were comfortable and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r396940952-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>396940952</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great Location - Great Stay</t>
+  </si>
+  <si>
+    <t>My son and I stayed her for 3 nights in July 2015. We booked using points. We booked a studio and  as a gold member they upgraded us to bi-level loft suite. The room had one bedroom downstairs, living room, kitchen and a upstairs loft bedroom. There was a bathroom upstairs and a bathroom downstairs. The room was clean and looked to be recently renovated. We found the staff to be friendly and super accommodating. We never made it to breakfast. We visited Disney each day and found this location to be quick and easy (aprx 10 -15mins) and we could use surface streets or the freeway. As a women alone with a teenage son, I felt very safe at this location. My only complaint is the outside stairs and no elevator!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>My son and I stayed her for 3 nights in July 2015. We booked using points. We booked a studio and  as a gold member they upgraded us to bi-level loft suite. The room had one bedroom downstairs, living room, kitchen and a upstairs loft bedroom. There was a bathroom upstairs and a bathroom downstairs. The room was clean and looked to be recently renovated. We found the staff to be friendly and super accommodating. We never made it to breakfast. We visited Disney each day and found this location to be quick and easy (aprx 10 -15mins) and we could use surface streets or the freeway. As a women alone with a teenage son, I felt very safe at this location. My only complaint is the outside stairs and no elevator!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r394345055-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>394345055</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>I loved the residence, it's so clean. We took the two bedroom residence with two bathrooms, a living room with a sofa bed and a small kitchen with a dish washer and a cooker. The staff there are so friendly. There's a swimming pool and a laundry room. It's suitable for big families and small ones. I totally recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved the residence, it's so clean. We took the two bedroom residence with two bathrooms, a living room with a sofa bed and a small kitchen with a dish washer and a cooker. The staff there are so friendly. There's a swimming pool and a laundry room. It's suitable for big families and small ones. I totally recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r384428534-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>384428534</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Problems? Talk to the manager!</t>
+  </si>
+  <si>
+    <t>They messed up our reservation again! (I think this company has a habit of doing this). We call them directly to book our reservation because of the problem we had at Costa Mesa Residence Inn the week before hoping this will eliminate that but NO! The excuse that we get from Costa Mesa is they have a problem with their website. So we call and spoke with a REAL PERSON! But still they messed it up! We even call before we left San Francisco to make sure because we will be coming late. Driving 6 1/2 hours from San Francisco to Fullerton arriving almost midnight and everyone is tired and when you get there they gave us the wrong room! We had to make use of what we can in the room they gave us. And there's more. We are about to sleep and there is this "ticking" sound coming from one of the overhead lamp attached to the headboard...imagine this you are so tired and you were given a wrong room...and now you are ready to get the little rest you can get...and there is this "ticking" sound on the background the whole night!!!...you gonna get crazy!
+I did complained the following morning and was able to talked to a manager in charge and voice out my frustration. I showed him the video I took with the "ticking" noise. He is very courteous and immediately apologizes for what happened....They messed up our reservation again! (I think this company has a habit of doing this). We call them directly to book our reservation because of the problem we had at Costa Mesa Residence Inn the week before hoping this will eliminate that but NO! The excuse that we get from Costa Mesa is they have a problem with their website. So we call and spoke with a REAL PERSON! But still they messed it up! We even call before we left San Francisco to make sure because we will be coming late. Driving 6 1/2 hours from San Francisco to Fullerton arriving almost midnight and everyone is tired and when you get there they gave us the wrong room! We had to make use of what we can in the room they gave us. And there's more. We are about to sleep and there is this "ticking" sound coming from one of the overhead lamp attached to the headboard...imagine this you are so tired and you were given a wrong room...and now you are ready to get the little rest you can get...and there is this "ticking" sound on the background the whole night!!!...you gonna get crazy!I did complained the following morning and was able to talked to a manager in charge and voice out my frustration. I showed him the video I took with the "ticking" noise. He is very courteous and immediately apologizes for what happened. He did gave me a bonus points on my reward account to make up for the inconvenience and I do appreciate his gesture.I'm writing this so people will be aware of how you will deal with them if you decide to book with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>They messed up our reservation again! (I think this company has a habit of doing this). We call them directly to book our reservation because of the problem we had at Costa Mesa Residence Inn the week before hoping this will eliminate that but NO! The excuse that we get from Costa Mesa is they have a problem with their website. So we call and spoke with a REAL PERSON! But still they messed it up! We even call before we left San Francisco to make sure because we will be coming late. Driving 6 1/2 hours from San Francisco to Fullerton arriving almost midnight and everyone is tired and when you get there they gave us the wrong room! We had to make use of what we can in the room they gave us. And there's more. We are about to sleep and there is this "ticking" sound coming from one of the overhead lamp attached to the headboard...imagine this you are so tired and you were given a wrong room...and now you are ready to get the little rest you can get...and there is this "ticking" sound on the background the whole night!!!...you gonna get crazy!
+I did complained the following morning and was able to talked to a manager in charge and voice out my frustration. I showed him the video I took with the "ticking" noise. He is very courteous and immediately apologizes for what happened....They messed up our reservation again! (I think this company has a habit of doing this). We call them directly to book our reservation because of the problem we had at Costa Mesa Residence Inn the week before hoping this will eliminate that but NO! The excuse that we get from Costa Mesa is they have a problem with their website. So we call and spoke with a REAL PERSON! But still they messed it up! We even call before we left San Francisco to make sure because we will be coming late. Driving 6 1/2 hours from San Francisco to Fullerton arriving almost midnight and everyone is tired and when you get there they gave us the wrong room! We had to make use of what we can in the room they gave us. And there's more. We are about to sleep and there is this "ticking" sound coming from one of the overhead lamp attached to the headboard...imagine this you are so tired and you were given a wrong room...and now you are ready to get the little rest you can get...and there is this "ticking" sound on the background the whole night!!!...you gonna get crazy!I did complained the following morning and was able to talked to a manager in charge and voice out my frustration. I showed him the video I took with the "ticking" noise. He is very courteous and immediately apologizes for what happened. He did gave me a bonus points on my reward account to make up for the inconvenience and I do appreciate his gesture.I'm writing this so people will be aware of how you will deal with them if you decide to book with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r373937100-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>373937100</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Comfortable space for small family</t>
+  </si>
+  <si>
+    <t>I've always appreciated the extra space you get when staying at a Residence Inn. Check in was a breeze despite it being very late.Having a kitchen is a big plus, especially the full-size refrigerator and microwave. The toilet/shower room is a bit tight, but the extra vanity space and closets were good. The sofa bed was decent in the studio room. The pool was a bit too chilly for us to use though and there was no hot tub either. Breakfasts were great with nice options, although there was a wider variety on Monday versus the weekend.No restaurants within walking distance but lots of options nearby within a 5-10 minute drive.Overall, a comfortable space to lay our heads down and close enough to Disneyland as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>I've always appreciated the extra space you get when staying at a Residence Inn. Check in was a breeze despite it being very late.Having a kitchen is a big plus, especially the full-size refrigerator and microwave. The toilet/shower room is a bit tight, but the extra vanity space and closets were good. The sofa bed was decent in the studio room. The pool was a bit too chilly for us to use though and there was no hot tub either. Breakfasts were great with nice options, although there was a wider variety on Monday versus the weekend.No restaurants within walking distance but lots of options nearby within a 5-10 minute drive.Overall, a comfortable space to lay our heads down and close enough to Disneyland as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r373854317-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>373854317</t>
+  </si>
+  <si>
+    <t>11 nights and not a real complaint</t>
+  </si>
+  <si>
+    <t>Located near railyards but with a large business and a Quality Inn standing between us and the trains, which we never heard.   If you have stayed in a RI you know that breakfast is included.  Ours were great, eggs, waffles, fried potatos, choice of 4 cereals fruit, OJ muffins etc and the food never ran low.   On only two nights did we hear neighbors moving in upstairs.   the staff was helpful and courteous.  only used the pool once as we were always out late returning from San Diego, Hollywood, Long Beach or disneyland, and the pool was clean and in the high 70s as its heated.   RIs have full kitchens, fridge, stove, mw, sink, dishwasher and a large assortment of dishes and pots and utensils.MoreShow less</t>
+  </si>
+  <si>
+    <t>Located near railyards but with a large business and a Quality Inn standing between us and the trains, which we never heard.   If you have stayed in a RI you know that breakfast is included.  Ours were great, eggs, waffles, fried potatos, choice of 4 cereals fruit, OJ muffins etc and the food never ran low.   On only two nights did we hear neighbors moving in upstairs.   the staff was helpful and courteous.  only used the pool once as we were always out late returning from San Diego, Hollywood, Long Beach or disneyland, and the pool was clean and in the high 70s as its heated.   RIs have full kitchens, fridge, stove, mw, sink, dishwasher and a large assortment of dishes and pots and utensils.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r370717041-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>370717041</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Laid back hotel-Great amenities</t>
+  </si>
+  <si>
+    <t>Pleasant grounds...nice landscaping by pool and small tennis courts. Very friendly, attentive, personable clerks at front desk (Yuri I remember)..and friendly, outgoing Maria and Mona (?name) setting out each day/night the food. A "just-like-home" layout of 2 story-condos.We stayed in "block" room 423..everything in working order..all utensils/wine glasses/plates/stove/fridge/plates etc needed..and of course a coffeemaker and a nice touch-one bag of microwave p-corn.Mattress was a tad too soft for hubby and I..but comfy.Smallish bathroom  with separate vanity.Free parking..and the best amenities were the full breakfast each a.m. (waffles/eng muffin/eggs/sausage/fruits/yogurt  etc) and the great "mixer" 6p-730pm Mon-Wed. with complimentary beer, wine, and appetizers.My only 2 "cons": location is definetly industrial,so no walking to restaurants..etc...and no hot-tub.Fitness room is very small..just 2 treadmills and 1 elliptical.We found a very authentic, affordable Mexican restaurant recommended by staff..less than a mile away..called El Farolito in Placentia. Delicious food..locals eat here..great prices...great ambiance.Pool says its heated...I beg to differ; even with 200pm sun shining on it..it was chilly.Good internet connection in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Pleasant grounds...nice landscaping by pool and small tennis courts. Very friendly, attentive, personable clerks at front desk (Yuri I remember)..and friendly, outgoing Maria and Mona (?name) setting out each day/night the food. A "just-like-home" layout of 2 story-condos.We stayed in "block" room 423..everything in working order..all utensils/wine glasses/plates/stove/fridge/plates etc needed..and of course a coffeemaker and a nice touch-one bag of microwave p-corn.Mattress was a tad too soft for hubby and I..but comfy.Smallish bathroom  with separate vanity.Free parking..and the best amenities were the full breakfast each a.m. (waffles/eng muffin/eggs/sausage/fruits/yogurt  etc) and the great "mixer" 6p-730pm Mon-Wed. with complimentary beer, wine, and appetizers.My only 2 "cons": location is definetly industrial,so no walking to restaurants..etc...and no hot-tub.Fitness room is very small..just 2 treadmills and 1 elliptical.We found a very authentic, affordable Mexican restaurant recommended by staff..less than a mile away..called El Farolito in Placentia. Delicious food..locals eat here..great prices...great ambiance.Pool says its heated...I beg to differ; even with 200pm sun shining on it..it was chilly.Good internet connection in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r361070261-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>361070261</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Great location and nice settings</t>
+  </si>
+  <si>
+    <t>We stayed at many residence inns, and this is different from other residence inn we visited. The hotel layout is really casual, with several units in each building. Inside each unit is like typical residence inn, except it has some features like light sensors or electronic temp control. It has a good swimming pool and a nice tennis court, but we used neither of these. In the 5 days of our stay, we visited Disneyland, as well as "little taipei" in Rowland Heights. They are both in close distance.PRO:1. Clean room, good kitchen.2. Very friendly clerks.3. great breakfast included4. great location to Disney, about 15 minutes drive5. Good wi-fiCONS1. not sound proof, we can hear kids running upstairs2. utensils are not clean - we have to wash them overMoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at many residence inns, and this is different from other residence inn we visited. The hotel layout is really casual, with several units in each building. Inside each unit is like typical residence inn, except it has some features like light sensors or electronic temp control. It has a good swimming pool and a nice tennis court, but we used neither of these. In the 5 days of our stay, we visited Disneyland, as well as "little taipei" in Rowland Heights. They are both in close distance.PRO:1. Clean room, good kitchen.2. Very friendly clerks.3. great breakfast included4. great location to Disney, about 15 minutes drive5. Good wi-fiCONS1. not sound proof, we can hear kids running upstairs2. utensils are not clean - we have to wash them overMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r358798264-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>358798264</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>The staff at the hotel were very friendly and helpful.  Disneyland is short drive and it was nice to have a full kitchen to cook in.  There is also a beer brewery within walking distance.  My husband really enjoyed that after a long day at Disney.  The rooms were nice and the pool area was wonderful.  The only thing missing was a hot tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>The staff at the hotel were very friendly and helpful.  Disneyland is short drive and it was nice to have a full kitchen to cook in.  There is also a beer brewery within walking distance.  My husband really enjoyed that after a long day at Disney.  The rooms were nice and the pool area was wonderful.  The only thing missing was a hot tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r350865372-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>350865372</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Great deal!</t>
+  </si>
+  <si>
+    <t>Stayed here with my family while visiting the Anaheim area. We did an Angels game, Disney Land, and other sight seeing. This hotel was amazing. We had the 2 bedroom, one room with 2 beds and a full bath, full kitchen and living area with TV. Then lofted upstairs was the master bedroom with 1 bed,TV and full bath. Totally loved the set up. Free breakfast every morning in the lobby was delicious. They had 2 waffle makers with toppings (chocolate chips, strawberries,whipped cream) and then different hot items depending on the day ( eggs, sausage, bacon, hash browns) coffee and juice. It was very good, well taken care of. I was very impressed with the breakfast staff. Pool was small but never crowded. Basketball hoop next to it. Small fitness area. The area around there looks a little sketchy but had no problems. MoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with my family while visiting the Anaheim area. We did an Angels game, Disney Land, and other sight seeing. This hotel was amazing. We had the 2 bedroom, one room with 2 beds and a full bath, full kitchen and living area with TV. Then lofted upstairs was the master bedroom with 1 bed,TV and full bath. Totally loved the set up. Free breakfast every morning in the lobby was delicious. They had 2 waffle makers with toppings (chocolate chips, strawberries,whipped cream) and then different hot items depending on the day ( eggs, sausage, bacon, hash browns) coffee and juice. It was very good, well taken care of. I was very impressed with the breakfast staff. Pool was small but never crowded. Basketball hoop next to it. Small fitness area. The area around there looks a little sketchy but had no problems. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r348150456-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>348150456</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible staff a tire property under construction </t>
+  </si>
+  <si>
+    <t>Arrived at the property and everything was ok, checked in and was told the property was completely sold out and I was like "whoa, this place is jammin!" But upon driving around the property to our building it was apparent there was major renovation going on, something that wasn't disclosed on Marriotts website, in confirmations, or verbally when we checked in, and 75% of the parking was taken by construction. Ok our second day we were woken by hammering and a electric saw outside our door. Called the front desk around 7:45 and asked why the construction started early (sign in lobby says 9am-6pm) and was told those signs are wrong that construction is 6am-9pm. Who schedules construction for those hours? Went back and tried to go back to sleep, and it must have happened because shortly before 11 a maid fully entered our room, as I sat up in bed and she walked out (check out was at 1 and the "do not disturb" was on our door). Then while we were packing, another maid tried to enter our room at 12:15 and asked "why are you still here? Do you have late check out" we replied "yes" and she asked "what time?" This is something all staff should know, other hotels have this printed out on their room matrix. What an ordeal!
+As we went to check out we decided to tell the front desk agent about our...Arrived at the property and everything was ok, checked in and was told the property was completely sold out and I was like "whoa, this place is jammin!" But upon driving around the property to our building it was apparent there was major renovation going on, something that wasn't disclosed on Marriotts website, in confirmations, or verbally when we checked in, and 75% of the parking was taken by construction. Ok our second day we were woken by hammering and a electric saw outside our door. Called the front desk around 7:45 and asked why the construction started early (sign in lobby says 9am-6pm) and was told those signs are wrong that construction is 6am-9pm. Who schedules construction for those hours? Went back and tried to go back to sleep, and it must have happened because shortly before 11 a maid fully entered our room, as I sat up in bed and she walked out (check out was at 1 and the "do not disturb" was on our door). Then while we were packing, another maid tried to enter our room at 12:15 and asked "why are you still here? Do you have late check out" we replied "yes" and she asked "what time?" This is something all staff should know, other hotels have this printed out on their room matrix. What an ordeal!As we went to check out we decided to tell the front desk agent about our stay and that such major renovation really should be disclosed on the website. She literally stood there with her mouth open and offered nothing in response but "you booked on Marriott.com?" And "didn't you see the sign?" She either seemed genuinely shocked or unable to deal/grasp difficult situations. What made matters worse is there was a manager on duty, one who the front desk staff didn't think necessary to get, and there were two employees standing behind her, one the maid who entered our room, and another the nice lady in charge of the breakfast (also nothing to write home about) I've emailed the company and the property but haven't received anything backMoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Arrived at the property and everything was ok, checked in and was told the property was completely sold out and I was like "whoa, this place is jammin!" But upon driving around the property to our building it was apparent there was major renovation going on, something that wasn't disclosed on Marriotts website, in confirmations, or verbally when we checked in, and 75% of the parking was taken by construction. Ok our second day we were woken by hammering and a electric saw outside our door. Called the front desk around 7:45 and asked why the construction started early (sign in lobby says 9am-6pm) and was told those signs are wrong that construction is 6am-9pm. Who schedules construction for those hours? Went back and tried to go back to sleep, and it must have happened because shortly before 11 a maid fully entered our room, as I sat up in bed and she walked out (check out was at 1 and the "do not disturb" was on our door). Then while we were packing, another maid tried to enter our room at 12:15 and asked "why are you still here? Do you have late check out" we replied "yes" and she asked "what time?" This is something all staff should know, other hotels have this printed out on their room matrix. What an ordeal!
+As we went to check out we decided to tell the front desk agent about our...Arrived at the property and everything was ok, checked in and was told the property was completely sold out and I was like "whoa, this place is jammin!" But upon driving around the property to our building it was apparent there was major renovation going on, something that wasn't disclosed on Marriotts website, in confirmations, or verbally when we checked in, and 75% of the parking was taken by construction. Ok our second day we were woken by hammering and a electric saw outside our door. Called the front desk around 7:45 and asked why the construction started early (sign in lobby says 9am-6pm) and was told those signs are wrong that construction is 6am-9pm. Who schedules construction for those hours? Went back and tried to go back to sleep, and it must have happened because shortly before 11 a maid fully entered our room, as I sat up in bed and she walked out (check out was at 1 and the "do not disturb" was on our door). Then while we were packing, another maid tried to enter our room at 12:15 and asked "why are you still here? Do you have late check out" we replied "yes" and she asked "what time?" This is something all staff should know, other hotels have this printed out on their room matrix. What an ordeal!As we went to check out we decided to tell the front desk agent about our stay and that such major renovation really should be disclosed on the website. She literally stood there with her mouth open and offered nothing in response but "you booked on Marriott.com?" And "didn't you see the sign?" She either seemed genuinely shocked or unable to deal/grasp difficult situations. What made matters worse is there was a manager on duty, one who the front desk staff didn't think necessary to get, and there were two employees standing behind her, one the maid who entered our room, and another the nice lady in charge of the breakfast (also nothing to write home about) I've emailed the company and the property but haven't received anything backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r339295184-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>339295184</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>House cleaning details inadequate/Good front desk and kitchen hospitality.</t>
+  </si>
+  <si>
+    <t>We're Marriott members, so we try to stay at the most reasonable price Residence Inn/Fairfield Inn when in our vacation area. We stayed over the New Years eve week, 
+We were a little disappointed on this visit. We were not aware this a pet friendly facility and upon entry to our room, it smelled like urine with an overdose of cleaning chemicals. We immediately contacted the front desk and they gave us the key to an adjacent room. We moved to the new room immediately. Luckily this room did not have an offensive odor. 
+Upon settling into our new room, we set up the pull out for our children and laid out the  blanket that were in the closet and found the sheet and blanket with human hair. We immediately contacted the front desk to notify them and they brought us out a fresh set of linens and blankets. In the morning, we found the iron cord retracting, but we were tired of complaining and my wife put a rubber band in place to hold the cord. 
+Our room was cleaned adequately during our three day stay. We applaud the front desk personal and dining room attendants who were very nice and helpful. 
+On the majority of our visits to Marriott Hotels, we will receive a private email asking us to rate our visit. Our intent was to respond privately with the manager, but after not receiving any solicitations for...We're Marriott members, so we try to stay at the most reasonable price Residence Inn/Fairfield Inn when in our vacation area. We stayed over the New Years eve week, We were a little disappointed on this visit. We were not aware this a pet friendly facility and upon entry to our room, it smelled like urine with an overdose of cleaning chemicals. We immediately contacted the front desk and they gave us the key to an adjacent room. We moved to the new room immediately. Luckily this room did not have an offensive odor. Upon settling into our new room, we set up the pull out for our children and laid out the  blanket that were in the closet and found the sheet and blanket with human hair. We immediately contacted the front desk to notify them and they brought us out a fresh set of linens and blankets. In the morning, we found the iron cord retracting, but we were tired of complaining and my wife put a rubber band in place to hold the cord. Our room was cleaned adequately during our three day stay. We applaud the front desk personal and dining room attendants who were very nice and helpful. On the majority of our visits to Marriott Hotels, we will receive a private email asking us to rate our visit. Our intent was to respond privately with the manager, but after not receiving any solicitations for evaluation our email box, we decided to note our displeasure on this website. M. RodriguezMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded January 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2016</t>
+  </si>
+  <si>
+    <t>We're Marriott members, so we try to stay at the most reasonable price Residence Inn/Fairfield Inn when in our vacation area. We stayed over the New Years eve week, 
+We were a little disappointed on this visit. We were not aware this a pet friendly facility and upon entry to our room, it smelled like urine with an overdose of cleaning chemicals. We immediately contacted the front desk and they gave us the key to an adjacent room. We moved to the new room immediately. Luckily this room did not have an offensive odor. 
+Upon settling into our new room, we set up the pull out for our children and laid out the  blanket that were in the closet and found the sheet and blanket with human hair. We immediately contacted the front desk to notify them and they brought us out a fresh set of linens and blankets. In the morning, we found the iron cord retracting, but we were tired of complaining and my wife put a rubber band in place to hold the cord. 
+Our room was cleaned adequately during our three day stay. We applaud the front desk personal and dining room attendants who were very nice and helpful. 
+On the majority of our visits to Marriott Hotels, we will receive a private email asking us to rate our visit. Our intent was to respond privately with the manager, but after not receiving any solicitations for...We're Marriott members, so we try to stay at the most reasonable price Residence Inn/Fairfield Inn when in our vacation area. We stayed over the New Years eve week, We were a little disappointed on this visit. We were not aware this a pet friendly facility and upon entry to our room, it smelled like urine with an overdose of cleaning chemicals. We immediately contacted the front desk and they gave us the key to an adjacent room. We moved to the new room immediately. Luckily this room did not have an offensive odor. Upon settling into our new room, we set up the pull out for our children and laid out the  blanket that were in the closet and found the sheet and blanket with human hair. We immediately contacted the front desk to notify them and they brought us out a fresh set of linens and blankets. In the morning, we found the iron cord retracting, but we were tired of complaining and my wife put a rubber band in place to hold the cord. Our room was cleaned adequately during our three day stay. We applaud the front desk personal and dining room attendants who were very nice and helpful. On the majority of our visits to Marriott Hotels, we will receive a private email asking us to rate our visit. Our intent was to respond privately with the manager, but after not receiving any solicitations for evaluation our email box, we decided to note our displeasure on this website. M. RodriguezMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r325051919-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>325051919</t>
+  </si>
+  <si>
+    <t>11/07/2015</t>
+  </si>
+  <si>
+    <t>Stayed after Route 66 Trip</t>
+  </si>
+  <si>
+    <t>My parents chose this hotel as it had a separate living area in the loft for me, and although it was away from Harbour Blvd and Disney, I'm glad they did.
+We arrived and checked in to our apartment (#1422), the parking was available near the room so it was easy to get everything out of the car.
+The room - this was so spacious, they had everything you could think of - living area with sofa and chair, eating area with table and chairs, kitchen with full size fridge freezer, dishwasher, cooker, microwave, coffee maker and pots and pans (they even supplied microwave popcorn!). There was then a room downstairs and my room on the mezzanine floor (both with en-suite bathrooms).
+Meet and Greet Mingle - This happened in the breakfast area on Monday-Wednesday and was nibbles and drinks. It was nice as the day we arrived (Monday) it was my dad's birthday, so he could have a couple of drinks.
+Breakfast - this was served from 0600-0900 Monday to Friday and 0700-1000 at the weekends. The ladies who organised the area were very nice and were so friendly to everyone, always asking how you were :) they also kept everything very well stocked up. There were always 4 hot options ranging from sausage patties to potatoes, they also had 2 waffle makers, bagels, yogurts, fresh fruit, cereals, toast etc - was a good way to start the day....My parents chose this hotel as it had a separate living area in the loft for me, and although it was away from Harbour Blvd and Disney, I'm glad they did.We arrived and checked in to our apartment (#1422), the parking was available near the room so it was easy to get everything out of the car.The room - this was so spacious, they had everything you could think of - living area with sofa and chair, eating area with table and chairs, kitchen with full size fridge freezer, dishwasher, cooker, microwave, coffee maker and pots and pans (they even supplied microwave popcorn!). There was then a room downstairs and my room on the mezzanine floor (both with en-suite bathrooms).Meet and Greet Mingle - This happened in the breakfast area on Monday-Wednesday and was nibbles and drinks. It was nice as the day we arrived (Monday) it was my dad's birthday, so he could have a couple of drinks.Breakfast - this was served from 0600-0900 Monday to Friday and 0700-1000 at the weekends. The ladies who organised the area were very nice and were so friendly to everyone, always asking how you were :) they also kept everything very well stocked up. There were always 4 hot options ranging from sausage patties to potatoes, they also had 2 waffle makers, bagels, yogurts, fresh fruit, cereals, toast etc - was a good way to start the day.The Pool - this was being renovated when we arrived and was meant to be closed until 2 November, however they'd come to a deal with the Quality Inn next door so the guests could use their pool. We didn't but then a few days later, the pool reopened. It was nice to sit by the pool and also have a dip when it was 88℉ outside. The Laundry - this had 2 washers and 3 dryers - the washers cost $1.75 in quarters and the dryers cost $1 in quarters, you can also get soap from the reception desk for a couple of $s.The Area - the hotel was in an industrial area, but you were within a few minutes of other things. There was an Albertsons Grocery Store about 10 minutes drive up Placentia Blvd on Yorba which was good for getting groceries for the fridge. There are plenty of Mexican Restaurants around the area too if you like that kind of thing.All in all, I thoroughly recommend this hotel to everyone, it was great staying here, but you would need a car to get around.Thank you for a lovely time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My parents chose this hotel as it had a separate living area in the loft for me, and although it was away from Harbour Blvd and Disney, I'm glad they did.
+We arrived and checked in to our apartment (#1422), the parking was available near the room so it was easy to get everything out of the car.
+The room - this was so spacious, they had everything you could think of - living area with sofa and chair, eating area with table and chairs, kitchen with full size fridge freezer, dishwasher, cooker, microwave, coffee maker and pots and pans (they even supplied microwave popcorn!). There was then a room downstairs and my room on the mezzanine floor (both with en-suite bathrooms).
+Meet and Greet Mingle - This happened in the breakfast area on Monday-Wednesday and was nibbles and drinks. It was nice as the day we arrived (Monday) it was my dad's birthday, so he could have a couple of drinks.
+Breakfast - this was served from 0600-0900 Monday to Friday and 0700-1000 at the weekends. The ladies who organised the area were very nice and were so friendly to everyone, always asking how you were :) they also kept everything very well stocked up. There were always 4 hot options ranging from sausage patties to potatoes, they also had 2 waffle makers, bagels, yogurts, fresh fruit, cereals, toast etc - was a good way to start the day....My parents chose this hotel as it had a separate living area in the loft for me, and although it was away from Harbour Blvd and Disney, I'm glad they did.We arrived and checked in to our apartment (#1422), the parking was available near the room so it was easy to get everything out of the car.The room - this was so spacious, they had everything you could think of - living area with sofa and chair, eating area with table and chairs, kitchen with full size fridge freezer, dishwasher, cooker, microwave, coffee maker and pots and pans (they even supplied microwave popcorn!). There was then a room downstairs and my room on the mezzanine floor (both with en-suite bathrooms).Meet and Greet Mingle - This happened in the breakfast area on Monday-Wednesday and was nibbles and drinks. It was nice as the day we arrived (Monday) it was my dad's birthday, so he could have a couple of drinks.Breakfast - this was served from 0600-0900 Monday to Friday and 0700-1000 at the weekends. The ladies who organised the area were very nice and were so friendly to everyone, always asking how you were :) they also kept everything very well stocked up. There were always 4 hot options ranging from sausage patties to potatoes, they also had 2 waffle makers, bagels, yogurts, fresh fruit, cereals, toast etc - was a good way to start the day.The Pool - this was being renovated when we arrived and was meant to be closed until 2 November, however they'd come to a deal with the Quality Inn next door so the guests could use their pool. We didn't but then a few days later, the pool reopened. It was nice to sit by the pool and also have a dip when it was 88℉ outside. The Laundry - this had 2 washers and 3 dryers - the washers cost $1.75 in quarters and the dryers cost $1 in quarters, you can also get soap from the reception desk for a couple of $s.The Area - the hotel was in an industrial area, but you were within a few minutes of other things. There was an Albertsons Grocery Store about 10 minutes drive up Placentia Blvd on Yorba which was good for getting groceries for the fridge. There are plenty of Mexican Restaurants around the area too if you like that kind of thing.All in all, I thoroughly recommend this hotel to everyone, it was great staying here, but you would need a car to get around.Thank you for a lovely time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r316839299-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>316839299</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>spacious and clean</t>
+  </si>
+  <si>
+    <t>Very handy for 'The Bruery'Nice hotel, basic, clean, spacious.Friendly and helpful staff tooGood in room amenitiesGood access to/from I5Easy parking, and free.Free wifi too.Nice laundry as it is set up for longer staysMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2015</t>
+  </si>
+  <si>
+    <t>Very handy for 'The Bruery'Nice hotel, basic, clean, spacious.Friendly and helpful staff tooGood in room amenitiesGood access to/from I5Easy parking, and free.Free wifi too.Nice laundry as it is set up for longer staysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r316351800-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>316351800</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Excellent Orange COunty location</t>
+  </si>
+  <si>
+    <t>This is a great location for Orange County attractions, Disneyland and Knotts Berry Farm.The facility is clean, friendly and convenient for both John Wayne and Ontario airports.In room kitchen, laundry facility on site and plenty of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This is a great location for Orange County attractions, Disneyland and Knotts Berry Farm.The facility is clean, friendly and convenient for both John Wayne and Ontario airports.In room kitchen, laundry facility on site and plenty of parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r312885668-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>312885668</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Great two bedroom option!</t>
+  </si>
+  <si>
+    <t>We were looking for a two bedroom option to stay at while in Disneyland.  Having older teens, we've found that we all travel better with space.  This was the best option I could find without buying two rooms.  Our room had a good size bedroom/bathroom, living room and kitchen area.  Then upstairs was a loft with a queen bed and another bathroom.  The beds were firm but not uncomfortable and the room was clean. This worked great for us. The furnishings were nice as was the pool area. One drawback was that we had to carry our luggage upstairs so that may not work for everyone. I saw multiple barbecues available to travelers.  We also appreciated the free wifi (which worked well) and free parking which you don't find as often closer to Disneyland.  The free breakfast included oatmeal, scrambled eggs, sausage, usually some type of potatoes, make your own waffles, toast, cereal, fruit and pastries.  We found there was something for everyone.  We were about 5 miles from Disneyland which was a 15 minute drive each way. This is a nice property although it is in more of an industrial type area so there weren't stores and restaurants close.MoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>We were looking for a two bedroom option to stay at while in Disneyland.  Having older teens, we've found that we all travel better with space.  This was the best option I could find without buying two rooms.  Our room had a good size bedroom/bathroom, living room and kitchen area.  Then upstairs was a loft with a queen bed and another bathroom.  The beds were firm but not uncomfortable and the room was clean. This worked great for us. The furnishings were nice as was the pool area. One drawback was that we had to carry our luggage upstairs so that may not work for everyone. I saw multiple barbecues available to travelers.  We also appreciated the free wifi (which worked well) and free parking which you don't find as often closer to Disneyland.  The free breakfast included oatmeal, scrambled eggs, sausage, usually some type of potatoes, make your own waffles, toast, cereal, fruit and pastries.  We found there was something for everyone.  We were about 5 miles from Disneyland which was a 15 minute drive each way. This is a nice property although it is in more of an industrial type area so there weren't stores and restaurants close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r304536389-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>304536389</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Consistent Experience at Residence Inn!!!!!</t>
+  </si>
+  <si>
+    <t>Consistent experience at the Residence Inn hotels. I am a big fan of Residence Inn brand and have been staying at different properties. This was my 1st stay at this hotel. The rooms are very nice and spacious. Complimentary breakfast was good. If they can add some more vegetarian options in the breakfast that can be very good. One more thing i found that the timing for Residence Mix here is only for 30 minutes while for other properties i have been staying is 2 hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Consistent experience at the Residence Inn hotels. I am a big fan of Residence Inn brand and have been staying at different properties. This was my 1st stay at this hotel. The rooms are very nice and spacious. Complimentary breakfast was good. If they can add some more vegetarian options in the breakfast that can be very good. One more thing i found that the timing for Residence Mix here is only for 30 minutes while for other properties i have been staying is 2 hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r300916859-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>300916859</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was a great surprise. The 2 bedroom was very modern and we had plenty of space. The complimentary breakfast every morning was also very good, a good variety of food and well kept. The staff was very nice. Took advantage of the pool and basketball hoop every nightMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was a great surprise. The 2 bedroom was very modern and we had plenty of space. The complimentary breakfast every morning was also very good, a good variety of food and well kept. The staff was very nice. Took advantage of the pool and basketball hoop every nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r295514630-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>295514630</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>The rooms are very nice and spacious with almost a loft feel. The kitchen was just the perfect size with a stove, dishwasher, microwave and refrigerator. The beds were super comfortable. Every morning we went down to the lobby for the complimentary breakfast and met our expectations with a variety of food and a waffle maker! The two ladies who made the breakfast every morning were friendly and talked to us. The pool is a tad small but wasn't crowded in the mornings or evenings. MoreShow less</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>The rooms are very nice and spacious with almost a loft feel. The kitchen was just the perfect size with a stove, dishwasher, microwave and refrigerator. The beds were super comfortable. Every morning we went down to the lobby for the complimentary breakfast and met our expectations with a variety of food and a waffle maker! The two ladies who made the breakfast every morning were friendly and talked to us. The pool is a tad small but wasn't crowded in the mornings or evenings. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r272030375-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>272030375</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>A little run down!</t>
+  </si>
+  <si>
+    <t>The bathroom is needing a good cleaning. The rest of the room is good and the bed was comfortable. The sofa bed was not....that was bad news. The gym has old machines and no Lysol wipes, even when asked to get some. The staff is very friendly and very accommodating overall. The breakfast is free and coffee is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Courtney R, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>The bathroom is needing a good cleaning. The rest of the room is good and the bed was comfortable. The sofa bed was not....that was bad news. The gym has old machines and no Lysol wipes, even when asked to get some. The staff is very friendly and very accommodating overall. The breakfast is free and coffee is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r269992168-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>269992168</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>College Party at this Hotel</t>
+  </si>
+  <si>
+    <t>A very unpleasant stay.  We were scheduled to stay two nights and checked out after one. Did not get much sleep here as we were awake from 1-3 PM with the very large party that woke us up.  It was really throughout the complex from what we could hear, large groups up and down the stairs and shouting voices.  When checking out we were told that they had a form signed where the guests agreed not to behave that way, guess that should have been a clue that there was a problem?  Otherwise the room was in pretty sad condition, and you could see light through the door jam. Breakfast was tasteless and below average for our experience at other extended stay hotels we have stayed at this year.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>A very unpleasant stay.  We were scheduled to stay two nights and checked out after one. Did not get much sleep here as we were awake from 1-3 PM with the very large party that woke us up.  It was really throughout the complex from what we could hear, large groups up and down the stairs and shouting voices.  When checking out we were told that they had a form signed where the guests agreed not to behave that way, guess that should have been a clue that there was a problem?  Otherwise the room was in pretty sad condition, and you could see light through the door jam. Breakfast was tasteless and below average for our experience at other extended stay hotels we have stayed at this year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r267595990-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>267595990</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Overall great. The location wasn't bad... we were a Disneyland crowd and it might have been nice to be in walking distance, but we didn't just do Disney so the location was great for overall. We had a penthouse suite and it was huge and awesome. Well kept. The only "complaint" I have is that the breakfast area was really small and crowded, especially on Saturday with the Disney crowd.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall great. The location wasn't bad... we were a Disneyland crowd and it might have been nice to be in walking distance, but we didn't just do Disney so the location was great for overall. We had a penthouse suite and it was huge and awesome. Well kept. The only "complaint" I have is that the breakfast area was really small and crowded, especially on Saturday with the Disney crowd.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r261749123-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>261749123</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Many perks!!! Great value!!! EXCELLENT breakfast! Good for Disney stays.</t>
+  </si>
+  <si>
+    <t>We stayed here the entire week of March 16th, 2015 for a trip from North Carolina to Disneyland/CA sightseeing. Staying in a hotel for the entire week with my husband and a very energetic 5 year-old, I was slightly concerned that we would feel cramped and irritable by the end of the week, but I must say that the staff and housekeeping team really made the difference in making our stay a very welcoming one. Housekeeping came by DAILY and made our beds and left us lots of extra clean towels. You must understand the feeling of bliss when you come home from a long day at Disney and find that you can just jump on your neatly-made made bed and relax, and then have clean towels to shower with. What I especially liked was that they even fixed the sofa bed daily for us, and had it all set up with extra blankets/pillows, fitted sheets on, and even arranged my son's stuffed animals around the bed just like at home (although the King size bed was large enough for the three of us to sleep in without feeling cramped or fighting for covers). We never once felt cramped. The kitchen actually has full-sized appliances and cabinets are stocked with supplies. The TV swivels, so you can watch it from any angle, and it comes packed with ESPN channels. 
+Overall, we were very impressed with the room and the entire...We stayed here the entire week of March 16th, 2015 for a trip from North Carolina to Disneyland/CA sightseeing. Staying in a hotel for the entire week with my husband and a very energetic 5 year-old, I was slightly concerned that we would feel cramped and irritable by the end of the week, but I must say that the staff and housekeeping team really made the difference in making our stay a very welcoming one. Housekeeping came by DAILY and made our beds and left us lots of extra clean towels. You must understand the feeling of bliss when you come home from a long day at Disney and find that you can just jump on your neatly-made made bed and relax, and then have clean towels to shower with. What I especially liked was that they even fixed the sofa bed daily for us, and had it all set up with extra blankets/pillows, fitted sheets on, and even arranged my son's stuffed animals around the bed just like at home (although the King size bed was large enough for the three of us to sleep in without feeling cramped or fighting for covers). We never once felt cramped. The kitchen actually has full-sized appliances and cabinets are stocked with supplies. The TV swivels, so you can watch it from any angle, and it comes packed with ESPN channels. Overall, we were very impressed with the room and the entire hotel atmosphere; it is very family friendly and offers many perks. There is a sparkling clean pool; no hot tub but they do have an excellent lounge area by the pool with plenty of chairs and a couch/fire-pit; I did see guests using the grill area as well. The breakfast is definitely worth a mention. By far the BEST hotel breakfast I've had in all my travels. It even beat the overpriced Goofy's Kitchen breakfast from Disney dining. They go above and beyond in your selections, offering not just the standard scrambled eggs/toast, but also large breakfast sandwiches and red-skinned potatoes with grilled vegetables. In addition they had 4 varieties of cereal, fresh Quaker oatmeal with toppings, Activia yogurts, fresh fruit, delicious sausage patties, and two really good waffle-makers. The breakfast part is important for me because my husband is a diabetic so it was great to find that he was able to still have a healthy and hearty breakfast there as well. The dining area is large and welcoming and many families filled it up in the morning without it feeling cramped, in addition the food kept getting refilled constantly even into the late breakfast hours. I also heard them offer free dinners in the evening although we never stayed there for dinner, we did see a lot of guests with dinner plates out by the pool so I'm thinking it was also just as delicious. We also liked that they do complimentary grocery shopping for you and they have a basketball and a tennis court. I would definitely recommend this as a good hotel to stay in for a trip to Disney, as the drive there was really just under 15 minutes, with little to no traffic through either the highway or city drive. I looked through MANY hotels when booking the trip, and once we got closer to the Disney area, I really felt confident that I made the right choice, as the ones closer to Disney looked older and did not seem worth the money. It's also a straight shot drive from the hotel to food, just under 5 minutes to gas station, Jack in the Box, In-n-Out, and general shopping areas. Many other good restaurant tips from TripAdvisor were also in that general area as well,all within less than a 15 min drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We stayed here the entire week of March 16th, 2015 for a trip from North Carolina to Disneyland/CA sightseeing. Staying in a hotel for the entire week with my husband and a very energetic 5 year-old, I was slightly concerned that we would feel cramped and irritable by the end of the week, but I must say that the staff and housekeeping team really made the difference in making our stay a very welcoming one. Housekeeping came by DAILY and made our beds and left us lots of extra clean towels. You must understand the feeling of bliss when you come home from a long day at Disney and find that you can just jump on your neatly-made made bed and relax, and then have clean towels to shower with. What I especially liked was that they even fixed the sofa bed daily for us, and had it all set up with extra blankets/pillows, fitted sheets on, and even arranged my son's stuffed animals around the bed just like at home (although the King size bed was large enough for the three of us to sleep in without feeling cramped or fighting for covers). We never once felt cramped. The kitchen actually has full-sized appliances and cabinets are stocked with supplies. The TV swivels, so you can watch it from any angle, and it comes packed with ESPN channels. 
+Overall, we were very impressed with the room and the entire...We stayed here the entire week of March 16th, 2015 for a trip from North Carolina to Disneyland/CA sightseeing. Staying in a hotel for the entire week with my husband and a very energetic 5 year-old, I was slightly concerned that we would feel cramped and irritable by the end of the week, but I must say that the staff and housekeeping team really made the difference in making our stay a very welcoming one. Housekeeping came by DAILY and made our beds and left us lots of extra clean towels. You must understand the feeling of bliss when you come home from a long day at Disney and find that you can just jump on your neatly-made made bed and relax, and then have clean towels to shower with. What I especially liked was that they even fixed the sofa bed daily for us, and had it all set up with extra blankets/pillows, fitted sheets on, and even arranged my son's stuffed animals around the bed just like at home (although the King size bed was large enough for the three of us to sleep in without feeling cramped or fighting for covers). We never once felt cramped. The kitchen actually has full-sized appliances and cabinets are stocked with supplies. The TV swivels, so you can watch it from any angle, and it comes packed with ESPN channels. Overall, we were very impressed with the room and the entire hotel atmosphere; it is very family friendly and offers many perks. There is a sparkling clean pool; no hot tub but they do have an excellent lounge area by the pool with plenty of chairs and a couch/fire-pit; I did see guests using the grill area as well. The breakfast is definitely worth a mention. By far the BEST hotel breakfast I've had in all my travels. It even beat the overpriced Goofy's Kitchen breakfast from Disney dining. They go above and beyond in your selections, offering not just the standard scrambled eggs/toast, but also large breakfast sandwiches and red-skinned potatoes with grilled vegetables. In addition they had 4 varieties of cereal, fresh Quaker oatmeal with toppings, Activia yogurts, fresh fruit, delicious sausage patties, and two really good waffle-makers. The breakfast part is important for me because my husband is a diabetic so it was great to find that he was able to still have a healthy and hearty breakfast there as well. The dining area is large and welcoming and many families filled it up in the morning without it feeling cramped, in addition the food kept getting refilled constantly even into the late breakfast hours. I also heard them offer free dinners in the evening although we never stayed there for dinner, we did see a lot of guests with dinner plates out by the pool so I'm thinking it was also just as delicious. We also liked that they do complimentary grocery shopping for you and they have a basketball and a tennis court. I would definitely recommend this as a good hotel to stay in for a trip to Disney, as the drive there was really just under 15 minutes, with little to no traffic through either the highway or city drive. I looked through MANY hotels when booking the trip, and once we got closer to the Disney area, I really felt confident that I made the right choice, as the ones closer to Disney looked older and did not seem worth the money. It's also a straight shot drive from the hotel to food, just under 5 minutes to gas station, Jack in the Box, In-n-Out, and general shopping areas. Many other good restaurant tips from TripAdvisor were also in that general area as well,all within less than a 15 min drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r254314460-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>254314460</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on a trip to Disneyland.  The studio was spacious and it was nice to have a refrigerator available for cold drinks.  The bed was comfortable and the room was clean.  A couple of weird quirks; the under cabinet lights in the kitchen were motion activated so if you got out of bed at night the lights in the kitchen would come on.  Also, the bathroom was so small you have to stand to the side of the toilet in order to close the door.  The continental breakfast was good each morning and it was nice to have a variety of food and not the same thing every day.  The hotel is about a 5-10 minute drive to Disneyland and is in a business park area near Hwy 91 and 57.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on a trip to Disneyland.  The studio was spacious and it was nice to have a refrigerator available for cold drinks.  The bed was comfortable and the room was clean.  A couple of weird quirks; the under cabinet lights in the kitchen were motion activated so if you got out of bed at night the lights in the kitchen would come on.  Also, the bathroom was so small you have to stand to the side of the toilet in order to close the door.  The continental breakfast was good each morning and it was nice to have a variety of food and not the same thing every day.  The hotel is about a 5-10 minute drive to Disneyland and is in a business park area near Hwy 91 and 57.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r247975472-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>247975472</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>A crowded but with very friendly staffs</t>
+  </si>
+  <si>
+    <t>During the holiday season, the hotel was full of customers, but the services remain in a very good quality.  From the front desk to house keeping, all the staffs are nice &amp; friendly. They gave you a very joyful stay.  The breakfast was good.  The room was clean &amp; tidy.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r238570009-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>238570009</t>
+  </si>
+  <si>
+    <t>11/06/2014</t>
+  </si>
+  <si>
+    <t>Great hotel and staff.</t>
+  </si>
+  <si>
+    <t>Everything was great from Sujei checking me into a clean nice room all the way too check out. I was here for 3 days and breakfast was very delicious and had a great variety. Thank you residence Inn. I will return when im back in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve A, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Everything was great from Sujei checking me into a clean nice room all the way too check out. I was here for 3 days and breakfast was very delicious and had a great variety. Thank you residence Inn. I will return when im back in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r238407853-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>238407853</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Bugs in sheets.Watched maid drop towels and take upstairs to room. Dirt blood on toilet mold white fluid on sofaHorrible Management and staff and it took an hour to get checked in. Its in the middle of an office area and not remote from anywhere.free parking and rooms are spacious! It has kitchenetteMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Bugs in sheets.Watched maid drop towels and take upstairs to room. Dirt blood on toilet mold white fluid on sofaHorrible Management and staff and it took an hour to get checked in. Its in the middle of an office area and not remote from anywhere.free parking and rooms are spacious! It has kitchenetteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r236812017-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>236812017</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!!</t>
+  </si>
+  <si>
+    <t>This Residence Inn is one of the best we have stayed in.  We getting ready to stay for our 5th time next month, and every time we stay the service is always amazing!  The staff are all very attentive wither its checking in, requesting items to the amazing women whom do the breakfast they make you feel like your at home.  Our son is 10 months this last stay and its very nice that when we arrive our son's bed was set up, like they always have the past visits, and they even took it a step further and placed safety guards in all the outlets my son could reach!  Disneyland is very close only 10 min drive, with quick and easy assess to the freeways.  Which makes it easy to come back and forth to recharge.  This is where we will continue to stay, and have even got our friends and family to change from where they stay to start staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Residence Inn is one of the best we have stayed in.  We getting ready to stay for our 5th time next month, and every time we stay the service is always amazing!  The staff are all very attentive wither its checking in, requesting items to the amazing women whom do the breakfast they make you feel like your at home.  Our son is 10 months this last stay and its very nice that when we arrive our son's bed was set up, like they always have the past visits, and they even took it a step further and placed safety guards in all the outlets my son could reach!  Disneyland is very close only 10 min drive, with quick and easy assess to the freeways.  Which makes it easy to come back and forth to recharge.  This is where we will continue to stay, and have even got our friends and family to change from where they stay to start staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r222293920-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>222293920</t>
+  </si>
+  <si>
+    <t>08/16/2014</t>
+  </si>
+  <si>
+    <t>Great place to recharge!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to recharge after a busy day. Clean and neat. Breakfast was amazing. Staff was attentive. Could not ask for more except maybe an elevator since steps are steep. If steps bother you, ask for ground floor.  Definitely will be back when in the area next. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r207638779-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>207638779</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>We stayed here to attend a family function and for such extended stays both the location and the price is quite good. the rooms are quite spacious, quiet and the breakfast they serve in the mornings adequate and tasyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Steve A, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here to attend a family function and for such extended stays both the location and the price is quite good. the rooms are quite spacious, quiet and the breakfast they serve in the mornings adequate and tasyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r206412314-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>206412314</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>I stay here often, and go out of my way to book here</t>
+  </si>
+  <si>
+    <t>I'm in the Anaheim area pretty often for work. This is  my first choice hotel when I visit the area. In general, the Residence Inns are nice for extended stays - the kitchenette lets me buy a few meals, since I get tired of eating out all the time. For my purposes, the location is perfect.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r202907451-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>202907451</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>HOTEL - A- / Location C+</t>
+  </si>
+  <si>
+    <t>We booked this hotel last minute. We were allowed to check in early, which was greatly appreciated. The young lady at the desk was spectacular, as was "Cameron", when we called to inquire about the noise upstairs (it did sound like they were bowling). The room, while not the cleanest I've ever seen, was adequate. The bed was clean and comfortable. Now, with all that in mind, this would seem like an ideal location; but Placentia is mostly industrial, and there is a graffitied car dealership kitty-corner to the hotel. We were only here a night, and there is nothing that the hotel can do to improve the city - so in all, they actually deserve 4 circles. But, since this is a big picture review, Placentia just needs to be spruced up a bit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve A, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>We booked this hotel last minute. We were allowed to check in early, which was greatly appreciated. The young lady at the desk was spectacular, as was "Cameron", when we called to inquire about the noise upstairs (it did sound like they were bowling). The room, while not the cleanest I've ever seen, was adequate. The bed was clean and comfortable. Now, with all that in mind, this would seem like an ideal location; but Placentia is mostly industrial, and there is a graffitied car dealership kitty-corner to the hotel. We were only here a night, and there is nothing that the hotel can do to improve the city - so in all, they actually deserve 4 circles. But, since this is a big picture review, Placentia just needs to be spruced up a bit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r201400894-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>201400894</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Great place for 4 days</t>
+  </si>
+  <si>
+    <t>We were in town for a family funeral.  This was a great place to 'escape' from the insanity.  Room was quiet and it was so nice to have a kitchen and living room area.  Staff were so nice.  Cameron and Zackary at the front desk were helpful and kind.  Ramona and the other hospitality staff (breakfast area) were efficient and friendly.  We felt very well taken care of.  Close to the 57 and 91 but no traffic noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve A, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded April 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2014</t>
+  </si>
+  <si>
+    <t>We were in town for a family funeral.  This was a great place to 'escape' from the insanity.  Room was quiet and it was so nice to have a kitchen and living room area.  Staff were so nice.  Cameron and Zackary at the front desk were helpful and kind.  Ramona and the other hospitality staff (breakfast area) were efficient and friendly.  We felt very well taken care of.  Close to the 57 and 91 but no traffic noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r199700674-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>199700674</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Great stay at The Residence Inn.</t>
+  </si>
+  <si>
+    <t>We stayed at the Residence Inn for 2 nights while in Anaheim to watch some hockey.From check-in to check-out the front desk staff were very attentive.The pool area was very clean and well maintained.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r189265000-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>189265000</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Good Family Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 nights this past July and the location was a pretty good 'base' for travelling  around LA and Anaheim. The room was clean and quiet and while breakfast can be quite busy the staff were great with keeping up to the crowd. The grounds were well kept and there where upgrades to the rooms being made. Overall a very solid family hotel providing a good value in the Anaheim area.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r180993972-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>180993972</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Perfect for our needs</t>
+  </si>
+  <si>
+    <t>The room suited our needs perfectly.  The full kitchen and extra space was perfect.  It was our first weekend away from home with our 4 month old twins.  There was ample space for 2 pack and plays for the babies to sleep in.  The room didn't feel crowded at all.  We had a king sized bed and lots of cushy, comfy pillows!!The only slight con was that our room was facing the 57.  The freeway noise didn't really bother us but we would have preferred not to be so close to it.All in all, we would definitely stay there again.  The room was clean.  The staff was very friendly.  The complimentary breakfast was average and convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The room suited our needs perfectly.  The full kitchen and extra space was perfect.  It was our first weekend away from home with our 4 month old twins.  There was ample space for 2 pack and plays for the babies to sleep in.  The room didn't feel crowded at all.  We had a king sized bed and lots of cushy, comfy pillows!!The only slight con was that our room was facing the 57.  The freeway noise didn't really bother us but we would have preferred not to be so close to it.All in all, we would definitely stay there again.  The room was clean.  The staff was very friendly.  The complimentary breakfast was average and convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r180533994-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>180533994</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Well kept and clean near business</t>
+  </si>
+  <si>
+    <t>This hotel is located close to many businesses in the center of the southern LA basin. This hotel is well maintained and clean. The breakfast is a cut above with a few healthy choices, and the evening reception is too, although they only serve it Monday, Tuesday, and Wednesday evenings. The room I reserved was the room I received. Be sure NOT to leave anything in your car at night. Several cars were broken into.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r174685486-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>174685486</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Loved this Residence Inn</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a week at the end of July and it was a fantastic stay.  Check in was smooth, rooms are very clean and comfortable.  Daily hot breakfast buffet was great with plenty of options.  Mondays - Wednesdays they have the evening manager's reception.  It's almost enough to fill everyone up for dinner.  They serve up all the beer &amp; wine you want too.  The pool area was nice and you can even grill out for dinner if you want.  It's pretty close to everything in the area.  Disneyland took less than 15 minutes to get to, Newport Beach less than 25.  The staff was so friendly.  The front desk staff were always smiling, answered all my questions, and were very knowledgeable of not only the hotel, but the area as well.  The staff working the breakfast &amp; evening manager's receptions were the most friendly and helpful I've ever experienced.  They work very hard and so I made sure I always told them "Good Morning" and "Thank you" each and every day.  They deserve the recognition!!  Overall, a great choice when staying in the So Cal area.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a week at the end of July and it was a fantastic stay.  Check in was smooth, rooms are very clean and comfortable.  Daily hot breakfast buffet was great with plenty of options.  Mondays - Wednesdays they have the evening manager's reception.  It's almost enough to fill everyone up for dinner.  They serve up all the beer &amp; wine you want too.  The pool area was nice and you can even grill out for dinner if you want.  It's pretty close to everything in the area.  Disneyland took less than 15 minutes to get to, Newport Beach less than 25.  The staff was so friendly.  The front desk staff were always smiling, answered all my questions, and were very knowledgeable of not only the hotel, but the area as well.  The staff working the breakfast &amp; evening manager's receptions were the most friendly and helpful I've ever experienced.  They work very hard and so I made sure I always told them "Good Morning" and "Thank you" each and every day.  They deserve the recognition!!  Overall, a great choice when staying in the So Cal area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r172966177-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>172966177</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Clean, friendly, great location!</t>
+  </si>
+  <si>
+    <t>Traveled here for business one week every month and always enjoyed staying here. The staff is very friendly and hospitable! Rooms have always been clean, but would recommend staying on the 2nd floor as it could sometimes get loud on the 1st floor. Breakfast is pretty good with a nice mixture of waffles, breakfast sandwiches, and other larger meal items that rotate through the week. Rarely ate dinner though as I preferred to eat out.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r168788325-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>168788325</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, good location</t>
+  </si>
+  <si>
+    <t>This hotel has been recently renovated.  The rooms are nice and clean with a full kitchen.  There is a pool, grill, basketball court, and fire pit.  A full breakfast is served every morning.  There are also snacks served Monday-Wednesday evenings.  It is right off the CA-57 and convenient to Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>Steve A, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has been recently renovated.  The rooms are nice and clean with a full kitchen.  There is a pool, grill, basketball court, and fire pit.  A full breakfast is served every morning.  There are also snacks served Monday-Wednesday evenings.  It is right off the CA-57 and convenient to Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r160409644-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>160409644</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>CLEAN AND UPDATED ROOMS</t>
+  </si>
+  <si>
+    <t>I and my co-worker stayed at this hotel on business trip to California. We both had to stay in one room so at first, we were not happy about it but then we learned that the room have sofa with bed that comes out. Well, we can then sleep in one room since we both are guys. The room was clean and have kitchen with everything you need on a small vacation. The carpet was clean enough for me to walk around my bare feet. They have food for breakfast and dinner time. Some days they will put our some beer and vine. Not that I drink but if I was, I’ll be enjoying a free beers! The front desk counter crew was friendly and helpful. Like the business center. Easy to use and print reports. The breakfast area was clean and have big screen TV. This is a hotel to use more than one time if need to be…MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I and my co-worker stayed at this hotel on business trip to California. We both had to stay in one room so at first, we were not happy about it but then we learned that the room have sofa with bed that comes out. Well, we can then sleep in one room since we both are guys. The room was clean and have kitchen with everything you need on a small vacation. The carpet was clean enough for me to walk around my bare feet. They have food for breakfast and dinner time. Some days they will put our some beer and vine. Not that I drink but if I was, I’ll be enjoying a free beers! The front desk counter crew was friendly and helpful. Like the business center. Easy to use and print reports. The breakfast area was clean and have big screen TV. This is a hotel to use more than one time if need to be…More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r159927462-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>159927462</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Average Residence Inn</t>
+  </si>
+  <si>
+    <t>Overall an average Residence Inn but still good. We arrived early and were given a room straight away, which is always nice. It was an upstairs studio suite in block two and fairly clean. The room itself was looking a little worn and could have done with a deep clean. We were not the closest to the freeway but it was still fairly noisy at night so you need to be careful where you are located. The evening reception, with wine and beer, and breakfast were fine and reasonable standard. Staff were generally ok but not excellent. Would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r158756595-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>158756595</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>great hotel with a few problems</t>
+  </si>
+  <si>
+    <t>I recentley stayed at this hotel for 3 days. My family and I have stayed at this probably more than 7 times. Ramona who is one of the ladys that works in the kitchen in the morning for breakfast and afternoon for the social hour is always really friendley. she always remembers me and my family. i always see her talking to other guest and laughing. The breakfast is very delicious and has great items to choose from like waffles, cereal, scramble eggs, sausage, burruito, canadian bacon, bacon, croisant, different types of breads. as for the light social hour i saw they had taco night, spaggetti night and slidder night with beer and wine and ofcourse soda and water. The room was cleaned i love that it had a king bed, sofa bed, and full kitchen. The sofa bed was not comfortable at all it loooked really old and used so we ended up sharing our bed with our 9 year old daughter it wasn't what we were planning but we couldn't let our daughter sleep on that. What i ddin't like is that there was only 1 bottle of shampoo and conditioner and 1 toilet paper. i don't really like calling housekeeping to bring stuff to our room. in this case having to go to front desk to get some items. my husband loves to take showers in the middle of the night so this was a problem. my...I recentley stayed at this hotel for 3 days. My family and I have stayed at this probably more than 7 times. Ramona who is one of the ladys that works in the kitchen in the morning for breakfast and afternoon for the social hour is always really friendley. she always remembers me and my family. i always see her talking to other guest and laughing. The breakfast is very delicious and has great items to choose from like waffles, cereal, scramble eggs, sausage, burruito, canadian bacon, bacon, croisant, different types of breads. as for the light social hour i saw they had taco night, spaggetti night and slidder night with beer and wine and ofcourse soda and water. The room was cleaned i love that it had a king bed, sofa bed, and full kitchen. The sofa bed was not comfortable at all it loooked really old and used so we ended up sharing our bed with our 9 year old daughter it wasn't what we were planning but we couldn't let our daughter sleep on that. What i ddin't like is that there was only 1 bottle of shampoo and conditioner and 1 toilet paper. i don't really like calling housekeeping to bring stuff to our room. in this case having to go to front desk to get some items. my husband loves to take showers in the middle of the night so this was a problem. my daughter has really long hair she actually used almost the whole bottle of shampoo and conditioner. Yes you can say i can bring my own stuff but who wnats to travel with that and have the problem of the shampoo leaking in your luggage. The furniture did have alot of scratches on it. Either they need to paint them, replace them or do some touch up. i'm not the kind of person that stays in the villa so that didnt really bother me i'm just putting it out there so if they read this they can fix it because you never know if there would be an actual person that does get bother by it. Another thing we didn't like is the pool isn't heated at all and there isn't any jaccuzzi they ended up putting fire pits. I wouldn't care if the jacuzzi wasn't there except since the pool isn't heated we couldn't even enjoy the pool at all that was a big dissapointed. We love to stay here since its only 10 minutes away from disneyland. This is the first time we encounter this problems. our styas here are usually great. Bottom line i think we would stay here again and check the bathroom amenitys and beds before we unpack and maybe talk to the front desk about heating the pools. The front desk was really friendley too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recentley stayed at this hotel for 3 days. My family and I have stayed at this probably more than 7 times. Ramona who is one of the ladys that works in the kitchen in the morning for breakfast and afternoon for the social hour is always really friendley. she always remembers me and my family. i always see her talking to other guest and laughing. The breakfast is very delicious and has great items to choose from like waffles, cereal, scramble eggs, sausage, burruito, canadian bacon, bacon, croisant, different types of breads. as for the light social hour i saw they had taco night, spaggetti night and slidder night with beer and wine and ofcourse soda and water. The room was cleaned i love that it had a king bed, sofa bed, and full kitchen. The sofa bed was not comfortable at all it loooked really old and used so we ended up sharing our bed with our 9 year old daughter it wasn't what we were planning but we couldn't let our daughter sleep on that. What i ddin't like is that there was only 1 bottle of shampoo and conditioner and 1 toilet paper. i don't really like calling housekeeping to bring stuff to our room. in this case having to go to front desk to get some items. my husband loves to take showers in the middle of the night so this was a problem. my...I recentley stayed at this hotel for 3 days. My family and I have stayed at this probably more than 7 times. Ramona who is one of the ladys that works in the kitchen in the morning for breakfast and afternoon for the social hour is always really friendley. she always remembers me and my family. i always see her talking to other guest and laughing. The breakfast is very delicious and has great items to choose from like waffles, cereal, scramble eggs, sausage, burruito, canadian bacon, bacon, croisant, different types of breads. as for the light social hour i saw they had taco night, spaggetti night and slidder night with beer and wine and ofcourse soda and water. The room was cleaned i love that it had a king bed, sofa bed, and full kitchen. The sofa bed was not comfortable at all it loooked really old and used so we ended up sharing our bed with our 9 year old daughter it wasn't what we were planning but we couldn't let our daughter sleep on that. What i ddin't like is that there was only 1 bottle of shampoo and conditioner and 1 toilet paper. i don't really like calling housekeeping to bring stuff to our room. in this case having to go to front desk to get some items. my husband loves to take showers in the middle of the night so this was a problem. my daughter has really long hair she actually used almost the whole bottle of shampoo and conditioner. Yes you can say i can bring my own stuff but who wnats to travel with that and have the problem of the shampoo leaking in your luggage. The furniture did have alot of scratches on it. Either they need to paint them, replace them or do some touch up. i'm not the kind of person that stays in the villa so that didnt really bother me i'm just putting it out there so if they read this they can fix it because you never know if there would be an actual person that does get bother by it. Another thing we didn't like is the pool isn't heated at all and there isn't any jaccuzzi they ended up putting fire pits. I wouldn't care if the jacuzzi wasn't there except since the pool isn't heated we couldn't even enjoy the pool at all that was a big dissapointed. We love to stay here since its only 10 minutes away from disneyland. This is the first time we encounter this problems. our styas here are usually great. Bottom line i think we would stay here again and check the bathroom amenitys and beds before we unpack and maybe talk to the front desk about heating the pools. The front desk was really friendley too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r154513538-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>154513538</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Great Loft Room</t>
+  </si>
+  <si>
+    <t>We were in town for a funeral.  My husband and I, and two of my sons and their wives and my teenage son were in our group.  We were able to stay in one of their loft suites that included 3 queen beds and a sofa bed.  It had a full kitchen and a separate bedroom in the loft with it's own bathroom.  We were all able to stay comfortably in one room. It was more like a small condo than a hotel room.  The breakfast had a pretty good variety too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r153863721-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>153863721</t>
+  </si>
+  <si>
+    <t>03/06/2013</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>A good location with easy access to LA and everything south including Disney.We stayed here for four nights and could not fault it. The rooms are clean extremely well equiped and spacious. Breakfast was included in the rate and had a good selection of hot and cold items.They also have a managers hour several weekdays offering complementary drinks and food. The staff were all excellent and went out of their way to make our stay a memerable one.I would definately stay here again if I was visiting LA.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r153456305-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>153456305</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Really Nice!</t>
+  </si>
+  <si>
+    <t>So, we've stayed at this hotel before and knew what to expect.  It's quite nice and recently refurbed.  The bed was comfortable and the appliances all worked.  It is close to LA which is nice ( a 50 minute drive with traffic).My only complaint?  The area where they serve the social hour and breakfast is WAY too small.  Maybe 7 tables and a bar area that seats 8.  For a hotel about 20 minutes from Disneyland and for the number of rooms, this is just too small.  No matter what time you arrive, you're waiting for a table.  Also, no local paper on the weekend?  Wrong!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r143403744-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>143403744</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Thank you for a great stay</t>
+  </si>
+  <si>
+    <t>The hotel staff was great.  Everyone I came into contact with smiled and was very happy to help.  Even though it is an older hotel, it has been updated and looks great.  The one thing I do not like about these old Residence Inns is the lack of elevators for 2nd floor rooms and the exterior access. Also, the work out rooms was very small and did not have free weights.  We were there to go to Disneyland and at first was not excited about having to drive to and from the park but it was really easy to get to and from without taking the freeway.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r143065207-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>143065207</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Great for Families</t>
+  </si>
+  <si>
+    <t>Pros:  Standard layout of Residence Inn.  Rooms are very clean.  Easy parking.  Located near fast food restaurants.  Area is quiet even though it is near a busy street and close to the freeway exit.  Great breakfast with good toppings (strawberries, chocolate) for mini waffles that the kids will enjoy making.Cons:  Oj and apple juice was water down.  The pool wasn't heated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r141885303-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>141885303</t>
+  </si>
+  <si>
+    <t>10/02/2012</t>
+  </si>
+  <si>
+    <t>Excellent place to stay in the area</t>
+  </si>
+  <si>
+    <t>I had some business in the Fullerton area ... which dissapointed me because I normally stay in LA/Hollywood where there is more excitement. However, I didn't want to contend with the horrible traffic that makes a 45 minute morning commute into more of a 2 hour plus deal. So, I decided to boost my Marriott points and stay in Fullerton at the Residence Inn. The idea of this type of chain fascinates me ... everything about it seems like an apartment complex I would have lived in when I was in college. Yet, it is strangely comfortable.
+Although I was just there for one night, I realize that these types of hotels are more designed for the traveler who are on an extended business trip and want apartment/homey type of living vs. hotel living for a week or even a month. If you've ever lived in a cheap apartment, that is the vibe you will get here.
+There are no upgrades because every 'apartment' is pretty much the same. You'll find a very spacious and clean place with a living room area complete with sofa and desk ... a pretty nice kitchen ... and a bedroom/bathroom. The decor is sort of a modern/Ikea sort of decor. The walls are red and the counter is made of granite and the furniture is the cheap looking/feeling 'rent a center' furniture you'd expect a young married couple to start out with. Still, comfortable....I had some business in the Fullerton area ... which dissapointed me because I normally stay in LA/Hollywood where there is more excitement. However, I didn't want to contend with the horrible traffic that makes a 45 minute morning commute into more of a 2 hour plus deal. So, I decided to boost my Marriott points and stay in Fullerton at the Residence Inn. The idea of this type of chain fascinates me ... everything about it seems like an apartment complex I would have lived in when I was in college. Yet, it is strangely comfortable.Although I was just there for one night, I realize that these types of hotels are more designed for the traveler who are on an extended business trip and want apartment/homey type of living vs. hotel living for a week or even a month. If you've ever lived in a cheap apartment, that is the vibe you will get here.There are no upgrades because every 'apartment' is pretty much the same. You'll find a very spacious and clean place with a living room area complete with sofa and desk ... a pretty nice kitchen ... and a bedroom/bathroom. The decor is sort of a modern/Ikea sort of decor. The walls are red and the counter is made of granite and the furniture is the cheap looking/feeling 'rent a center' furniture you'd expect a young married couple to start out with. Still, comfortable.The exterior corridors are nicely kept and landscaped. Maybe not as comfortable feeling as a hotel because each apartment has a sliding door that leads to heavily wooded/leafy walkways. I think if I was a solo female traveler, I would feel safer in a hotel room than a separate apartment unit with a sliding patio door. However, these are good for business travelers and families who may be visiting Disneyland. (which is a little further than I'd expected it to be from this place given the distance listed on the Marriott site.)There is a nice pool area with chairs. A basketball court. And a nice breakfast lobby area. The breakfast area was expectedly insanely crowded with children and couples. The variety was pretty good and although some things ran out, the staff did a good job at trying to keep the options stocked through the madness. The scrambled eggs were a bit watery for me ... but I liked the bacon, which was obviously the microwavable kind. There was also oatmeal, yogurt, bagels and lots of other options. As well as a waffle maker with the option to make mini-waffle bites for the kids.I didn't spend more than a night here but I can see where it could feel like a bit of a homey oasis while on business vs. a hotel room. The price is great ... although with not much at all in the area in terms of restaurants, etc. (most are 10 minutes away) I can see why the hotel is inexpensive. Disneyland isn't right down the street ... I had expected it to be nearby. After a long day at the park, the 10 to 15 minute ride feels like it takes much longer and it is just far enough where you won't want to get in the car and go back to the hotel for a little pool or relax time to break up a full day at the park vs. a hotel that is right next to Disneyland.However, the Marriott rewards category on this hotel is Category 4, so if you are using your points or free night vouchers from the promotions ... you will have to stay here vs. spending a lot more points on a hotel right next to Disneyland. I would say that staying next to Disneyland would be worth the extra $20 - $30 you'd pay to stay at a Marriott hotel or non-chain hotel right at the park entrance vs. having to get in your car and drive back and forth to this Residence Inn.Everything was great here and I'd be back if I was in Fullerton on business again. The cleanliness and homey feel was great and I will also say that the staff was great here. Free parking is always nice too.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had some business in the Fullerton area ... which dissapointed me because I normally stay in LA/Hollywood where there is more excitement. However, I didn't want to contend with the horrible traffic that makes a 45 minute morning commute into more of a 2 hour plus deal. So, I decided to boost my Marriott points and stay in Fullerton at the Residence Inn. The idea of this type of chain fascinates me ... everything about it seems like an apartment complex I would have lived in when I was in college. Yet, it is strangely comfortable.
+Although I was just there for one night, I realize that these types of hotels are more designed for the traveler who are on an extended business trip and want apartment/homey type of living vs. hotel living for a week or even a month. If you've ever lived in a cheap apartment, that is the vibe you will get here.
+There are no upgrades because every 'apartment' is pretty much the same. You'll find a very spacious and clean place with a living room area complete with sofa and desk ... a pretty nice kitchen ... and a bedroom/bathroom. The decor is sort of a modern/Ikea sort of decor. The walls are red and the counter is made of granite and the furniture is the cheap looking/feeling 'rent a center' furniture you'd expect a young married couple to start out with. Still, comfortable....I had some business in the Fullerton area ... which dissapointed me because I normally stay in LA/Hollywood where there is more excitement. However, I didn't want to contend with the horrible traffic that makes a 45 minute morning commute into more of a 2 hour plus deal. So, I decided to boost my Marriott points and stay in Fullerton at the Residence Inn. The idea of this type of chain fascinates me ... everything about it seems like an apartment complex I would have lived in when I was in college. Yet, it is strangely comfortable.Although I was just there for one night, I realize that these types of hotels are more designed for the traveler who are on an extended business trip and want apartment/homey type of living vs. hotel living for a week or even a month. If you've ever lived in a cheap apartment, that is the vibe you will get here.There are no upgrades because every 'apartment' is pretty much the same. You'll find a very spacious and clean place with a living room area complete with sofa and desk ... a pretty nice kitchen ... and a bedroom/bathroom. The decor is sort of a modern/Ikea sort of decor. The walls are red and the counter is made of granite and the furniture is the cheap looking/feeling 'rent a center' furniture you'd expect a young married couple to start out with. Still, comfortable.The exterior corridors are nicely kept and landscaped. Maybe not as comfortable feeling as a hotel because each apartment has a sliding door that leads to heavily wooded/leafy walkways. I think if I was a solo female traveler, I would feel safer in a hotel room than a separate apartment unit with a sliding patio door. However, these are good for business travelers and families who may be visiting Disneyland. (which is a little further than I'd expected it to be from this place given the distance listed on the Marriott site.)There is a nice pool area with chairs. A basketball court. And a nice breakfast lobby area. The breakfast area was expectedly insanely crowded with children and couples. The variety was pretty good and although some things ran out, the staff did a good job at trying to keep the options stocked through the madness. The scrambled eggs were a bit watery for me ... but I liked the bacon, which was obviously the microwavable kind. There was also oatmeal, yogurt, bagels and lots of other options. As well as a waffle maker with the option to make mini-waffle bites for the kids.I didn't spend more than a night here but I can see where it could feel like a bit of a homey oasis while on business vs. a hotel room. The price is great ... although with not much at all in the area in terms of restaurants, etc. (most are 10 minutes away) I can see why the hotel is inexpensive. Disneyland isn't right down the street ... I had expected it to be nearby. After a long day at the park, the 10 to 15 minute ride feels like it takes much longer and it is just far enough where you won't want to get in the car and go back to the hotel for a little pool or relax time to break up a full day at the park vs. a hotel that is right next to Disneyland.However, the Marriott rewards category on this hotel is Category 4, so if you are using your points or free night vouchers from the promotions ... you will have to stay here vs. spending a lot more points on a hotel right next to Disneyland. I would say that staying next to Disneyland would be worth the extra $20 - $30 you'd pay to stay at a Marriott hotel or non-chain hotel right at the park entrance vs. having to get in your car and drive back and forth to this Residence Inn.Everything was great here and I'd be back if I was in Fullerton on business again. The cleanliness and homey feel was great and I will also say that the staff was great here. Free parking is always nice too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r140236584-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>140236584</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean &amp; Friendly Inn</t>
+  </si>
+  <si>
+    <t>Residence Inn Anaheim Placentia/Fullerton stays with the standard presented by the Marriotts Hotels.  This is a Inn is clean, comfortable and quite.  Located in an area that is primarily business, this Inn may not be for the vacation traveler unless you want stay away from the normal tourist areas; ala, Disneyland.  The only major negative is there are no restuarants located close to the Hotel.  For major restuarants you will have to drive 4 to 5 miles.Over all a good stay.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r139115779-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>139115779</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Recommended Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for several weeks (Mon-Fri) over the course of 1 month. The staff was super-friendly and helpful. I stayed in the studio room which was perfect for me. Full kitchen, desk/table for working or eating. Air conditioning worked great in the room (very thankful for that during my stay in Aug).There's a pool and a basketball court. Breakfast was hot each morning - eggs, potatoes, oatmeal, yogurt, waffles, fruit, juice, muffins, etc. Changed daily. Mon, Tues, and Wed nights from 5:30 - 7:00pm there's a happy hour with beer, wine, punch, fruit, and a rotating selection of things like hamburgers, pasta, hot wings, salsbury steak, etc.Location is convenient to the 57 and 91 freeways. Nearest store and Target is 4-5 blocks down the road (not far at all).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for several weeks (Mon-Fri) over the course of 1 month. The staff was super-friendly and helpful. I stayed in the studio room which was perfect for me. Full kitchen, desk/table for working or eating. Air conditioning worked great in the room (very thankful for that during my stay in Aug).There's a pool and a basketball court. Breakfast was hot each morning - eggs, potatoes, oatmeal, yogurt, waffles, fruit, juice, muffins, etc. Changed daily. Mon, Tues, and Wed nights from 5:30 - 7:00pm there's a happy hour with beer, wine, punch, fruit, and a rotating selection of things like hamburgers, pasta, hot wings, salsbury steak, etc.Location is convenient to the 57 and 91 freeways. Nearest store and Target is 4-5 blocks down the road (not far at all).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r136317754-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>136317754</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>great for long-term stays</t>
+  </si>
+  <si>
+    <t>I was in the process of moving to CA fromt the midwest and ended up having to stay in the hotel for over 10 days.  Breakfast was decent and rotated so that it wasn't too repetitve.  Rooms were comfortable and clean - having the full kitchen was great so I could prepare some of my dinners/lunches.  The only thing that bothered me about the room is that it was overly red.  Red is such a strong color to have on the wall and it was rather overpowering/dark.  There was a Juliette balcony off my room but I couldn't keep it open b/c there wasn't a screen and i was afraid that my cat would get out.  (Wonderful that the hotel accepts pets for a 1 time fee of $100).There was also a group of teenangers staying in the hotel and they would get very loud.  I finally complained one night b/c it was after 11 and I had to work the next day.  Security quickly came and broke up the 'party' and there didn't seem to be any noise problems after that.  Overall the hotel was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I was in the process of moving to CA fromt the midwest and ended up having to stay in the hotel for over 10 days.  Breakfast was decent and rotated so that it wasn't too repetitve.  Rooms were comfortable and clean - having the full kitchen was great so I could prepare some of my dinners/lunches.  The only thing that bothered me about the room is that it was overly red.  Red is such a strong color to have on the wall and it was rather overpowering/dark.  There was a Juliette balcony off my room but I couldn't keep it open b/c there wasn't a screen and i was afraid that my cat would get out.  (Wonderful that the hotel accepts pets for a 1 time fee of $100).There was also a group of teenangers staying in the hotel and they would get very loud.  I finally complained one night b/c it was after 11 and I had to work the next day.  Security quickly came and broke up the 'party' and there didn't seem to be any noise problems after that.  Overall the hotel was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r132989433-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>132989433</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Little time spent in room</t>
+  </si>
+  <si>
+    <t>Not sure how helpful this review will be as we checked in at 11.30 pm and left by 8.00am the next morning.  The location was not what we were expecting but since we weren't staying long that didn't matter much to us.  The bed was comfy.  We fell asleep immediately. We didn't have the free breakfast.  The room was clean and for us, that's important.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r130360849-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>130360849</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Wonderful experience in Orange County</t>
+  </si>
+  <si>
+    <t>I was on a two-week business trip to Fullerton, California and I had the pleasure of staying at the Residence Inn in Placentia, checked in on Monday and out on Friday of the following week and it was a great experience.
+The hotel is located at the east end of Kimberly Ave in Placentia, the location is really great because it is minutes away from Fullerton College, about 10 minutes away from Disney Land, 15 minutes away from Angel Station and Honda Center where the Anaheim Angels and Anaheim Mighty Ducks play. There is a motel nearby and then all the other neighbors of the hotel are various businesses so after the working hours it is really quiet at the hotel. All rooms in the hotels are of condo/resort style, usually there are about 8 or so units in each building (4 on each floor) and the doors to the rooms open to the outside, the landscape inbetween buildings are really neatly kept and the parking lots are clean. The rooms come with a full size fridge and a full kitchen with stove, oven, microwave to pots, pans, plates and utensils readily available. There is also a 40" or so flat screen LCD TV in every room with free HBO. The house keeping staff does a good job on keeping the rooms clean and towels and tissue papers well stashed. The hotel also offers a gym, an outdoor pool, a...I was on a two-week business trip to Fullerton, California and I had the pleasure of staying at the Residence Inn in Placentia, checked in on Monday and out on Friday of the following week and it was a great experience.The hotel is located at the east end of Kimberly Ave in Placentia, the location is really great because it is minutes away from Fullerton College, about 10 minutes away from Disney Land, 15 minutes away from Angel Station and Honda Center where the Anaheim Angels and Anaheim Mighty Ducks play. There is a motel nearby and then all the other neighbors of the hotel are various businesses so after the working hours it is really quiet at the hotel. All rooms in the hotels are of condo/resort style, usually there are about 8 or so units in each building (4 on each floor) and the doors to the rooms open to the outside, the landscape inbetween buildings are really neatly kept and the parking lots are clean. The rooms come with a full size fridge and a full kitchen with stove, oven, microwave to pots, pans, plates and utensils readily available. There is also a 40" or so flat screen LCD TV in every room with free HBO. The house keeping staff does a good job on keeping the rooms clean and towels and tissue papers well stashed. The hotel also offers a gym, an outdoor pool, a basketball/tennis court that were well maintained. There is also a fire pit in the pool area and BBQ grills located in various areas of the hotel. The front lobby of the hotel has free breakfast everyday of the week and a free dinner buffet Monday through Wednesday with free wine and draft beer, the chef there, Teresa, is a great cook and does a really good job on mixing up the menu (the menu is posted on the fridge door for the whole month). Internet (both wired and wireless) is available in every room, the unit I stayed in was far from the front lobby and I can still get really good signal on my tablet computer. There are a few things that could improve on. First the toilets in the rooms are extremely small, very uncomfortable to sit on and I'm only 5'9" 170 lbs, I can't imagine how a taller/bigger person would feel about that. The gym inside the front office is really small and it only has 2 standard treadmill machines and one elliptical non-contact stepping machines, basically the only you can do there is cardio. The air condition system in the rooms can be a bit noisy, especially at the moment when it turns on or shuts off it shouts out a loud thud like someone knocking on the wall, and also I'm not sure if the pipes are old or for some other reason but right after the AC shuts off there is a period for about 20 seconds I hear a continuous knocking noise from the walls, at first I thought it was the upstairs neighbor jumping on the floor but after a few times I realized it was coming from AC system inside the wall, though it only lasts about 20 seconds but can be annoy at nights. Last there is only one area on the hotel property where smoking is allowed and it is located on the northside of the hotel past the parking lot, it's really just a picnic table and a trash can there with no roof cover, basically if it rains you won't be able to smoke outside. I'm not a smoker but my coworker that traveled with me is, it was really inconvenient for him to walk all the way across the hotel property to just have a quick cigarette.Overall it was a great stay for the two weeks I spent in California, there were a lot places to go see nearby and a lot of good restaurants in Fullerton as it being a college town. I picked this hotel to stay because it was recommended by the sponsors of my trip and it turned out to be a winner, if I am ever in the area again for business or pleasure I'd definitely choose the Residence Inn in Placentia again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I was on a two-week business trip to Fullerton, California and I had the pleasure of staying at the Residence Inn in Placentia, checked in on Monday and out on Friday of the following week and it was a great experience.
+The hotel is located at the east end of Kimberly Ave in Placentia, the location is really great because it is minutes away from Fullerton College, about 10 minutes away from Disney Land, 15 minutes away from Angel Station and Honda Center where the Anaheim Angels and Anaheim Mighty Ducks play. There is a motel nearby and then all the other neighbors of the hotel are various businesses so after the working hours it is really quiet at the hotel. All rooms in the hotels are of condo/resort style, usually there are about 8 or so units in each building (4 on each floor) and the doors to the rooms open to the outside, the landscape inbetween buildings are really neatly kept and the parking lots are clean. The rooms come with a full size fridge and a full kitchen with stove, oven, microwave to pots, pans, plates and utensils readily available. There is also a 40" or so flat screen LCD TV in every room with free HBO. The house keeping staff does a good job on keeping the rooms clean and towels and tissue papers well stashed. The hotel also offers a gym, an outdoor pool, a...I was on a two-week business trip to Fullerton, California and I had the pleasure of staying at the Residence Inn in Placentia, checked in on Monday and out on Friday of the following week and it was a great experience.The hotel is located at the east end of Kimberly Ave in Placentia, the location is really great because it is minutes away from Fullerton College, about 10 minutes away from Disney Land, 15 minutes away from Angel Station and Honda Center where the Anaheim Angels and Anaheim Mighty Ducks play. There is a motel nearby and then all the other neighbors of the hotel are various businesses so after the working hours it is really quiet at the hotel. All rooms in the hotels are of condo/resort style, usually there are about 8 or so units in each building (4 on each floor) and the doors to the rooms open to the outside, the landscape inbetween buildings are really neatly kept and the parking lots are clean. The rooms come with a full size fridge and a full kitchen with stove, oven, microwave to pots, pans, plates and utensils readily available. There is also a 40" or so flat screen LCD TV in every room with free HBO. The house keeping staff does a good job on keeping the rooms clean and towels and tissue papers well stashed. The hotel also offers a gym, an outdoor pool, a basketball/tennis court that were well maintained. There is also a fire pit in the pool area and BBQ grills located in various areas of the hotel. The front lobby of the hotel has free breakfast everyday of the week and a free dinner buffet Monday through Wednesday with free wine and draft beer, the chef there, Teresa, is a great cook and does a really good job on mixing up the menu (the menu is posted on the fridge door for the whole month). Internet (both wired and wireless) is available in every room, the unit I stayed in was far from the front lobby and I can still get really good signal on my tablet computer. There are a few things that could improve on. First the toilets in the rooms are extremely small, very uncomfortable to sit on and I'm only 5'9" 170 lbs, I can't imagine how a taller/bigger person would feel about that. The gym inside the front office is really small and it only has 2 standard treadmill machines and one elliptical non-contact stepping machines, basically the only you can do there is cardio. The air condition system in the rooms can be a bit noisy, especially at the moment when it turns on or shuts off it shouts out a loud thud like someone knocking on the wall, and also I'm not sure if the pipes are old or for some other reason but right after the AC shuts off there is a period for about 20 seconds I hear a continuous knocking noise from the walls, at first I thought it was the upstairs neighbor jumping on the floor but after a few times I realized it was coming from AC system inside the wall, though it only lasts about 20 seconds but can be annoy at nights. Last there is only one area on the hotel property where smoking is allowed and it is located on the northside of the hotel past the parking lot, it's really just a picnic table and a trash can there with no roof cover, basically if it rains you won't be able to smoke outside. I'm not a smoker but my coworker that traveled with me is, it was really inconvenient for him to walk all the way across the hotel property to just have a quick cigarette.Overall it was a great stay for the two weeks I spent in California, there were a lot places to go see nearby and a lot of good restaurants in Fullerton as it being a college town. I picked this hotel to stay because it was recommended by the sponsors of my trip and it turned out to be a winner, if I am ever in the area again for business or pleasure I'd definitely choose the Residence Inn in Placentia again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r130101411-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>130101411</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>Disney without the hassle</t>
+  </si>
+  <si>
+    <t>My familty of four stayed at this Residence Inn for a trip to Disneyland.  While it was about a 10-minute drive to the park, I am so happy we decided to stay here instead of the congestion of being on top of the park.  The staff was friendly and ready to satisfy all of my family's questions and needs.  The property is great, pods of condo-style rooms with courtyards, many of which have BBQs.  I will stay here everytime I return to the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r129707662-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>129707662</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>I'd stay here again.</t>
+  </si>
+  <si>
+    <t>Great hotel for the price. We used Priceline and got a rate of $55/night for Thanksgiving weekend. The place looks and feels like a townhome/apartment complex with multiple free-standing buildings on the property, each housing several rooms.Our room had a king-sized bed, flat screen TV that was probably 42 inches, a decent sized living room, and kitchenette with a full-sized oven and range, microwave, and fridge. The interior, as with most new Marriott places, has a modern fell -- lots of neutrals with red accents and fixtures and appliances with a brushed metal look.The only negative is that there is no wifi. They have an ethernet connection located in the desk by the kitchenette, but that's useless if you have an iPad or want to use a laptop anywhere else in the room.There's a complimentary breakfast with scrambled eggs, sausage patties, pancakes, waffles, bagels, muffins, etc. It gets packed in the morning and seating is limited so you may have to grab your food and go.They also have a pool area with a fire pit and a sports court for tennis and basketball.With its location fairly close to Anaheim and Disney, the spacious rooms, and affordable price this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Great hotel for the price. We used Priceline and got a rate of $55/night for Thanksgiving weekend. The place looks and feels like a townhome/apartment complex with multiple free-standing buildings on the property, each housing several rooms.Our room had a king-sized bed, flat screen TV that was probably 42 inches, a decent sized living room, and kitchenette with a full-sized oven and range, microwave, and fridge. The interior, as with most new Marriott places, has a modern fell -- lots of neutrals with red accents and fixtures and appliances with a brushed metal look.The only negative is that there is no wifi. They have an ethernet connection located in the desk by the kitchenette, but that's useless if you have an iPad or want to use a laptop anywhere else in the room.There's a complimentary breakfast with scrambled eggs, sausage patties, pancakes, waffles, bagels, muffins, etc. It gets packed in the morning and seating is limited so you may have to grab your food and go.They also have a pool area with a fire pit and a sports court for tennis and basketball.With its location fairly close to Anaheim and Disney, the spacious rooms, and affordable price this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r129616804-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>129616804</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, great front desk...no bed bugs!</t>
+  </si>
+  <si>
+    <t>Just returned from a weekend in Disneyland.  Looked for a hotel closer to Disney, but the reviews were not great for something affordable and close.  I decided I wanted my Marriott...you can always count on a great bed and shower and they are always clean.  We couldn't afford one right by Disney, but this one was right off the freeway and a short drive to Disney.  The staff at check-in was great!  She asked where we were going and provided a map with directions to Disneyland and a list of local restaurants.  Some other customers were using the BBQ grill outside and asked for plates, napkins, cups etc which they provided.  I loved the unique way they had different buildings with 8 rooms each.  It looked more like little condos than a hotel. The grounds were very beautiful and nicely kept.  The pool looked inviting, but didn't get a chance to use it.  As usual the beds were great and the shower was fabulous!  We enjoyed the breakfast every morning before leaving for the day.  Thank you Marriott for another great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Just returned from a weekend in Disneyland.  Looked for a hotel closer to Disney, but the reviews were not great for something affordable and close.  I decided I wanted my Marriott...you can always count on a great bed and shower and they are always clean.  We couldn't afford one right by Disney, but this one was right off the freeway and a short drive to Disney.  The staff at check-in was great!  She asked where we were going and provided a map with directions to Disneyland and a list of local restaurants.  Some other customers were using the BBQ grill outside and asked for plates, napkins, cups etc which they provided.  I loved the unique way they had different buildings with 8 rooms each.  It looked more like little condos than a hotel. The grounds were very beautiful and nicely kept.  The pool looked inviting, but didn't get a chance to use it.  As usual the beds were great and the shower was fabulous!  We enjoyed the breakfast every morning before leaving for the day.  Thank you Marriott for another great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r127699144-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>127699144</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>Beware--Bedbugs!!</t>
+  </si>
+  <si>
+    <t>I had a very bad experience at this Residence Inn.  It is one of the older type Residence Inn.  I was first given a room towards the back.  With the travels I have done, I felt unsafe.  I requested another room and this one had bedbugs.  There were clump of bites on my back and arms.  It took over 2 weeks for the itchiness to go away and left dark scars. I contacted the hotel and spoke with Manager who indicated that they would inspect the room and contact me on their findings.  No return call was ever received. My coworkers suggested I contact the health authorities.  I have done much travel for work, and was at this facility due to last minute assignment and the cap on my travel allowance.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>kbennet, General Manager at Residence Inn Anaheim Placentia/Fullerton, responded to this reviewResponded May 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2012</t>
+  </si>
+  <si>
+    <t>I had a very bad experience at this Residence Inn.  It is one of the older type Residence Inn.  I was first given a room towards the back.  With the travels I have done, I felt unsafe.  I requested another room and this one had bedbugs.  There were clump of bites on my back and arms.  It took over 2 weeks for the itchiness to go away and left dark scars. I contacted the hotel and spoke with Manager who indicated that they would inspect the room and contact me on their findings.  No return call was ever received. My coworkers suggested I contact the health authorities.  I have done much travel for work, and was at this facility due to last minute assignment and the cap on my travel allowance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r125378445-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>125378445</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Two Stays - Both Pleasant</t>
+  </si>
+  <si>
+    <t>Stopped in here for the second time in the past 6 months.  Both times I found the front desk very friendly and helpful.  As others have written, the facility is set up in pods of eight rooms, 4 uppers &amp; 4 lowers.  They do have the some giant suites with an upper loft and bedroom (was upgraded to this suite the first time...a lot of room for a solo traveler!!).  Mon-Wed night they have complimentary dinner - nothing to get excited about, but if you're too tired to find a restaurant in the area (which is a challenge) it is a good place to fill up (includes beer and wine).  Complimentary breakfast us served 7 days a week - again nothing to get excited about.  The rooms are spacious and clean, although the furniture is starting to show a little wear.  The room has a good desk to work at with plenty of power receptacles - wired internet, no wifi.Pool, patio, fire pit, fitness, laundry - all the things you normally find at a Residence Inn.  My only fault is it is not within close walking distance of anything, but would give it a thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Stopped in here for the second time in the past 6 months.  Both times I found the front desk very friendly and helpful.  As others have written, the facility is set up in pods of eight rooms, 4 uppers &amp; 4 lowers.  They do have the some giant suites with an upper loft and bedroom (was upgraded to this suite the first time...a lot of room for a solo traveler!!).  Mon-Wed night they have complimentary dinner - nothing to get excited about, but if you're too tired to find a restaurant in the area (which is a challenge) it is a good place to fill up (includes beer and wine).  Complimentary breakfast us served 7 days a week - again nothing to get excited about.  The rooms are spacious and clean, although the furniture is starting to show a little wear.  The room has a good desk to work at with plenty of power receptacles - wired internet, no wifi.Pool, patio, fire pit, fitness, laundry - all the things you normally find at a Residence Inn.  My only fault is it is not within close walking distance of anything, but would give it a thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r125239759-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>125239759</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This property is built in the style of separate buildings, each with a few rooms. In other words, to get anywhere, including to the front desk, you must go outside. If that's not for you, stop reading and look elsewhere.But if you don't mind that you'll get a lovely room. Had a studio that was a decent size. Full kitchen included. Bed was comfy. Nothing that you're going to walk to, but shopping is nearby. There's a Stater Bros. supermarket on State College just south of the 91 Freeway where you can pick up stuff. Wouldn't hesitate to return.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r124252810-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>124252810</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>My husband and I used points for our stay at the Residence Inn Placentia while visiting family in the area. I have to say, the hotel was better than I expected as some Residence Inn's I've stayed at are on the older side. We had an upper room (which I loved - no one above us - bear in mind there are no elevators and you have to climb stairs with luggage) and it appeared recently updated. The kitchenette had everything you would need if you wanted to cook your own meals with new appliances (fridge, stove and microwave). There was a nice work station with a ethernet cable to get to the internet (no wifi) which was fine - we didn't need it as we didn't have computer with us - just our smartphones. The bathroom was also recently remodeled with granite like counters and new shower area and eco friendly toliet (two flush options to conserve water). The closets were a little old and you could tell they just painted over them, but overall the room was very nice. The bed was comfortable, there was a nice little seating area if we wanted to watch TV sitting up vs laying in bed and we had daily maid service. The only complaint I had about the room was when the air would kick in, it would make a really loud noise so we overcame that by just keeping the...My husband and I used points for our stay at the Residence Inn Placentia while visiting family in the area. I have to say, the hotel was better than I expected as some Residence Inn's I've stayed at are on the older side. We had an upper room (which I loved - no one above us - bear in mind there are no elevators and you have to climb stairs with luggage) and it appeared recently updated. The kitchenette had everything you would need if you wanted to cook your own meals with new appliances (fridge, stove and microwave). There was a nice work station with a ethernet cable to get to the internet (no wifi) which was fine - we didn't need it as we didn't have computer with us - just our smartphones. The bathroom was also recently remodeled with granite like counters and new shower area and eco friendly toliet (two flush options to conserve water). The closets were a little old and you could tell they just painted over them, but overall the room was very nice. The bed was comfortable, there was a nice little seating area if we wanted to watch TV sitting up vs laying in bed and we had daily maid service. The only complaint I had about the room was when the air would kick in, it would make a really loud noise so we overcame that by just keeping the fan running while we were there vs. auto. The best part of a Residence Inn was the breakfast (we never made it to the evening reception) - you have a great selection - everyday was something different for your hot selection and they always had your staple continential breakfast goodies (cereal, muffins, bagels, yogurt) to have in a nice breakfas/lobby area. The staff was very friendly and helpful and we would definitely come back and stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I used points for our stay at the Residence Inn Placentia while visiting family in the area. I have to say, the hotel was better than I expected as some Residence Inn's I've stayed at are on the older side. We had an upper room (which I loved - no one above us - bear in mind there are no elevators and you have to climb stairs with luggage) and it appeared recently updated. The kitchenette had everything you would need if you wanted to cook your own meals with new appliances (fridge, stove and microwave). There was a nice work station with a ethernet cable to get to the internet (no wifi) which was fine - we didn't need it as we didn't have computer with us - just our smartphones. The bathroom was also recently remodeled with granite like counters and new shower area and eco friendly toliet (two flush options to conserve water). The closets were a little old and you could tell they just painted over them, but overall the room was very nice. The bed was comfortable, there was a nice little seating area if we wanted to watch TV sitting up vs laying in bed and we had daily maid service. The only complaint I had about the room was when the air would kick in, it would make a really loud noise so we overcame that by just keeping the...My husband and I used points for our stay at the Residence Inn Placentia while visiting family in the area. I have to say, the hotel was better than I expected as some Residence Inn's I've stayed at are on the older side. We had an upper room (which I loved - no one above us - bear in mind there are no elevators and you have to climb stairs with luggage) and it appeared recently updated. The kitchenette had everything you would need if you wanted to cook your own meals with new appliances (fridge, stove and microwave). There was a nice work station with a ethernet cable to get to the internet (no wifi) which was fine - we didn't need it as we didn't have computer with us - just our smartphones. The bathroom was also recently remodeled with granite like counters and new shower area and eco friendly toliet (two flush options to conserve water). The closets were a little old and you could tell they just painted over them, but overall the room was very nice. The bed was comfortable, there was a nice little seating area if we wanted to watch TV sitting up vs laying in bed and we had daily maid service. The only complaint I had about the room was when the air would kick in, it would make a really loud noise so we overcame that by just keeping the fan running while we were there vs. auto. The best part of a Residence Inn was the breakfast (we never made it to the evening reception) - you have a great selection - everyday was something different for your hot selection and they always had your staple continential breakfast goodies (cereal, muffins, bagels, yogurt) to have in a nice breakfas/lobby area. The staff was very friendly and helpful and we would definitely come back and stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r121627578-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>121627578</t>
+  </si>
+  <si>
+    <t>12/11/2011</t>
+  </si>
+  <si>
+    <t>Looks Refurbed!</t>
+  </si>
+  <si>
+    <t>I stayed here 1 1/2 years ago and liked it then.  Since  then, it looks as though they've gone through a complete refurb.  It's beautiful.  New furniture, appliances, etc.  It's just down the road from Disneyland so you're near the attractions without being right there!  Loved it.My only complaint...though they say in their information that there's a local paper available, on the weekend, there was only the WSJ Weekend.  That was the only disappointment.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r120138379-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>120138379</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>At home away from home</t>
+  </si>
+  <si>
+    <t>I had a great experience at this property during my 5 night stay.  The staff was very friendly and attentive.  Great perks like the morning breakfast and the early evening snacks (with Beer or Wine)...how cool is that!  They will even do grocery shopping for you during the day with no service charge.  I got a very good price (about $99 per night) and with the food and beverages (am and pm) this was an exceptional value.  The property is a collection of smaller buildings (perhaps 8 units per building) with nicely landscaped walkways to the lobby, pool and recreation area (hoops, etc.)  The bed was excellent and the room spacious with a kitchen, living area and bed area.  The neighborhood has an industrial feel and is a little off the beaten path. Only a 10 or 15 minute drive to Disney.  This is a STRONG yes!  I will stay again.  In the room wired High Speed Internet is available.  Some WiFi is available near the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I had a great experience at this property during my 5 night stay.  The staff was very friendly and attentive.  Great perks like the morning breakfast and the early evening snacks (with Beer or Wine)...how cool is that!  They will even do grocery shopping for you during the day with no service charge.  I got a very good price (about $99 per night) and with the food and beverages (am and pm) this was an exceptional value.  The property is a collection of smaller buildings (perhaps 8 units per building) with nicely landscaped walkways to the lobby, pool and recreation area (hoops, etc.)  The bed was excellent and the room spacious with a kitchen, living area and bed area.  The neighborhood has an industrial feel and is a little off the beaten path. Only a 10 or 15 minute drive to Disney.  This is a STRONG yes!  I will stay again.  In the room wired High Speed Internet is available.  Some WiFi is available near the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r119226371-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>119226371</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Great value for going to Disney!</t>
+  </si>
+  <si>
+    <t>We just returned from a five night stay here.  The purpose of our trip was Disneyland...this was just what we needed.  There were five in our party, so we had the 2 BDRM loft.  Bedroom/bath upstairs and a two queens and bath in a bedroom downstairs.  Also a full kitchen and sofa bed in the living area.  Excellent breakfast in the morning with something different for the "main dish" daily, with the same waffles, cereal, cooked (not instant) oatmeal, pastries, etc. also included.  The staff was fantastic at the breakfast area, keeping things stocked and even bringing things to our table when something was out.We had a car so driving was not an issue.  The drive to Disney was very easy on surface streets and took about 10-15 minutes.  No traffic until you hit Harbor Blvd. for Disney parking.  The way Disney has the parking now, it was just as easy to stay here than to walk from a hotel by the park.  The $15 per day parking was less than the difference in price to stay at a closer hotel.  Add in the free breakfast and having a full kitchen and this was by far the best choice for us and I am glad we did it.  When we next go to Disneyland, we will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just returned from a five night stay here.  The purpose of our trip was Disneyland...this was just what we needed.  There were five in our party, so we had the 2 BDRM loft.  Bedroom/bath upstairs and a two queens and bath in a bedroom downstairs.  Also a full kitchen and sofa bed in the living area.  Excellent breakfast in the morning with something different for the "main dish" daily, with the same waffles, cereal, cooked (not instant) oatmeal, pastries, etc. also included.  The staff was fantastic at the breakfast area, keeping things stocked and even bringing things to our table when something was out.We had a car so driving was not an issue.  The drive to Disney was very easy on surface streets and took about 10-15 minutes.  No traffic until you hit Harbor Blvd. for Disney parking.  The way Disney has the parking now, it was just as easy to stay here than to walk from a hotel by the park.  The $15 per day parking was less than the difference in price to stay at a closer hotel.  Add in the free breakfast and having a full kitchen and this was by far the best choice for us and I am glad we did it.  When we next go to Disneyland, we will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r117006002-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>117006002</t>
+  </si>
+  <si>
+    <t>08/20/2011</t>
+  </si>
+  <si>
+    <t>Great Place with Large Room</t>
+  </si>
+  <si>
+    <t>My wife and I were driving back from San Diego and stopped in to see the Nixon Museum in Yorba Linda.  We planned to stay overnight somewhere close and this hotel fit our needs. 
+The Residence Inn Marriott in Placentia is a very nice suite type complex. It’s a condo style building in clusters of eight rooms, four rooms on the first floor and four on the second. The room is large size with a couch, recliner and coffee table.  There’s a large flat screen TV in the middle of the room on top of a dresser that you swivel and watch from the bed.  There were some HD channels coming across cable that looked outstanding.  There’s a full kitchen, stove, dishwasher, refrigerator, sink, dishes and utensils.
+In this large room, there was no suit case stand and I was rather surprised.  There’s also no WiFi but they did have a cable from the table next to the kitchen you could plug into the internet.  The desk/kitchen table has a nice multiple plug area at that location.
+For breakfast there were scambled eggs, with rotating menu of sausage patties, fried potatoes, biscuits and gravy.  There were also waffles, cereals, pastries, hard boiled eggs, yogurt, juice and coffee.  It was pretty busy in the eating area but the staff worked hard keeping everything stocked and cleaned up.
+The freeway is nearby but we had a room facing away and could not...My wife and I were driving back from San Diego and stopped in to see the Nixon Museum in Yorba Linda.  We planned to stay overnight somewhere close and this hotel fit our needs. The Residence Inn Marriott in Placentia is a very nice suite type complex. It’s a condo style building in clusters of eight rooms, four rooms on the first floor and four on the second. The room is large size with a couch, recliner and coffee table.  There’s a large flat screen TV in the middle of the room on top of a dresser that you swivel and watch from the bed.  There were some HD channels coming across cable that looked outstanding.  There’s a full kitchen, stove, dishwasher, refrigerator, sink, dishes and utensils.In this large room, there was no suit case stand and I was rather surprised.  There’s also no WiFi but they did have a cable from the table next to the kitchen you could plug into the internet.  The desk/kitchen table has a nice multiple plug area at that location.For breakfast there were scambled eggs, with rotating menu of sausage patties, fried potatoes, biscuits and gravy.  There were also waffles, cereals, pastries, hard boiled eggs, yogurt, juice and coffee.  It was pretty busy in the eating area but the staff worked hard keeping everything stocked and cleaned up.The freeway is nearby but we had a room facing away and could not hear road noises.  There are also train tracks nearby but could barely hear the train.  It was pretty quiet in the room, no noises from the other rooms.  I’d definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>My wife and I were driving back from San Diego and stopped in to see the Nixon Museum in Yorba Linda.  We planned to stay overnight somewhere close and this hotel fit our needs. 
+The Residence Inn Marriott in Placentia is a very nice suite type complex. It’s a condo style building in clusters of eight rooms, four rooms on the first floor and four on the second. The room is large size with a couch, recliner and coffee table.  There’s a large flat screen TV in the middle of the room on top of a dresser that you swivel and watch from the bed.  There were some HD channels coming across cable that looked outstanding.  There’s a full kitchen, stove, dishwasher, refrigerator, sink, dishes and utensils.
+In this large room, there was no suit case stand and I was rather surprised.  There’s also no WiFi but they did have a cable from the table next to the kitchen you could plug into the internet.  The desk/kitchen table has a nice multiple plug area at that location.
+For breakfast there were scambled eggs, with rotating menu of sausage patties, fried potatoes, biscuits and gravy.  There were also waffles, cereals, pastries, hard boiled eggs, yogurt, juice and coffee.  It was pretty busy in the eating area but the staff worked hard keeping everything stocked and cleaned up.
+The freeway is nearby but we had a room facing away and could not...My wife and I were driving back from San Diego and stopped in to see the Nixon Museum in Yorba Linda.  We planned to stay overnight somewhere close and this hotel fit our needs. The Residence Inn Marriott in Placentia is a very nice suite type complex. It’s a condo style building in clusters of eight rooms, four rooms on the first floor and four on the second. The room is large size with a couch, recliner and coffee table.  There’s a large flat screen TV in the middle of the room on top of a dresser that you swivel and watch from the bed.  There were some HD channels coming across cable that looked outstanding.  There’s a full kitchen, stove, dishwasher, refrigerator, sink, dishes and utensils.In this large room, there was no suit case stand and I was rather surprised.  There’s also no WiFi but they did have a cable from the table next to the kitchen you could plug into the internet.  The desk/kitchen table has a nice multiple plug area at that location.For breakfast there were scambled eggs, with rotating menu of sausage patties, fried potatoes, biscuits and gravy.  There were also waffles, cereals, pastries, hard boiled eggs, yogurt, juice and coffee.  It was pretty busy in the eating area but the staff worked hard keeping everything stocked and cleaned up.The freeway is nearby but we had a room facing away and could not hear road noises.  There are also train tracks nearby but could barely hear the train.  It was pretty quiet in the room, no noises from the other rooms.  I’d definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r115019904-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>115019904</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>A great choice for family</t>
+  </si>
+  <si>
+    <t>I was looking for a place for our family to stay while we visited the Disneyland Resort.  We had a car that we could take to and from the resort - so proximity wasn't an issue.  It was a 4 mile trip.  We stayed in the 2 bedroom/ 2 bath suite.  Downstairs is a kitchen, living room (with pull out sofabed) and a bedroom with 2 queen beds and bath.  Upstairs is a loft with 1 queen bed and a bathroom.  We were very comfortable with our group of 4 adults and 1 child.  Free parking and complimentary breakfast are an added bonus.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r114767001-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>114767001</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>The customer service is wonderful- thanks to Yuri</t>
+  </si>
+  <si>
+    <t>I could not find my watch so I called, Yuri called me back said they couldn't find it.I usually never the call back.The service is great also!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r112076146-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>112076146</t>
+  </si>
+  <si>
+    <t>06/07/2011</t>
+  </si>
+  <si>
+    <t>Worth the drive to Disney!</t>
+  </si>
+  <si>
+    <t>We've stayed at almost half of the Anaheim area hotels in the past few years searching for the perfect combination of value, amenities and location. This Residence Inn has made up for its location (a good 10-15 min. drive from Disneyland) with the great rooms, great service (loved the little breakfast lady who spoiled my kids!), and great value. It's a quiet property without the overwhelming amount of children screaming - common for Anaheim hotels. We had a couple of issues with our room - a phone issue, a light that wouldn't turn off and no bedding for the crib or sofabed. With only one employee on the premises at night, we ended up fixing things ourselves or doing without. But really, nothing major and we will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We've stayed at almost half of the Anaheim area hotels in the past few years searching for the perfect combination of value, amenities and location. This Residence Inn has made up for its location (a good 10-15 min. drive from Disneyland) with the great rooms, great service (loved the little breakfast lady who spoiled my kids!), and great value. It's a quiet property without the overwhelming amount of children screaming - common for Anaheim hotels. We had a couple of issues with our room - a phone issue, a light that wouldn't turn off and no bedding for the crib or sofabed. With only one employee on the premises at night, we ended up fixing things ourselves or doing without. But really, nothing major and we will return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r94187104-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>94187104</t>
+  </si>
+  <si>
+    <t>01/23/2011</t>
+  </si>
+  <si>
+    <t>Once again, a wonderful stay</t>
+  </si>
+  <si>
+    <t>This was our second time staying at this Residence Inn, and I'm so happy we did! We had a bi-level loft suite. Very roomy with a full kitchen and supplies. Two full bathrooms, fireplace, living room area, dining table and chairs.  We had a queen size bed in the upstairs loft and two queen size beds in the bedroom on the first floor.  We had three flat screens TVs, 1 upstairs and 2 downstairs. It was very quite, very relaxing and just like our last visit, it was a little slice of heaven.In the mornings they serve a free breakfast. It's very good. They have a swimming pool, jacquizzi, BBQ grill and plenty of lounge chairs. They also have a combination volleyball/basketball court. Laundry room and in the lobby they have a 24 hour little market. Very convenient.My only complaint, the suite we had, the microwave did not work.  Looked brand new, too.Also, just like our last stay, the TV remote upstairs also controlled the TV over the fireplace.  A bit of a nuisance.Still, it's a great stay and I can't wait to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>This was our second time staying at this Residence Inn, and I'm so happy we did! We had a bi-level loft suite. Very roomy with a full kitchen and supplies. Two full bathrooms, fireplace, living room area, dining table and chairs.  We had a queen size bed in the upstairs loft and two queen size beds in the bedroom on the first floor.  We had three flat screens TVs, 1 upstairs and 2 downstairs. It was very quite, very relaxing and just like our last visit, it was a little slice of heaven.In the mornings they serve a free breakfast. It's very good. They have a swimming pool, jacquizzi, BBQ grill and plenty of lounge chairs. They also have a combination volleyball/basketball court. Laundry room and in the lobby they have a 24 hour little market. Very convenient.My only complaint, the suite we had, the microwave did not work.  Looked brand new, too.Also, just like our last stay, the TV remote upstairs also controlled the TV over the fireplace.  A bit of a nuisance.Still, it's a great stay and I can't wait to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r89684830-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>89684830</t>
+  </si>
+  <si>
+    <t>12/12/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay for groups</t>
+  </si>
+  <si>
+    <t>Having stayed at a few Residence Inns in the past few years, I have to say that they never disappoint.  This property is a great option for families visiting the local theme parks (Knott's or Disneyland) they're both only 15 minutes away.  No other real amenities nearby as the property is in the middle of a light industrial/commercial area.  Room was a 2 bedroom (1 upstairs in a loft) 2 bath suite with full kitchen.  The only complaint (and it was more amusing than annoying) that I have about the room is that the remote controls for the LG flat screen TVs were too sensitive and you could change the channel on both TVs from either the loft or the downstairs living room.  Breakfast was standard buffet type with some pre made sausage and egg muffins, a waffle iron with batter dispenser, yogurts, cereals, etc.  If you have a family of 4  this is a great way to feed everybody breakfast since it's part of the room rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Having stayed at a few Residence Inns in the past few years, I have to say that they never disappoint.  This property is a great option for families visiting the local theme parks (Knott's or Disneyland) they're both only 15 minutes away.  No other real amenities nearby as the property is in the middle of a light industrial/commercial area.  Room was a 2 bedroom (1 upstairs in a loft) 2 bath suite with full kitchen.  The only complaint (and it was more amusing than annoying) that I have about the room is that the remote controls for the LG flat screen TVs were too sensitive and you could change the channel on both TVs from either the loft or the downstairs living room.  Breakfast was standard buffet type with some pre made sausage and egg muffins, a waffle iron with batter dispenser, yogurts, cereals, etc.  If you have a family of 4  this is a great way to feed everybody breakfast since it's part of the room rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r84853872-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>84853872</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>Great rooms...terrible service</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice now.  The first time was great.  The service was amazing...especially the older lady that worked with the breakfasts.  This time there were nothing but rude people working everywhere from the front desk to the breakfast workers.  Housekeepers were very friendly and nice though.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r84845852-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>84845852</t>
+  </si>
+  <si>
+    <t>Reserved room via hotels.com and got an excellent price.  This hotel excels the nearby Holiday Inn Express in Placentia.  Spacious room with kitchenette, free hot and cold breakfast in lobby area, very clean and quiet, friendly staff.  Only negative is no DVD player in room, so bring your computer or DVD player.  Otherwise would strongly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r83663881-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>83663881</t>
+  </si>
+  <si>
+    <t>10/15/2010</t>
+  </si>
+  <si>
+    <t>Very positive experience</t>
+  </si>
+  <si>
+    <t>I was very pleased with my 2-day stay this week.  The room was large, bright and felt safe.  The staff was very friendly and seemed to sincerely want to make the customer experience a good one.  In terms of location, you really do need a car but it is a short drive to a grocery, restaurants, etc.  There were also many options for in-room delivery from lots of restaurants.  I was attending a conference in Yorba Linda and it was a very short commute with little to no traffic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r54751710-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>54751710</t>
+  </si>
+  <si>
+    <t>01/30/2010</t>
+  </si>
+  <si>
+    <t>We loved our stay.</t>
+  </si>
+  <si>
+    <t>We stayed here for our annual Disneyland trip and we were very happy with it. The room was great for us (Bi-level loft, 3 adults and 1 child) we loved everything about it (Spacious and clean). Housekeeping was fabulous. Front dest staff was always pleasant and more than helpful. Continental breakfast was awesome (the dining area can get a bit crowded). You may hear the distant sound of trains in the night if you are a light sleeper but it really did not bother us. We will definately be back to this hotel!!</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r53831643-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>53831643</t>
+  </si>
+  <si>
+    <t>01/19/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Residence Inn, and I'm so happy we found it!  We had a bi-level loft suite.  Very roomy with a full kitchen and supplies.  Two full bathrooms, fireplace, living room area, dining room and computer area, then at night it converts into a Murphy bed which was very comfy.  We had two flat screens TVs, upstairs and downstairs.  It was very quite, very relaxing and it just made our little trip a little slice of heaven.In the mornings they serve a free breakfast.  It's very good.  They have a swimming pool, jacquizzi, BBQ grill and plenty of lounge chairs.  They also have a combonation volleyball/basketball court.  Laundry room and in the lobby they have a 24 hour little market.  Very convenient.Can't wait to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first time staying at a Residence Inn, and I'm so happy we found it!  We had a bi-level loft suite.  Very roomy with a full kitchen and supplies.  Two full bathrooms, fireplace, living room area, dining room and computer area, then at night it converts into a Murphy bed which was very comfy.  We had two flat screens TVs, upstairs and downstairs.  It was very quite, very relaxing and it just made our little trip a little slice of heaven.In the mornings they serve a free breakfast.  It's very good.  They have a swimming pool, jacquizzi, BBQ grill and plenty of lounge chairs.  They also have a combonation volleyball/basketball court.  Laundry room and in the lobby they have a 24 hour little market.  Very convenient.Can't wait to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r53566930-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>53566930</t>
+  </si>
+  <si>
+    <t>01/15/2010</t>
+  </si>
+  <si>
+    <t>Very impressed!</t>
+  </si>
+  <si>
+    <t>My hubby and I had a funeral to attend in the southern California area, so I booked a 3 star room on Priceline for $45 a night. I have never stayed at a Ressidence Inn before, so I didn't know what to expect. We arrived around 5 on a Tues. evening and check-in was a breeze. Mon-Wed. they have a lite dinner in the dinning area, but we had already eaten. Our room was in the back next to the highway, but the noice wasn't bad at all. I was very impressed! Our room had a full kitchen with modern appliances and the everything you might need (plates, flatware, glasses, even cloth napkins!!). It had granite counter tops, tile floors, nice lighting. The room was large, with sofa, chair and coffee table, and large, flat screen T.V. The bathroom area wasn't anything special, but all was clean and the tub was larger than most I've stayed in. The bed was very comfy, and we slept well. They have a GREAT breakfast  with biscuts and gravy, oatmeal, eggs, waffles and much more. Check out was easy. I only had one problem with the room--the coffee table wasn't clean. It had dried milk on it and looked kinda gross. We didn't eat in the room, so I didn't complain. It was a small thing, and I would stay here again!! Our "overall" stay was wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t>My hubby and I had a funeral to attend in the southern California area, so I booked a 3 star room on Priceline for $45 a night. I have never stayed at a Ressidence Inn before, so I didn't know what to expect. We arrived around 5 on a Tues. evening and check-in was a breeze. Mon-Wed. they have a lite dinner in the dinning area, but we had already eaten. Our room was in the back next to the highway, but the noice wasn't bad at all. I was very impressed! Our room had a full kitchen with modern appliances and the everything you might need (plates, flatware, glasses, even cloth napkins!!). It had granite counter tops, tile floors, nice lighting. The room was large, with sofa, chair and coffee table, and large, flat screen T.V. The bathroom area wasn't anything special, but all was clean and the tub was larger than most I've stayed in. The bed was very comfy, and we slept well. They have a GREAT breakfast  with biscuts and gravy, oatmeal, eggs, waffles and much more. Check out was easy. I only had one problem with the room--the coffee table wasn't clean. It had dried milk on it and looked kinda gross. We didn't eat in the room, so I didn't complain. It was a small thing, and I would stay here again!! Our "overall" stay was wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r50074348-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>50074348</t>
+  </si>
+  <si>
+    <t>11/25/2009</t>
+  </si>
+  <si>
+    <t>I wouldn't stay anywhere else</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence in for 3 weeks in October/November.  This was my 3rd stay.  In my past visits, I found the self-contained rooms quite comfortable, but getting tired.  This visit, my suite (with loft) had just been modernised and upgraded.  It was beautiful and fresh.  There were flat screen TVs in the livingroom,  master bedroom and loft bedroom.  The staff accommodated my desire for unrushed mornings and did all the cleaning when I was out in the afternoon.  All in all it was a perfect stay and very, very good value.  I love this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r35266070-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>35266070</t>
+  </si>
+  <si>
+    <t>07/20/2009</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I was a little concerned after reading some of the reviews on tripadvisor. Our experience was great though. We stayed in one of the rooms with a King in one bedroom and a queen in the upstairs loft. Every thing was clean and well taken care of, as expected at a Residence Inn. The beds were good and the room was in good order. It's true some of the cabinetry is a little dated and the like, but in general the facility is well maintained. They started another renovation in June, but only have completed three rooms. My wife is very particular when it comes to hotels, but she was very happy. It was nice to have a  full kitchen so we did not have to eat out all the time. It is less than 10 min to Disney land on CA 57 and half the cost of  the Residence Inn Main gate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I was a little concerned after reading some of the reviews on tripadvisor. Our experience was great though. We stayed in one of the rooms with a King in one bedroom and a queen in the upstairs loft. Every thing was clean and well taken care of, as expected at a Residence Inn. The beds were good and the room was in good order. It's true some of the cabinetry is a little dated and the like, but in general the facility is well maintained. They started another renovation in June, but only have completed three rooms. My wife is very particular when it comes to hotels, but she was very happy. It was nice to have a  full kitchen so we did not have to eat out all the time. It is less than 10 min to Disney land on CA 57 and half the cost of  the Residence Inn Main gate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r33411506-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>33411506</t>
+  </si>
+  <si>
+    <t>06/28/2009</t>
+  </si>
+  <si>
+    <t>Good place, but needs a facelift...and is getting one</t>
+  </si>
+  <si>
+    <t>I have stayed here before, but two or three years ago.  I usually stay in Anaheim, but this past trip the hotels were all booked there, so I came up here again.  It's only about 10 minutes from Anaheim, so the location is good.
+The hotel is laid out in little buildings with a few units in each and walkways in between.  The staff here is very nice and helpful.  The breakfast is just OK, but certainly adequate for a quick bite on the way out the door.  The pool and hot tub look nice, but I did not get a chance to use them.
+The rooms are nice and big and with a nice work surface in between the kitchen area and sitting area.  The kitchen comes with a stove, coffee maker, refrigerator, microwave oven, sink, and dishwasher.  It is also stocked with plates, glasses, pans, silverware, and some kitchen utensils.  The bathroom is small, but not too cramped.  The area outside the bathroom has a sink and little dressing area.  I had a suite with a king-size bed.
+This stay, the bed was quite uncomfortable.  It felt like a 400 lb. man had been sleeping there for two months in the same place.  I could not find any position on the bed where I couldn't feel the "canyon" in the middle of the bed.  Maybe flipping the mattress once a month would help this problem.  But the bigger...I have stayed here before, but two or three years ago.  I usually stay in Anaheim, but this past trip the hotels were all booked there, so I came up here again.  It's only about 10 minutes from Anaheim, so the location is good.The hotel is laid out in little buildings with a few units in each and walkways in between.  The staff here is very nice and helpful.  The breakfast is just OK, but certainly adequate for a quick bite on the way out the door.  The pool and hot tub look nice, but I did not get a chance to use them.The rooms are nice and big and with a nice work surface in between the kitchen area and sitting area.  The kitchen comes with a stove, coffee maker, refrigerator, microwave oven, sink, and dishwasher.  It is also stocked with plates, glasses, pans, silverware, and some kitchen utensils.  The bathroom is small, but not too cramped.  The area outside the bathroom has a sink and little dressing area.  I had a suite with a king-size bed.This stay, the bed was quite uncomfortable.  It felt like a 400 lb. man had been sleeping there for two months in the same place.  I could not find any position on the bed where I couldn't feel the "canyon" in the middle of the bed.  Maybe flipping the mattress once a month would help this problem.  But the bigger problem with my stay this time is that the room is looking a little tired.  It needs to be upgraded.  Fortunately, it looks like they have just started on a big facelift.  Unfortunately, the construction storage trailers eat up a lot of parking room.  For those guests in units at the end of the complex, there is no place to park close to their units.  But this is a temporary situation.All in all, I would stay here again.  The quality of the place, even this stay, outweighs the little issues I had.  (I might wait another 10 months or so, just to be sure the construction is finished.)MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here before, but two or three years ago.  I usually stay in Anaheim, but this past trip the hotels were all booked there, so I came up here again.  It's only about 10 minutes from Anaheim, so the location is good.
+The hotel is laid out in little buildings with a few units in each and walkways in between.  The staff here is very nice and helpful.  The breakfast is just OK, but certainly adequate for a quick bite on the way out the door.  The pool and hot tub look nice, but I did not get a chance to use them.
+The rooms are nice and big and with a nice work surface in between the kitchen area and sitting area.  The kitchen comes with a stove, coffee maker, refrigerator, microwave oven, sink, and dishwasher.  It is also stocked with plates, glasses, pans, silverware, and some kitchen utensils.  The bathroom is small, but not too cramped.  The area outside the bathroom has a sink and little dressing area.  I had a suite with a king-size bed.
+This stay, the bed was quite uncomfortable.  It felt like a 400 lb. man had been sleeping there for two months in the same place.  I could not find any position on the bed where I couldn't feel the "canyon" in the middle of the bed.  Maybe flipping the mattress once a month would help this problem.  But the bigger...I have stayed here before, but two or three years ago.  I usually stay in Anaheim, but this past trip the hotels were all booked there, so I came up here again.  It's only about 10 minutes from Anaheim, so the location is good.The hotel is laid out in little buildings with a few units in each and walkways in between.  The staff here is very nice and helpful.  The breakfast is just OK, but certainly adequate for a quick bite on the way out the door.  The pool and hot tub look nice, but I did not get a chance to use them.The rooms are nice and big and with a nice work surface in between the kitchen area and sitting area.  The kitchen comes with a stove, coffee maker, refrigerator, microwave oven, sink, and dishwasher.  It is also stocked with plates, glasses, pans, silverware, and some kitchen utensils.  The bathroom is small, but not too cramped.  The area outside the bathroom has a sink and little dressing area.  I had a suite with a king-size bed.This stay, the bed was quite uncomfortable.  It felt like a 400 lb. man had been sleeping there for two months in the same place.  I could not find any position on the bed where I couldn't feel the "canyon" in the middle of the bed.  Maybe flipping the mattress once a month would help this problem.  But the bigger problem with my stay this time is that the room is looking a little tired.  It needs to be upgraded.  Fortunately, it looks like they have just started on a big facelift.  Unfortunately, the construction storage trailers eat up a lot of parking room.  For those guests in units at the end of the complex, there is no place to park close to their units.  But this is a temporary situation.All in all, I would stay here again.  The quality of the place, even this stay, outweighs the little issues I had.  (I might wait another 10 months or so, just to be sure the construction is finished.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r24607165-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>24607165</t>
+  </si>
+  <si>
+    <t>02/15/2009</t>
+  </si>
+  <si>
+    <t>Good Week Long Stay, Courteous Staff, Not So Great Location</t>
+  </si>
+  <si>
+    <t>We used Marriott points for our week long Southern California getaway.  The staff was very courteous and met everyone of our needs attentively.  Breakfast was average, but that's what I pretty much expected.  They did have a large variety to choose from and it did change daily.  The rooms were a little on the outdated side but overall the room was very clean and housekeeping did a good job of cleaning the entire studio daily.  The only downfall was the location, a little bit out of the way and off the beaten path.  Overall if I was to choose a Residence Inn it would probably be one of the Residence Inn's closer to Disneyland but if booked I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>We used Marriott points for our week long Southern California getaway.  The staff was very courteous and met everyone of our needs attentively.  Breakfast was average, but that's what I pretty much expected.  They did have a large variety to choose from and it did change daily.  The rooms were a little on the outdated side but overall the room was very clean and housekeeping did a good job of cleaning the entire studio daily.  The only downfall was the location, a little bit out of the way and off the beaten path.  Overall if I was to choose a Residence Inn it would probably be one of the Residence Inn's closer to Disneyland but if booked I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r24223469-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>24223469</t>
+  </si>
+  <si>
+    <t>02/04/2009</t>
+  </si>
+  <si>
+    <t>Great place - noisy refrigerator &amp; heater/AC</t>
+  </si>
+  <si>
+    <t>Pro - Great place. Courtyard setting, large room, full kitchen, very clean.Con: The noisiest room I ever stayed in! My bed was 20 feet away from the refrigerator. I just turned unplugged it. My food stayed fresh overnight. During the day the noise was still distracting.The heating/cooling system was also loud. I turned that off, also. Luckily the weather was amenable to this.Other than that, great place. Won't visit again, though.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r18083417-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>18083417</t>
+  </si>
+  <si>
+    <t>07/20/2008</t>
+  </si>
+  <si>
+    <t>Not So Much</t>
+  </si>
+  <si>
+    <t>We got to our room where we found waiting for us about 15 flies in each of the bedrooms and about the same number in the kitchen.  There was some left over food crumbs from the last occupant sitting on the fireplace surround.  Called the front desk and they said the flies were typical of the rooms in June, so moving rooms wouldn't help.  They put in some flypaper in each of the rooms (they offered to spray but we didn't want that with our young kids).  We went to the tiny pool and it was towel-less, with cloudy as opposed to clear water.  Went to breakfast the next morning and it was overrun with people with no tables, with cereal all over the floor, and many of the complimentary breakfast items like eggs and waffle batter were empty for at least 30 minutes.  The staff said the good news was the place is scheduled to be upgraded later in the year.  I wouldn't stay there myself until after the upgrades are done.  On the positive, the front desk staff was apologetic and courteous about the problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>We got to our room where we found waiting for us about 15 flies in each of the bedrooms and about the same number in the kitchen.  There was some left over food crumbs from the last occupant sitting on the fireplace surround.  Called the front desk and they said the flies were typical of the rooms in June, so moving rooms wouldn't help.  They put in some flypaper in each of the rooms (they offered to spray but we didn't want that with our young kids).  We went to the tiny pool and it was towel-less, with cloudy as opposed to clear water.  Went to breakfast the next morning and it was overrun with people with no tables, with cereal all over the floor, and many of the complimentary breakfast items like eggs and waffle batter were empty for at least 30 minutes.  The staff said the good news was the place is scheduled to be upgraded later in the year.  I wouldn't stay there myself until after the upgrades are done.  On the positive, the front desk staff was apologetic and courteous about the problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r12226218-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>12226218</t>
+  </si>
+  <si>
+    <t>01/01/2008</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r8349261-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>8349261</t>
+  </si>
+  <si>
+    <t>08/03/2007</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r8040511-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>8040511</t>
+  </si>
+  <si>
+    <t>07/01/2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r3703309-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>3703309</t>
+  </si>
+  <si>
+    <t>07/26/2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r3487268-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>3487268</t>
+  </si>
+  <si>
+    <t>05/18/2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r1878601-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
+  </si>
+  <si>
+    <t>1878601</t>
+  </si>
+  <si>
+    <t>05/05/2004</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2854,6805 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>239</v>
+      </c>
+      <c r="X25" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>247</v>
+      </c>
+      <c r="X26" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>255</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>256</v>
+      </c>
+      <c r="X27" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>281</v>
+      </c>
+      <c r="X30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>272</v>
+      </c>
+      <c r="X31" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>312</v>
+      </c>
+      <c r="X34" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>316</v>
+      </c>
+      <c r="J35" t="s">
+        <v>317</v>
+      </c>
+      <c r="K35" t="s">
+        <v>318</v>
+      </c>
+      <c r="L35" t="s">
+        <v>319</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>320</v>
+      </c>
+      <c r="X35" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>324</v>
+      </c>
+      <c r="J36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s">
+        <v>327</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>305</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>320</v>
+      </c>
+      <c r="X36" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>329</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>330</v>
+      </c>
+      <c r="J37" t="s">
+        <v>331</v>
+      </c>
+      <c r="K37" t="s">
+        <v>332</v>
+      </c>
+      <c r="L37" t="s">
+        <v>333</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>305</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>334</v>
+      </c>
+      <c r="X37" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>342</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>343</v>
+      </c>
+      <c r="X38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>347</v>
+      </c>
+      <c r="J39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K39" t="s">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s">
+        <v>350</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>351</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>342</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>343</v>
+      </c>
+      <c r="X40" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>371</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>378</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K44" t="s">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>384</v>
+      </c>
+      <c r="X45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>392</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>412</v>
+      </c>
+      <c r="X48" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>416</v>
+      </c>
+      <c r="J49" t="s">
+        <v>417</v>
+      </c>
+      <c r="K49" t="s">
+        <v>418</v>
+      </c>
+      <c r="L49" t="s">
+        <v>419</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>420</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>422</v>
+      </c>
+      <c r="J50" t="s">
+        <v>423</v>
+      </c>
+      <c r="K50" t="s">
+        <v>424</v>
+      </c>
+      <c r="L50" t="s">
+        <v>425</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>411</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>114</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>444</v>
+      </c>
+      <c r="J53" t="s">
+        <v>445</v>
+      </c>
+      <c r="K53" t="s">
+        <v>446</v>
+      </c>
+      <c r="L53" t="s">
+        <v>447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>454</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>457</v>
+      </c>
+      <c r="J55" t="s">
+        <v>458</v>
+      </c>
+      <c r="K55" t="s">
+        <v>459</v>
+      </c>
+      <c r="L55" t="s">
+        <v>460</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>454</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>448</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>467</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>468</v>
+      </c>
+      <c r="J57" t="s">
+        <v>469</v>
+      </c>
+      <c r="K57" t="s">
+        <v>470</v>
+      </c>
+      <c r="L57" t="s">
+        <v>471</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>472</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>448</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>478</v>
+      </c>
+      <c r="X58" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>481</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>482</v>
+      </c>
+      <c r="J59" t="s">
+        <v>483</v>
+      </c>
+      <c r="K59" t="s">
+        <v>484</v>
+      </c>
+      <c r="L59" t="s">
+        <v>485</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>486</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>488</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>489</v>
+      </c>
+      <c r="J60" t="s">
+        <v>490</v>
+      </c>
+      <c r="K60" t="s">
+        <v>491</v>
+      </c>
+      <c r="L60" t="s">
+        <v>492</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>114</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>495</v>
+      </c>
+      <c r="J61" t="s">
+        <v>496</v>
+      </c>
+      <c r="K61" t="s">
+        <v>497</v>
+      </c>
+      <c r="L61" t="s">
+        <v>498</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>493</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>472</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>505</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J63" t="s">
+        <v>507</v>
+      </c>
+      <c r="K63" t="s">
+        <v>508</v>
+      </c>
+      <c r="L63" t="s">
+        <v>509</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>510</v>
+      </c>
+      <c r="O63" t="s">
+        <v>174</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>511</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>512</v>
+      </c>
+      <c r="J64" t="s">
+        <v>513</v>
+      </c>
+      <c r="K64" t="s">
+        <v>514</v>
+      </c>
+      <c r="L64" t="s">
+        <v>515</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" t="s">
+        <v>114</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>523</v>
+      </c>
+      <c r="J66" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" t="s">
+        <v>525</v>
+      </c>
+      <c r="L66" t="s">
+        <v>526</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>521</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>527</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>528</v>
+      </c>
+      <c r="J67" t="s">
+        <v>529</v>
+      </c>
+      <c r="K67" t="s">
+        <v>530</v>
+      </c>
+      <c r="L67" t="s">
+        <v>531</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>521</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>533</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>534</v>
+      </c>
+      <c r="J68" t="s">
+        <v>535</v>
+      </c>
+      <c r="K68" t="s">
+        <v>536</v>
+      </c>
+      <c r="L68" t="s">
+        <v>537</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>538</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>539</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>540</v>
+      </c>
+      <c r="J69" t="s">
+        <v>541</v>
+      </c>
+      <c r="K69" t="s">
+        <v>542</v>
+      </c>
+      <c r="L69" t="s">
+        <v>543</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>544</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>546</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>547</v>
+      </c>
+      <c r="J70" t="s">
+        <v>548</v>
+      </c>
+      <c r="K70" t="s">
+        <v>549</v>
+      </c>
+      <c r="L70" t="s">
+        <v>550</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>551</v>
+      </c>
+      <c r="O70" t="s">
+        <v>135</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>553</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>554</v>
+      </c>
+      <c r="J71" t="s">
+        <v>555</v>
+      </c>
+      <c r="K71" t="s">
+        <v>556</v>
+      </c>
+      <c r="L71" t="s">
+        <v>557</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>551</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>559</v>
+      </c>
+      <c r="J72" t="s">
+        <v>560</v>
+      </c>
+      <c r="K72" t="s">
+        <v>561</v>
+      </c>
+      <c r="L72" t="s">
+        <v>562</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>563</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>565</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>566</v>
+      </c>
+      <c r="J73" t="s">
+        <v>567</v>
+      </c>
+      <c r="K73" t="s">
+        <v>568</v>
+      </c>
+      <c r="L73" t="s">
+        <v>569</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>563</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>570</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>571</v>
+      </c>
+      <c r="J74" t="s">
+        <v>572</v>
+      </c>
+      <c r="K74" t="s">
+        <v>573</v>
+      </c>
+      <c r="L74" t="s">
+        <v>574</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>575</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>577</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>578</v>
+      </c>
+      <c r="J75" t="s">
+        <v>579</v>
+      </c>
+      <c r="K75" t="s">
+        <v>580</v>
+      </c>
+      <c r="L75" t="s">
+        <v>581</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>563</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>583</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>584</v>
+      </c>
+      <c r="J76" t="s">
+        <v>585</v>
+      </c>
+      <c r="K76" t="s">
+        <v>586</v>
+      </c>
+      <c r="L76" t="s">
+        <v>587</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>588</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>589</v>
+      </c>
+      <c r="X76" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>592</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>593</v>
+      </c>
+      <c r="J77" t="s">
+        <v>594</v>
+      </c>
+      <c r="K77" t="s">
+        <v>595</v>
+      </c>
+      <c r="L77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>597</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>599</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>600</v>
+      </c>
+      <c r="J78" t="s">
+        <v>601</v>
+      </c>
+      <c r="K78" t="s">
+        <v>602</v>
+      </c>
+      <c r="L78" t="s">
+        <v>603</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>604</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>605</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>606</v>
+      </c>
+      <c r="J79" t="s">
+        <v>607</v>
+      </c>
+      <c r="K79" t="s">
+        <v>608</v>
+      </c>
+      <c r="L79" t="s">
+        <v>609</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>604</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>611</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>612</v>
+      </c>
+      <c r="J80" t="s">
+        <v>613</v>
+      </c>
+      <c r="K80" t="s">
+        <v>614</v>
+      </c>
+      <c r="L80" t="s">
+        <v>615</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>616</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>617</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>618</v>
+      </c>
+      <c r="J81" t="s">
+        <v>619</v>
+      </c>
+      <c r="K81" t="s">
+        <v>620</v>
+      </c>
+      <c r="L81" t="s">
+        <v>621</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>622</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>624</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>625</v>
+      </c>
+      <c r="J82" t="s">
+        <v>626</v>
+      </c>
+      <c r="K82" t="s">
+        <v>627</v>
+      </c>
+      <c r="L82" t="s">
+        <v>628</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>622</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>630</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>631</v>
+      </c>
+      <c r="J83" t="s">
+        <v>632</v>
+      </c>
+      <c r="K83" t="s">
+        <v>633</v>
+      </c>
+      <c r="L83" t="s">
+        <v>634</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>635</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>637</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>638</v>
+      </c>
+      <c r="J84" t="s">
+        <v>639</v>
+      </c>
+      <c r="K84" t="s">
+        <v>640</v>
+      </c>
+      <c r="L84" t="s">
+        <v>641</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>635</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>643</v>
+      </c>
+      <c r="J85" t="s">
+        <v>644</v>
+      </c>
+      <c r="K85" t="s">
+        <v>645</v>
+      </c>
+      <c r="L85" t="s">
+        <v>646</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>647</v>
+      </c>
+      <c r="O85" t="s">
+        <v>63</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>648</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>649</v>
+      </c>
+      <c r="J86" t="s">
+        <v>650</v>
+      </c>
+      <c r="K86" t="s">
+        <v>651</v>
+      </c>
+      <c r="L86" t="s">
+        <v>652</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>653</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>655</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>656</v>
+      </c>
+      <c r="J87" t="s">
+        <v>657</v>
+      </c>
+      <c r="K87" t="s">
+        <v>658</v>
+      </c>
+      <c r="L87" t="s">
+        <v>659</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>660</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>662</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>663</v>
+      </c>
+      <c r="J88" t="s">
+        <v>664</v>
+      </c>
+      <c r="K88" t="s">
+        <v>665</v>
+      </c>
+      <c r="L88" t="s">
+        <v>666</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>667</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>669</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>670</v>
+      </c>
+      <c r="J89" t="s">
+        <v>671</v>
+      </c>
+      <c r="K89" t="s">
+        <v>672</v>
+      </c>
+      <c r="L89" t="s">
+        <v>673</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>674</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>675</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>676</v>
+      </c>
+      <c r="J90" t="s">
+        <v>671</v>
+      </c>
+      <c r="K90" t="s">
+        <v>106</v>
+      </c>
+      <c r="L90" t="s">
+        <v>677</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>674</v>
+      </c>
+      <c r="O90" t="s">
+        <v>114</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>678</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>679</v>
+      </c>
+      <c r="J91" t="s">
+        <v>680</v>
+      </c>
+      <c r="K91" t="s">
+        <v>681</v>
+      </c>
+      <c r="L91" t="s">
+        <v>682</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>674</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>683</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>684</v>
+      </c>
+      <c r="J92" t="s">
+        <v>685</v>
+      </c>
+      <c r="K92" t="s">
+        <v>686</v>
+      </c>
+      <c r="L92" t="s">
+        <v>687</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>688</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>689</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>690</v>
+      </c>
+      <c r="J93" t="s">
+        <v>691</v>
+      </c>
+      <c r="K93" t="s">
+        <v>692</v>
+      </c>
+      <c r="L93" t="s">
+        <v>693</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>688</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>695</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>696</v>
+      </c>
+      <c r="J94" t="s">
+        <v>697</v>
+      </c>
+      <c r="K94" t="s">
+        <v>698</v>
+      </c>
+      <c r="L94" t="s">
+        <v>699</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>688</v>
+      </c>
+      <c r="O94" t="s">
+        <v>114</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>701</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>702</v>
+      </c>
+      <c r="J95" t="s">
+        <v>703</v>
+      </c>
+      <c r="K95" t="s">
+        <v>704</v>
+      </c>
+      <c r="L95" t="s">
+        <v>705</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>706</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>707</v>
+      </c>
+      <c r="J96" t="s">
+        <v>708</v>
+      </c>
+      <c r="K96" t="s">
+        <v>709</v>
+      </c>
+      <c r="L96" t="s">
+        <v>710</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>711</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>713</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>714</v>
+      </c>
+      <c r="J97" t="s">
+        <v>715</v>
+      </c>
+      <c r="K97" t="s">
+        <v>716</v>
+      </c>
+      <c r="L97" t="s">
+        <v>717</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>711</v>
+      </c>
+      <c r="O97" t="s">
+        <v>63</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>719</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>720</v>
+      </c>
+      <c r="J98" t="s">
+        <v>721</v>
+      </c>
+      <c r="K98" t="s">
+        <v>722</v>
+      </c>
+      <c r="L98" t="s">
+        <v>723</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>724</v>
+      </c>
+      <c r="O98" t="s">
+        <v>114</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>726</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>727</v>
+      </c>
+      <c r="J99" t="s">
+        <v>728</v>
+      </c>
+      <c r="K99" t="s">
+        <v>729</v>
+      </c>
+      <c r="L99" t="s">
+        <v>730</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>731</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>732</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>733</v>
+      </c>
+      <c r="J100" t="s">
+        <v>734</v>
+      </c>
+      <c r="K100" t="s">
+        <v>735</v>
+      </c>
+      <c r="L100" t="s">
+        <v>736</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>738</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>739</v>
+      </c>
+      <c r="J101" t="s">
+        <v>740</v>
+      </c>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s">
+        <v>741</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>742</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>744</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>745</v>
+      </c>
+      <c r="J102" t="s">
+        <v>746</v>
+      </c>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>747</v>
+      </c>
+      <c r="O102" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>748</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>749</v>
+      </c>
+      <c r="J103" t="s">
+        <v>750</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s">
+        <v>741</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>747</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>751</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>752</v>
+      </c>
+      <c r="J104" t="s">
+        <v>753</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s">
+        <v>741</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>754</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>755</v>
+      </c>
+      <c r="J105" t="s">
+        <v>756</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>19091</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>757</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>758</v>
+      </c>
+      <c r="J106" t="s">
+        <v>759</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s">
+        <v>741</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>743</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_636.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_636.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="863">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>xigiff</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stayed here as we were on a family vacation to the Disney area. We choose this place to allow more of us to stay in one room, and the value was great. This allowed us to have all of us together. We stayed in the room with the bed in the loft and two queen beds below. Although the loft bed is great, it's a bit open and there is no real way for privacy in that room, that was a bit disappointing. Parking was easy, free. Breakfast was pretty good, they could have mixed it up a bit, but for the price this was a great value. The reception was great and they got me all checked in, and gave me a free item from the concession area. After a really long drive a few oreos to the family as we walked to the room was great. I would be glad to choose this place again should we return to this area again.More</t>
   </si>
   <si>
+    <t>ALEX P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r565800294-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Fine large big rooms that are dated but fully functional. Staff when we checked in were great. Morning person on the weekend not so much. If I had used the common living room area in our 2 bedroom suite I would have had to change rooms do to the very loud and obnoxious vibrations from the heating system. That needs to be looked at but the bedrooms remained quiet and we all slept very well. The breakfast during the week was much better than the fare that put out on the weekend for some reason. Quite a surprise to see the change, but there was still plenty of food and the service people in the breakfast room are great.  Location is not as convenient to Anaheim Convention Center as I thought it would be - feel further than the 6 miles it is due to traffic and the roads. The hotel is located in a business park just off the freeway but you have to go around several blocks to get on and off and get to the hotel. I did not hear any road noise though which is nice.More</t>
   </si>
   <si>
+    <t>Harry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r563989205-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -244,6 +253,9 @@
   </si>
   <si>
     <t>So these suites are very close to Disneyland LA if you are driving. Rooms are quite spacious and have full kitchen. Cleanliness is of high standard and parking is free in very close proximity of your room. There is a small outside pool which is heated and quite relaxing. There are no lifts to first floor suites but the staff are quite helpful and help with heavier luggage. Recommend it.More</t>
+  </si>
+  <si>
+    <t>Lisa T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r557224321-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -285,6 +297,9 @@
 We went based on distance from park but it was actually a $13-26 UberX or cab ride each direction (which was still cheaper than renting a car and paying for parking but it added up over 3 days) AND it was too far to dodge back for an afternoon nap to...This hotel is your basic Residence Inn.I booked it through Southwest Vacations with our plane tickets and did my review research and mapping- it seemed like an okay fit- but in the end was not ideal.Pros: It includes a basic but hot breakfast and a happy hour (we missed it bc we were at the parks), it has a pool which kids love and there is a kitchen for families who may want to cook or store stuff in the fridge. It has reasonably comfortable beds and a good sized room for a family with 2 kids who can share a sofa bed. If you are travelling with two older/larger kids the sofa bed will be WAY too small.Cons: The main issue with THIS location is that on the map it seems not to far from the park, and if you have your own vehicle it is not too bad of a drive. I am not sure if there is a fee for parking at this location- many in Anaheim hotels do have a fee. The cost to park at Disney is currently $20 per day. We went based on distance from park but it was actually a $13-26 UberX or cab ride each direction (which was still cheaper than renting a car and paying for parking but it added up over 3 days) AND it was too far to dodge back for an afternoon nap to gather energy for an evening at the parks. On average it took 20-30 mins to drive the approximately 6ish miles listed on the map....SO I'd say if you are going in your own car and planning to go early AM and head home when you are done, or go later and finish out at the parks' closing then this is a reasonable choice but otherwise too far to drop back for a rest and in kind of a remote, random location (weird business park at the end of a cul de sac with nothing nearby).Also it is very close to a freeway and the windows are thin so after my kids went to bed they asked if I could close the window bc it was too noisy! (IF you need true silence to sleep this is NOT the hotel for you). We were all pooped from Disney so it was fine.More</t>
   </si>
   <si>
+    <t>DnetW0rk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r547566989-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -312,6 +327,9 @@
     <t>We’ve stayed here for 3 night for a getaway, room was old and outdated, love the kitchen.  When my kids try to open the sofa sleeper it was not done usually it’s made already but it’s ok. When we got the linens from the cabinet the bedsheets was just crumpled on the floor with the blanket don’t know if it’s used or not but it has a lot of hairs on it so we decided to use the plain sheet on the bed too late to disturb housekeeping. Breakfast was good they had different hot foods everyday and attendants were very friendly and helpful. It was not a great stay nor worse just so and so due to no quality inspection before making the room available for guest.More</t>
   </si>
   <si>
+    <t>Korriana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r535155889-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -339,6 +357,9 @@
     <t>We stayed here from August 22nd to October 4th. It was pleasant, clean and an amazing experience. They served a large hot buffet everyday with new items, housekeeping was wonderful and I always felt like family. They do allow pets, although we dont have any. They have a full kitchen, utensils, dishwasher and nice interior decorating. We had a three bed room, which was two levels and had two bathrooms. We only had housekeeping when we wanted it, which wasnt often. Parking is $5 per night until you are there for 30 nights. Worth every penny. There is a pool, laundry room and basketball court. Loved it here and will definitely go again, if needed! Recommend it!More</t>
   </si>
   <si>
+    <t>jutsugi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r518953624-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>I stayed at this property as it was reasonably priced and close to Chapman University and surrounding places of interest. parking was free now it's $5 per car. Breakfast was good. Request 2nd floor unit as being on the 1st floor can be sometimes noisier but depends on who is staying above you. I received a late 2pm checkout however our roomkey was deactivated prior to checkout. Why?</t>
   </si>
   <si>
+    <t>desertj1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r500270620-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Brian E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r494373315-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>This was my 2nd and last stay - both were business related.  My disappointments were driven solely through the attitudes I received when conflicts and issues occurred.  I realize that, by design, Residence Inns aren't really business related, but the location works (worked - I won't go back) for our meetings, so we've been using it when in this area of LA.  Since I wasn't the traditional transient guest, I was therefore an annoyance.  My room &amp; tax was to be paid by my company, but they stated they had no record of it.  They had the contract booking my room as well as the meeting room on the 2nd floor, they confirmed it was reserved for me to use, but they had no form of payment of either room (???)  How is that possible? I was told they would contact my company rep and investigate.  I had a discussion with my company rep approx. 2 hours later and she informed me she had just spoken with the hotel and the issue was resolved and both the meeting room and the room &amp; tax was to be paid by my company.  At checkout, the hotel held the position that no discussion had occurred and I was responsible for the ROOM charges, but not the MEETING ROOM charges... somehow the meeting room had been paid for since I checked in, but I had to pay the rm &amp; tx because "they...This was my 2nd and last stay - both were business related.  My disappointments were driven solely through the attitudes I received when conflicts and issues occurred.  I realize that, by design, Residence Inns aren't really business related, but the location works (worked - I won't go back) for our meetings, so we've been using it when in this area of LA.  Since I wasn't the traditional transient guest, I was therefore an annoyance.  My room &amp; tax was to be paid by my company, but they stated they had no record of it.  They had the contract booking my room as well as the meeting room on the 2nd floor, they confirmed it was reserved for me to use, but they had no form of payment of either room (???)  How is that possible? I was told they would contact my company rep and investigate.  I had a discussion with my company rep approx. 2 hours later and she informed me she had just spoken with the hotel and the issue was resolved and both the meeting room and the room &amp; tax was to be paid by my company.  At checkout, the hotel held the position that no discussion had occurred and I was responsible for the ROOM charges, but not the MEETING ROOM charges... somehow the meeting room had been paid for since I checked in, but I had to pay the rm &amp; tx because "they weren't sure".The 2 lobby computers were incapable of opening .doc, .xls or .pdf files.  At first, the response and attitude of the staff was, "oh well...."  After convincing the staff I had to have access to these softwares, I was allowed into the admin area to work on one of their computers.Finally, I was expecting a package, which I later found out was delivered Thursday afternoon, 6/15/17, the day before checkout.  Thursday evening I inquired about my package and was told nothing had arrived.  I received a call today asking me what to do with my package.  When Stephanie told me it was at my own expense and I explained to her the situation, she was clearly annoyed and simply wanted to get off the phone.  When I asked to speak with the manager, I was told Courtney was out, and she did not know when he would be available (???) and I could leave a voicemail.  I've decided I'd rather spend the $50 to re-order what's in the package than pay Marriott Residence Inn Placentia the $5-$10 to ship it to my house, and simply write-off this hotel for future use.If you're looking for a place to lay your head and take a swim, this place held well to Marriott standards, which is why I didn't give the worst rating available..  If you're looking for any professionalism above the high school level, look somewhere else.More</t>
   </si>
   <si>
+    <t>Mia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r485033990-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -415,6 +445,9 @@
   </si>
   <si>
     <t>Clean room, great breakfast, attentive staff, on site laundry room, fire pit and pool, stayed 2 nights with my daughter, quiet even though we were by the pool, HBO, in room kitchen and dinning table, will grocery shop for you. Need I say more.</t>
+  </si>
+  <si>
+    <t>Chris Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r480977956-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -451,6 +484,9 @@
 On a positive note, the service here was ok and the area around my suite was generally quiet all night although the smell from the garbage disposal in the kitchen was a downer when entering the place.  There were some families with kids using the pool and they have a firepit there that's...I chose this Hotel as it was the only Marriott property where I could use my free e-cert which is only good at Cat 1-5 Hotels and this one is a Category 4.  This is one of the main reasons why I'll be canceling Marriott credit cards as Cat 1-5 Hotels are becoming scarce making the free certs difficult to use but that is another issue.As I drove into this property I was already concerned about the area and the safety of my vehicle.  The sign saying management isn't responsible for vehicle theft was a clue that it happens often here.  It's in the middle of an industrial area with office complexes around and the freeway to the side.  At check in they also require you to sign a waver stating you won't have loud parties and you have to put down an extra deposit in case you decide to damage your room.  Another clue that this place has issues.  I was put in a suite next to the freeway and I requested a change to a quieter location which was accommodated so that was good.On a positive note, the service here was ok and the area around my suite was generally quiet all night although the smell from the garbage disposal in the kitchen was a downer when entering the place.  There were some families with kids using the pool and they have a firepit there that's lit up at night.One other problem was the flat screen TV display was broken and the picture was really dark with one light spot at the top.  I was nervous going out to my car in the morning but there was no break in and everything seemed fine.  The free breakfast buffet was good and very crowded with people probably getting ready to go to Disneyland.  I wouldn't choose this place again and would look for other options closer to Anaheim.More</t>
   </si>
   <si>
+    <t>wildswanDelaware</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r473430426-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -466,6 +502,9 @@
     <t>Spent a relaxed 3 nights here; near popular SoCal attractions, good food choices, and freeway access (but not noise). Rooms have complete kitchens, sofa-beds, and comfy kings (but small bath areas). Good for families w/kids; friendly service &amp; attentive staff oversight of breakfast line. Recommended.</t>
   </si>
   <si>
+    <t>Rosita C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r459228751-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -493,6 +532,9 @@
     <t>My honey and I decided to go to California for our anniversary. We spent a few days at Disneyland and one day in LA, this hotel was a perfect place for us. We stayed in the #4 building on the 1st floor, it was a wheelchair accessible so there was only a shower (no tub but not a big deal to us). The suite came with a full kitchen with dishwasher. It was about 30 minute drive from the hotel to disneyland and another to LA. The room itself was very spacious (queen bed suite) and was very clean. We were close to the interstate but we could not hear any noise, not even from the room above us. The staff were all very nice and very helpful with giving directions. The breakfast was hot and helped us get our days started. We stayed for 4 nights.They have free wi-fi or you could pay for the upgrade (I used the free wifi and had no problems checking fb).More</t>
   </si>
   <si>
+    <t>Alfred T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r450588062-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -520,6 +562,9 @@
     <t>Stayed during the last week of December 2016 for a conference. The staff was very warm and courteous. The location itself was average at best. Our suite (building 5) was right next to the freeway and if you are a light sleeper, you might want to ask for a suite far far away. The noise from the freeway was way too loud. Also, I wish the loft design was enclosed and not open which would allow for more privacy.More</t>
   </si>
   <si>
+    <t>funk014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r447569184-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -538,6 +583,9 @@
     <t>We stayed here for a Disney trip using marriot points. Was happy with the distance from Disneyland, maybe a 10-15 minute drive. Room was clean and large. Breakfast was great, had a good selection and all members of our party were happy.More</t>
   </si>
   <si>
+    <t>RyanP_KC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r434772760-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -568,6 +616,9 @@
     <t>Althought the Res Inn is basically behind The Bruery and you could throw a rock and hit the building, there is a fence between the two properties. It is scaleable, but after a lot of beer, one might use caution. If you walk around the fence, it is about a 15 minute walk. A category 4 (20,000 pts) hotel, this property checked the box for my specific need. It was in proximity of The Bruery (for safely walking back to hotel) and it had a bed. Clean spaces, fine area. More</t>
   </si>
   <si>
+    <t>nkgreig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r423612178-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -595,6 +646,9 @@
     <t>We stayed 2 nights(Disney Trip) and the room and staff was excellent. If just rating the room and staff I encountered I would give 4 stars. Only 6 miles from Disney which is a huge plus.  My issue was with the fact the staff knew there has been some break ins in the parking lot but yet never said a word to warn anyone. In my case, I’m not sure that would have helped as last thing I’d expect to get stolen was seats out of the vehicle.  There is a sign in the parking area saying something of the nature "not responsible for break ins and to lock/secure your valuables", that should have been my first sign of a possible problem.   Nothing like waking up to go pack ones truck and seeing the back window pried open then opening the hatch to find the seats missing. Manager was prompt in calling the police and was very sincere about the ordeal. He did say there were some break ins in the parking lot over the last couple months; however he claims (verified in next day email) this was the first he ever heard of seats being taken, so it was a first for all I guess. However, once the police arrived, the officer said it has happened numerous times in the So Cal Area as there is a HUGE black market for 3rd row seats in SO Cal Area.   A...We stayed 2 nights(Disney Trip) and the room and staff was excellent. If just rating the room and staff I encountered I would give 4 stars. Only 6 miles from Disney which is a huge plus.  My issue was with the fact the staff knew there has been some break ins in the parking lot but yet never said a word to warn anyone. In my case, I’m not sure that would have helped as last thing I’d expect to get stolen was seats out of the vehicle.  There is a sign in the parking area saying something of the nature "not responsible for break ins and to lock/secure your valuables", that should have been my first sign of a possible problem.   Nothing like waking up to go pack ones truck and seeing the back window pried open then opening the hatch to find the seats missing. Manager was prompt in calling the police and was very sincere about the ordeal. He did say there were some break ins in the parking lot over the last couple months; however he claims (verified in next day email) this was the first he ever heard of seats being taken, so it was a first for all I guess. However, once the police arrived, the officer said it has happened numerous times in the So Cal Area as there is a HUGE black market for 3rd row seats in SO Cal Area.   A quick Google search (after the fact for me) did reveal a HUGE ongoing problem in the area with thieves targeting large SUV’s and stealing the 3rd row seats.   When we asked the Police about the area, we got the impression it is not the best area to stay in as she cringed when asked how safe is this area. This was the first time I stayed at a property in Southern California that A: Didn’t charge for parking and/or had a secured lot, or B: Had a mandatory Valet, which was also secure. I did receive an email from the manger the next day stating I would get my points back that I used to stay there, so that was a nice gesture.  However, with the busted window/lock and seats I’m looking at close to 3 grand to repair if insurance doesn’t cover it. $500 if they do, either way I’m out way more than the room rate.  Like the aforementioned stated, the hotel and staff are great and would have stayed there again if this didn’t happen, however I suggest people spend the extra few bucks for a place with secured parking and you will be happy EVERYONE in your car has a seatbelt, better yet a seat to ride home in.More</t>
   </si>
   <si>
+    <t>G P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r422239686-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -619,6 +673,9 @@
     <t>Redeemed Marriott Points for two night stay - great value and no parking fee !Check-in and Check-out were both fast and friendly.  A listing of local recommended restaurants with brief directions was provided.   Room was modern and clean.  Nights were comfortable and quiet.More</t>
   </si>
   <si>
+    <t>Shanola</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r396940952-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -646,6 +703,9 @@
     <t>My son and I stayed her for 3 nights in July 2015. We booked using points. We booked a studio and  as a gold member they upgraded us to bi-level loft suite. The room had one bedroom downstairs, living room, kitchen and a upstairs loft bedroom. There was a bathroom upstairs and a bathroom downstairs. The room was clean and looked to be recently renovated. We found the staff to be friendly and super accommodating. We never made it to breakfast. We visited Disney each day and found this location to be quick and easy (aprx 10 -15mins) and we could use surface streets or the freeway. As a women alone with a teenage son, I felt very safe at this location. My only complaint is the outside stairs and no elevator!More</t>
   </si>
   <si>
+    <t>Syd_alansari</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r394345055-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -662,6 +722,9 @@
   </si>
   <si>
     <t>I loved the residence, it's so clean. We took the two bedroom residence with two bathrooms, a living room with a sofa bed and a small kitchen with a dish washer and a cooker. The staff there are so friendly. There's a swimming pool and a laundry room. It's suitable for big families and small ones. I totally recommend it.More</t>
+  </si>
+  <si>
+    <t>ramsidel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r384428534-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -693,6 +756,9 @@
 I did complained the following morning and was able to talked to a manager in charge and voice out my frustration. I showed him the video I took with the "ticking" noise. He is very courteous and immediately apologizes for what happened....They messed up our reservation again! (I think this company has a habit of doing this). We call them directly to book our reservation because of the problem we had at Costa Mesa Residence Inn the week before hoping this will eliminate that but NO! The excuse that we get from Costa Mesa is they have a problem with their website. So we call and spoke with a REAL PERSON! But still they messed it up! We even call before we left San Francisco to make sure because we will be coming late. Driving 6 1/2 hours from San Francisco to Fullerton arriving almost midnight and everyone is tired and when you get there they gave us the wrong room! We had to make use of what we can in the room they gave us. And there's more. We are about to sleep and there is this "ticking" sound coming from one of the overhead lamp attached to the headboard...imagine this you are so tired and you were given a wrong room...and now you are ready to get the little rest you can get...and there is this "ticking" sound on the background the whole night!!!...you gonna get crazy!I did complained the following morning and was able to talked to a manager in charge and voice out my frustration. I showed him the video I took with the "ticking" noise. He is very courteous and immediately apologizes for what happened. He did gave me a bonus points on my reward account to make up for the inconvenience and I do appreciate his gesture.I'm writing this so people will be aware of how you will deal with them if you decide to book with them.More</t>
   </si>
   <si>
+    <t>wrldtrvlr8374</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r373937100-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>I've always appreciated the extra space you get when staying at a Residence Inn. Check in was a breeze despite it being very late.Having a kitchen is a big plus, especially the full-size refrigerator and microwave. The toilet/shower room is a bit tight, but the extra vanity space and closets were good. The sofa bed was decent in the studio room. The pool was a bit too chilly for us to use though and there was no hot tub either. Breakfasts were great with nice options, although there was a wider variety on Monday versus the weekend.No restaurants within walking distance but lots of options nearby within a 5-10 minute drive.Overall, a comfortable space to lay our heads down and close enough to Disneyland as well.More</t>
   </si>
   <si>
+    <t>artj377</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r373854317-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -735,6 +804,9 @@
     <t>Located near railyards but with a large business and a Quality Inn standing between us and the trains, which we never heard.   If you have stayed in a RI you know that breakfast is included.  Ours were great, eggs, waffles, fried potatos, choice of 4 cereals fruit, OJ muffins etc and the food never ran low.   On only two nights did we hear neighbors moving in upstairs.   the staff was helpful and courteous.  only used the pool once as we were always out late returning from San Diego, Hollywood, Long Beach or disneyland, and the pool was clean and in the high 70s as its heated.   RIs have full kitchens, fridge, stove, mw, sink, dishwasher and a large assortment of dishes and pots and utensils.More</t>
   </si>
   <si>
+    <t>Ca Mama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r370717041-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -762,6 +834,9 @@
     <t>Pleasant grounds...nice landscaping by pool and small tennis courts. Very friendly, attentive, personable clerks at front desk (Yuri I remember)..and friendly, outgoing Maria and Mona (?name) setting out each day/night the food. A "just-like-home" layout of 2 story-condos.We stayed in "block" room 423..everything in working order..all utensils/wine glasses/plates/stove/fridge/plates etc needed..and of course a coffeemaker and a nice touch-one bag of microwave p-corn.Mattress was a tad too soft for hubby and I..but comfy.Smallish bathroom  with separate vanity.Free parking..and the best amenities were the full breakfast each a.m. (waffles/eng muffin/eggs/sausage/fruits/yogurt  etc) and the great "mixer" 6p-730pm Mon-Wed. with complimentary beer, wine, and appetizers.My only 2 "cons": location is definetly industrial,so no walking to restaurants..etc...and no hot-tub.Fitness room is very small..just 2 treadmills and 1 elliptical.We found a very authentic, affordable Mexican restaurant recommended by staff..less than a mile away..called El Farolito in Placentia. Delicious food..locals eat here..great prices...great ambiance.Pool says its heated...I beg to differ; even with 200pm sun shining on it..it was chilly.Good internet connection in the room.More</t>
   </si>
   <si>
+    <t>Raymond S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r361070261-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -786,6 +861,9 @@
     <t>We stayed at many residence inns, and this is different from other residence inn we visited. The hotel layout is really casual, with several units in each building. Inside each unit is like typical residence inn, except it has some features like light sensors or electronic temp control. It has a good swimming pool and a nice tennis court, but we used neither of these. In the 5 days of our stay, we visited Disneyland, as well as "little taipei" in Rowland Heights. They are both in close distance.PRO:1. Clean room, good kitchen.2. Very friendly clerks.3. great breakfast included4. great location to Disney, about 15 minutes drive5. Good wi-fiCONS1. not sound proof, we can hear kids running upstairs2. utensils are not clean - we have to wash them overMore</t>
   </si>
   <si>
+    <t>MJS2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r358798264-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -813,6 +891,9 @@
     <t>The staff at the hotel were very friendly and helpful.  Disneyland is short drive and it was nice to have a full kitchen to cook in.  There is also a beer brewery within walking distance.  My husband really enjoyed that after a long day at Disney.  The rooms were nice and the pool area was wonderful.  The only thing missing was a hot tub.More</t>
   </si>
   <si>
+    <t>cubsrays90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r350865372-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -835,6 +916,9 @@
   </si>
   <si>
     <t>Stayed here with my family while visiting the Anaheim area. We did an Angels game, Disney Land, and other sight seeing. This hotel was amazing. We had the 2 bedroom, one room with 2 beds and a full bath, full kitchen and living area with TV. Then lofted upstairs was the master bedroom with 1 bed,TV and full bath. Totally loved the set up. Free breakfast every morning in the lobby was delicious. They had 2 waffle makers with toppings (chocolate chips, strawberries,whipped cream) and then different hot items depending on the day ( eggs, sausage, bacon, hash browns) coffee and juice. It was very good, well taken care of. I was very impressed with the breakfast staff. Pool was small but never crowded. Basketball hoop next to it. Small fitness area. The area around there looks a little sketchy but had no problems. More</t>
+  </si>
+  <si>
+    <t>John T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r348150456-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -861,6 +945,9 @@
   <si>
     <t>Arrived at the property and everything was ok, checked in and was told the property was completely sold out and I was like "whoa, this place is jammin!" But upon driving around the property to our building it was apparent there was major renovation going on, something that wasn't disclosed on Marriotts website, in confirmations, or verbally when we checked in, and 75% of the parking was taken by construction. Ok our second day we were woken by hammering and a electric saw outside our door. Called the front desk around 7:45 and asked why the construction started early (sign in lobby says 9am-6pm) and was told those signs are wrong that construction is 6am-9pm. Who schedules construction for those hours? Went back and tried to go back to sleep, and it must have happened because shortly before 11 a maid fully entered our room, as I sat up in bed and she walked out (check out was at 1 and the "do not disturb" was on our door). Then while we were packing, another maid tried to enter our room at 12:15 and asked "why are you still here? Do you have late check out" we replied "yes" and she asked "what time?" This is something all staff should know, other hotels have this printed out on their room matrix. What an ordeal!
 As we went to check out we decided to tell the front desk agent about our...Arrived at the property and everything was ok, checked in and was told the property was completely sold out and I was like "whoa, this place is jammin!" But upon driving around the property to our building it was apparent there was major renovation going on, something that wasn't disclosed on Marriotts website, in confirmations, or verbally when we checked in, and 75% of the parking was taken by construction. Ok our second day we were woken by hammering and a electric saw outside our door. Called the front desk around 7:45 and asked why the construction started early (sign in lobby says 9am-6pm) and was told those signs are wrong that construction is 6am-9pm. Who schedules construction for those hours? Went back and tried to go back to sleep, and it must have happened because shortly before 11 a maid fully entered our room, as I sat up in bed and she walked out (check out was at 1 and the "do not disturb" was on our door). Then while we were packing, another maid tried to enter our room at 12:15 and asked "why are you still here? Do you have late check out" we replied "yes" and she asked "what time?" This is something all staff should know, other hotels have this printed out on their room matrix. What an ordeal!As we went to check out we decided to tell the front desk agent about our stay and that such major renovation really should be disclosed on the website. She literally stood there with her mouth open and offered nothing in response but "you booked on Marriott.com?" And "didn't you see the sign?" She either seemed genuinely shocked or unable to deal/grasp difficult situations. What made matters worse is there was a manager on duty, one who the front desk staff didn't think necessary to get, and there were two employees standing behind her, one the maid who entered our room, and another the nice lady in charge of the breakfast (also nothing to write home about) I've emailed the company and the property but haven't received anything backMore</t>
+  </si>
+  <si>
+    <t>V Michael R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r339295184-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -898,6 +985,9 @@
 On the majority of our visits to Marriott Hotels, we will receive a private email asking us to rate our visit. Our intent was to respond privately with the manager, but after not receiving any solicitations for...We're Marriott members, so we try to stay at the most reasonable price Residence Inn/Fairfield Inn when in our vacation area. We stayed over the New Years eve week, We were a little disappointed on this visit. We were not aware this a pet friendly facility and upon entry to our room, it smelled like urine with an overdose of cleaning chemicals. We immediately contacted the front desk and they gave us the key to an adjacent room. We moved to the new room immediately. Luckily this room did not have an offensive odor. Upon settling into our new room, we set up the pull out for our children and laid out the  blanket that were in the closet and found the sheet and blanket with human hair. We immediately contacted the front desk to notify them and they brought us out a fresh set of linens and blankets. In the morning, we found the iron cord retracting, but we were tired of complaining and my wife put a rubber band in place to hold the cord. Our room was cleaned adequately during our three day stay. We applaud the front desk personal and dining room attendants who were very nice and helpful. On the majority of our visits to Marriott Hotels, we will receive a private email asking us to rate our visit. Our intent was to respond privately with the manager, but after not receiving any solicitations for evaluation our email box, we decided to note our displeasure on this website. M. RodriguezMore</t>
   </si>
   <si>
+    <t>TomassoJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r325051919-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -927,6 +1017,9 @@
 Breakfast - this was served from 0600-0900 Monday to Friday and 0700-1000 at the weekends. The ladies who organised the area were very nice and were so friendly to everyone, always asking how you were :) they also kept everything very well stocked up. There were always 4 hot options ranging from sausage patties to potatoes, they also had 2 waffle makers, bagels, yogurts, fresh fruit, cereals, toast etc - was a good way to start the day....My parents chose this hotel as it had a separate living area in the loft for me, and although it was away from Harbour Blvd and Disney, I'm glad they did.We arrived and checked in to our apartment (#1422), the parking was available near the room so it was easy to get everything out of the car.The room - this was so spacious, they had everything you could think of - living area with sofa and chair, eating area with table and chairs, kitchen with full size fridge freezer, dishwasher, cooker, microwave, coffee maker and pots and pans (they even supplied microwave popcorn!). There was then a room downstairs and my room on the mezzanine floor (both with en-suite bathrooms).Meet and Greet Mingle - This happened in the breakfast area on Monday-Wednesday and was nibbles and drinks. It was nice as the day we arrived (Monday) it was my dad's birthday, so he could have a couple of drinks.Breakfast - this was served from 0600-0900 Monday to Friday and 0700-1000 at the weekends. The ladies who organised the area were very nice and were so friendly to everyone, always asking how you were :) they also kept everything very well stocked up. There were always 4 hot options ranging from sausage patties to potatoes, they also had 2 waffle makers, bagels, yogurts, fresh fruit, cereals, toast etc - was a good way to start the day.The Pool - this was being renovated when we arrived and was meant to be closed until 2 November, however they'd come to a deal with the Quality Inn next door so the guests could use their pool. We didn't but then a few days later, the pool reopened. It was nice to sit by the pool and also have a dip when it was 88℉ outside. The Laundry - this had 2 washers and 3 dryers - the washers cost $1.75 in quarters and the dryers cost $1 in quarters, you can also get soap from the reception desk for a couple of $s.The Area - the hotel was in an industrial area, but you were within a few minutes of other things. There was an Albertsons Grocery Store about 10 minutes drive up Placentia Blvd on Yorba which was good for getting groceries for the fridge. There are plenty of Mexican Restaurants around the area too if you like that kind of thing.All in all, I thoroughly recommend this hotel to everyone, it was great staying here, but you would need a car to get around.Thank you for a lovely time.More</t>
   </si>
   <si>
+    <t>Hawk345</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r316839299-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -954,6 +1047,9 @@
     <t>Very handy for 'The Bruery'Nice hotel, basic, clean, spacious.Friendly and helpful staff tooGood in room amenitiesGood access to/from I5Easy parking, and free.Free wifi too.Nice laundry as it is set up for longer staysMore</t>
   </si>
   <si>
+    <t>Sharmhaynes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r316351800-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -975,6 +1071,9 @@
     <t>This is a great location for Orange County attractions, Disneyland and Knotts Berry Farm.The facility is clean, friendly and convenient for both John Wayne and Ontario airports.In room kitchen, laundry facility on site and plenty of parking.More</t>
   </si>
   <si>
+    <t>TrudyTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r312885668-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -999,6 +1098,9 @@
     <t>We were looking for a two bedroom option to stay at while in Disneyland.  Having older teens, we've found that we all travel better with space.  This was the best option I could find without buying two rooms.  Our room had a good size bedroom/bathroom, living room and kitchen area.  Then upstairs was a loft with a queen bed and another bathroom.  The beds were firm but not uncomfortable and the room was clean. This worked great for us. The furnishings were nice as was the pool area. One drawback was that we had to carry our luggage upstairs so that may not work for everyone. I saw multiple barbecues available to travelers.  We also appreciated the free wifi (which worked well) and free parking which you don't find as often closer to Disneyland.  The free breakfast included oatmeal, scrambled eggs, sausage, usually some type of potatoes, make your own waffles, toast, cereal, fruit and pastries.  We found there was something for everyone.  We were about 5 miles from Disneyland which was a 15 minute drive each way. This is a nice property although it is in more of an industrial type area so there weren't stores and restaurants close.More</t>
   </si>
   <si>
+    <t>MalpaniM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r304536389-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1023,6 +1125,9 @@
     <t>Consistent experience at the Residence Inn hotels. I am a big fan of Residence Inn brand and have been staying at different properties. This was my 1st stay at this hotel. The rooms are very nice and spacious. Complimentary breakfast was good. If they can add some more vegetarian options in the breakfast that can be very good. One more thing i found that the timing for Residence Mix here is only for 30 minutes while for other properties i have been staying is 2 hours.More</t>
   </si>
   <si>
+    <t>Kevin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r300916859-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1041,6 +1146,9 @@
     <t>This hotel was a great surprise. The 2 bedroom was very modern and we had plenty of space. The complimentary breakfast every morning was also very good, a good variety of food and well kept. The staff was very nice. Took advantage of the pool and basketball hoop every nightMore</t>
   </si>
   <si>
+    <t>travelingkirst33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r295514630-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1065,6 +1173,9 @@
     <t>The rooms are very nice and spacious with almost a loft feel. The kitchen was just the perfect size with a stove, dishwasher, microwave and refrigerator. The beds were super comfortable. Every morning we went down to the lobby for the complimentary breakfast and met our expectations with a variety of food and a waffle maker! The two ladies who made the breakfast every morning were friendly and talked to us. The pool is a tad small but wasn't crowded in the mornings or evenings. More</t>
   </si>
   <si>
+    <t>Fun2day13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r272030375-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1092,6 +1203,9 @@
     <t>The bathroom is needing a good cleaning. The rest of the room is good and the bed was comfortable. The sofa bed was not....that was bad news. The gym has old machines and no Lysol wipes, even when asked to get some. The staff is very friendly and very accommodating overall. The breakfast is free and coffee is good.More</t>
   </si>
   <si>
+    <t>Sue507231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r269992168-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1113,6 +1227,9 @@
     <t>A very unpleasant stay.  We were scheduled to stay two nights and checked out after one. Did not get much sleep here as we were awake from 1-3 PM with the very large party that woke us up.  It was really throughout the complex from what we could hear, large groups up and down the stairs and shouting voices.  When checking out we were told that they had a form signed where the guests agreed not to behave that way, guess that should have been a clue that there was a problem?  Otherwise the room was in pretty sad condition, and you could see light through the door jam. Breakfast was tasteless and below average for our experience at other extended stay hotels we have stayed at this year.More</t>
   </si>
   <si>
+    <t>E M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r267595990-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1129,6 +1246,9 @@
   </si>
   <si>
     <t>Overall great. The location wasn't bad... we were a Disneyland crowd and it might have been nice to be in walking distance, but we didn't just do Disney so the location was great for overall. We had a penthouse suite and it was huge and awesome. Well kept. The only "complaint" I have is that the breakfast area was really small and crowded, especially on Saturday with the Disney crowd.More</t>
+  </si>
+  <si>
+    <t>Jennifer C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r261749123-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -1154,6 +1274,9 @@
 Overall, we were very impressed with the room and the entire...We stayed here the entire week of March 16th, 2015 for a trip from North Carolina to Disneyland/CA sightseeing. Staying in a hotel for the entire week with my husband and a very energetic 5 year-old, I was slightly concerned that we would feel cramped and irritable by the end of the week, but I must say that the staff and housekeeping team really made the difference in making our stay a very welcoming one. Housekeeping came by DAILY and made our beds and left us lots of extra clean towels. You must understand the feeling of bliss when you come home from a long day at Disney and find that you can just jump on your neatly-made made bed and relax, and then have clean towels to shower with. What I especially liked was that they even fixed the sofa bed daily for us, and had it all set up with extra blankets/pillows, fitted sheets on, and even arranged my son's stuffed animals around the bed just like at home (although the King size bed was large enough for the three of us to sleep in without feeling cramped or fighting for covers). We never once felt cramped. The kitchen actually has full-sized appliances and cabinets are stocked with supplies. The TV swivels, so you can watch it from any angle, and it comes packed with ESPN channels. Overall, we were very impressed with the room and the entire hotel atmosphere; it is very family friendly and offers many perks. There is a sparkling clean pool; no hot tub but they do have an excellent lounge area by the pool with plenty of chairs and a couch/fire-pit; I did see guests using the grill area as well. The breakfast is definitely worth a mention. By far the BEST hotel breakfast I've had in all my travels. It even beat the overpriced Goofy's Kitchen breakfast from Disney dining. They go above and beyond in your selections, offering not just the standard scrambled eggs/toast, but also large breakfast sandwiches and red-skinned potatoes with grilled vegetables. In addition they had 4 varieties of cereal, fresh Quaker oatmeal with toppings, Activia yogurts, fresh fruit, delicious sausage patties, and two really good waffle-makers. The breakfast part is important for me because my husband is a diabetic so it was great to find that he was able to still have a healthy and hearty breakfast there as well. The dining area is large and welcoming and many families filled it up in the morning without it feeling cramped, in addition the food kept getting refilled constantly even into the late breakfast hours. I also heard them offer free dinners in the evening although we never stayed there for dinner, we did see a lot of guests with dinner plates out by the pool so I'm thinking it was also just as delicious. We also liked that they do complimentary grocery shopping for you and they have a basketball and a tennis court. I would definitely recommend this as a good hotel to stay in for a trip to Disney, as the drive there was really just under 15 minutes, with little to no traffic through either the highway or city drive. I looked through MANY hotels when booking the trip, and once we got closer to the Disney area, I really felt confident that I made the right choice, as the ones closer to Disney looked older and did not seem worth the money. It's also a straight shot drive from the hotel to food, just under 5 minutes to gas station, Jack in the Box, In-n-Out, and general shopping areas. Many other good restaurant tips from TripAdvisor were also in that general area as well,all within less than a 15 min drive.More</t>
   </si>
   <si>
+    <t>EMK55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r254314460-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1175,6 +1298,9 @@
     <t>We stayed at this hotel on a trip to Disneyland.  The studio was spacious and it was nice to have a refrigerator available for cold drinks.  The bed was comfortable and the room was clean.  A couple of weird quirks; the under cabinet lights in the kitchen were motion activated so if you got out of bed at night the lights in the kitchen would come on.  Also, the bathroom was so small you have to stand to the side of the toilet in order to close the door.  The continental breakfast was good each morning and it was nice to have a variety of food and not the same thing every day.  The hotel is about a 5-10 minute drive to Disneyland and is in a business park area near Hwy 91 and 57.More</t>
   </si>
   <si>
+    <t>FourE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r247975472-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1193,6 +1319,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>bryandouglas26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r238570009-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1217,6 +1346,9 @@
     <t>Everything was great from Sujei checking me into a clean nice room all the way too check out. I was here for 3 days and breakfast was very delicious and had a great variety. Thank you residence Inn. I will return when im back in the area. More</t>
   </si>
   <si>
+    <t>Seagoat64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r238407853-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1238,6 +1370,9 @@
     <t>Bugs in sheets.Watched maid drop towels and take upstairs to room. Dirt blood on toilet mold white fluid on sofaHorrible Management and staff and it took an hour to get checked in. Its in the middle of an office area and not remote from anywhere.free parking and rooms are spacious! It has kitchenetteMore</t>
   </si>
   <si>
+    <t>Lacey A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r236812017-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1256,6 +1391,9 @@
     <t>This Residence Inn is one of the best we have stayed in.  We getting ready to stay for our 5th time next month, and every time we stay the service is always amazing!  The staff are all very attentive wither its checking in, requesting items to the amazing women whom do the breakfast they make you feel like your at home.  Our son is 10 months this last stay and its very nice that when we arrive our son's bed was set up, like they always have the past visits, and they even took it a step further and placed safety guards in all the outlets my son could reach!  Disneyland is very close only 10 min drive, with quick and easy assess to the freeways.  Which makes it easy to come back and forth to recharge.  This is where we will continue to stay, and have even got our friends and family to change from where they stay to start staying here.More</t>
   </si>
   <si>
+    <t>Braeingle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r222293920-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1274,6 +1412,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Nurhan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r207638779-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1301,6 +1442,9 @@
     <t>We stayed here to attend a family function and for such extended stays both the location and the price is quite good. the rooms are quite spacious, quiet and the breakfast they serve in the mornings adequate and tasyMore</t>
   </si>
   <si>
+    <t>Mike D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r206412314-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1319,6 +1463,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Boeing767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r202907451-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1343,6 +1490,9 @@
     <t>We booked this hotel last minute. We were allowed to check in early, which was greatly appreciated. The young lady at the desk was spectacular, as was "Cameron", when we called to inquire about the noise upstairs (it did sound like they were bowling). The room, while not the cleanest I've ever seen, was adequate. The bed was clean and comfortable. Now, with all that in mind, this would seem like an ideal location; but Placentia is mostly industrial, and there is a graffitied car dealership kitty-corner to the hotel. We were only here a night, and there is nothing that the hotel can do to improve the city - so in all, they actually deserve 4 circles. But, since this is a big picture review, Placentia just needs to be spruced up a bit.More</t>
   </si>
   <si>
+    <t>DocHOneAndTwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r201400894-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1367,6 +1517,9 @@
     <t>We were in town for a family funeral.  This was a great place to 'escape' from the insanity.  Room was quiet and it was so nice to have a kitchen and living room area.  Staff were so nice.  Cameron and Zackary at the front desk were helpful and kind.  Ramona and the other hospitality staff (breakfast area) were efficient and friendly.  We felt very well taken care of.  Close to the 57 and 91 but no traffic noise.More</t>
   </si>
   <si>
+    <t>06GoMango</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r199700674-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1385,6 +1538,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>NLtrout</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r189265000-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1403,6 +1559,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Gracie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r180993972-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1424,6 +1583,9 @@
     <t>The room suited our needs perfectly.  The full kitchen and extra space was perfect.  It was our first weekend away from home with our 4 month old twins.  There was ample space for 2 pack and plays for the babies to sleep in.  The room didn't feel crowded at all.  We had a king sized bed and lots of cushy, comfy pillows!!The only slight con was that our room was facing the 57.  The freeway noise didn't really bother us but we would have preferred not to be so close to it.All in all, we would definitely stay there again.  The room was clean.  The staff was very friendly.  The complimentary breakfast was average and convenient.More</t>
   </si>
   <si>
+    <t>pitstop53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r180533994-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1439,6 +1601,9 @@
     <t>This hotel is located close to many businesses in the center of the southern LA basin. This hotel is well maintained and clean. The breakfast is a cut above with a few healthy choices, and the evening reception is too, although they only serve it Monday, Tuesday, and Wednesday evenings. The room I reserved was the room I received. Be sure NOT to leave anything in your car at night. Several cars were broken into.</t>
   </si>
   <si>
+    <t>DisneyBeachLasVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r174685486-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1457,6 +1622,9 @@
     <t>My family and I stayed here for a week at the end of July and it was a fantastic stay.  Check in was smooth, rooms are very clean and comfortable.  Daily hot breakfast buffet was great with plenty of options.  Mondays - Wednesdays they have the evening manager's reception.  It's almost enough to fill everyone up for dinner.  They serve up all the beer &amp; wine you want too.  The pool area was nice and you can even grill out for dinner if you want.  It's pretty close to everything in the area.  Disneyland took less than 15 minutes to get to, Newport Beach less than 25.  The staff was so friendly.  The front desk staff were always smiling, answered all my questions, and were very knowledgeable of not only the hotel, but the area as well.  The staff working the breakfast &amp; evening manager's receptions were the most friendly and helpful I've ever experienced.  They work very hard and so I made sure I always told them "Good Morning" and "Thank you" each and every day.  They deserve the recognition!!  Overall, a great choice when staying in the So Cal area.More</t>
   </si>
   <si>
+    <t>Derek F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r172966177-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1475,6 +1643,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Robin B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r168788325-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1499,6 +1670,9 @@
     <t>This hotel has been recently renovated.  The rooms are nice and clean with a full kitchen.  There is a pool, grill, basketball court, and fire pit.  A full breakfast is served every morning.  There are also snacks served Monday-Wednesday evenings.  It is right off the CA-57 and convenient to Disneyland.More</t>
   </si>
   <si>
+    <t>Super8cedarcity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r160409644-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1520,6 +1694,9 @@
     <t>I and my co-worker stayed at this hotel on business trip to California. We both had to stay in one room so at first, we were not happy about it but then we learned that the room have sofa with bed that comes out. Well, we can then sleep in one room since we both are guys. The room was clean and have kitchen with everything you need on a small vacation. The carpet was clean enough for me to walk around my bare feet. They have food for breakfast and dinner time. Some days they will put our some beer and vine. Not that I drink but if I was, I’ll be enjoying a free beers! The front desk counter crew was friendly and helpful. Like the business center. Easy to use and print reports. The breakfast area was clean and have big screen TV. This is a hotel to use more than one time if need to be…More</t>
   </si>
   <si>
+    <t>ABritEnglandUK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r159927462-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1538,6 +1715,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>cawa76025</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r158756595-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1556,6 +1736,9 @@
     <t>I recentley stayed at this hotel for 3 days. My family and I have stayed at this probably more than 7 times. Ramona who is one of the ladys that works in the kitchen in the morning for breakfast and afternoon for the social hour is always really friendley. she always remembers me and my family. i always see her talking to other guest and laughing. The breakfast is very delicious and has great items to choose from like waffles, cereal, scramble eggs, sausage, burruito, canadian bacon, bacon, croisant, different types of breads. as for the light social hour i saw they had taco night, spaggetti night and slidder night with beer and wine and ofcourse soda and water. The room was cleaned i love that it had a king bed, sofa bed, and full kitchen. The sofa bed was not comfortable at all it loooked really old and used so we ended up sharing our bed with our 9 year old daughter it wasn't what we were planning but we couldn't let our daughter sleep on that. What i ddin't like is that there was only 1 bottle of shampoo and conditioner and 1 toilet paper. i don't really like calling housekeeping to bring stuff to our room. in this case having to go to front desk to get some items. my husband loves to take showers in the middle of the night so this was a problem. my...I recentley stayed at this hotel for 3 days. My family and I have stayed at this probably more than 7 times. Ramona who is one of the ladys that works in the kitchen in the morning for breakfast and afternoon for the social hour is always really friendley. she always remembers me and my family. i always see her talking to other guest and laughing. The breakfast is very delicious and has great items to choose from like waffles, cereal, scramble eggs, sausage, burruito, canadian bacon, bacon, croisant, different types of breads. as for the light social hour i saw they had taco night, spaggetti night and slidder night with beer and wine and ofcourse soda and water. The room was cleaned i love that it had a king bed, sofa bed, and full kitchen. The sofa bed was not comfortable at all it loooked really old and used so we ended up sharing our bed with our 9 year old daughter it wasn't what we were planning but we couldn't let our daughter sleep on that. What i ddin't like is that there was only 1 bottle of shampoo and conditioner and 1 toilet paper. i don't really like calling housekeeping to bring stuff to our room. in this case having to go to front desk to get some items. my husband loves to take showers in the middle of the night so this was a problem. my daughter has really long hair she actually used almost the whole bottle of shampoo and conditioner. Yes you can say i can bring my own stuff but who wnats to travel with that and have the problem of the shampoo leaking in your luggage. The furniture did have alot of scratches on it. Either they need to paint them, replace them or do some touch up. i'm not the kind of person that stays in the villa so that didnt really bother me i'm just putting it out there so if they read this they can fix it because you never know if there would be an actual person that does get bother by it. Another thing we didn't like is the pool isn't heated at all and there isn't any jaccuzzi they ended up putting fire pits. I wouldn't care if the jacuzzi wasn't there except since the pool isn't heated we couldn't even enjoy the pool at all that was a big dissapointed. We love to stay here since its only 10 minutes away from disneyland. This is the first time we encounter this problems. our styas here are usually great. Bottom line i think we would stay here again and check the bathroom amenitys and beds before we unpack and maybe talk to the front desk about heating the pools. The front desk was really friendley too.More</t>
   </si>
   <si>
+    <t>travelingal060</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r154513538-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1571,6 +1754,9 @@
     <t>We were in town for a funeral.  My husband and I, and two of my sons and their wives and my teenage son were in our group.  We were able to stay in one of their loft suites that included 3 queen beds and a sofa bed.  It had a full kitchen and a separate bedroom in the loft with it's own bathroom.  We were all able to stay comfortably in one room. It was more like a small condo than a hotel room.  The breakfast had a pretty good variety too.</t>
   </si>
   <si>
+    <t>jagsUk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r153863721-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1589,6 +1775,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Lynda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r153456305-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1604,6 +1793,9 @@
     <t>So, we've stayed at this hotel before and knew what to expect.  It's quite nice and recently refurbed.  The bed was comfortable and the appliances all worked.  It is close to LA which is nice ( a 50 minute drive with traffic).My only complaint?  The area where they serve the social hour and breakfast is WAY too small.  Maybe 7 tables and a bar area that seats 8.  For a hotel about 20 minutes from Disneyland and for the number of rooms, this is just too small.  No matter what time you arrive, you're waiting for a table.  Also, no local paper on the weekend?  Wrong!</t>
   </si>
   <si>
+    <t>brentn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r143403744-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1622,6 +1814,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>littleones28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r143065207-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1635,6 +1830,9 @@
   </si>
   <si>
     <t>Pros:  Standard layout of Residence Inn.  Rooms are very clean.  Easy parking.  Located near fast food restaurants.  Area is quiet even though it is near a busy street and close to the freeway exit.  Great breakfast with good toppings (strawberries, chocolate) for mini waffles that the kids will enjoy making.Cons:  Oj and apple juice was water down.  The pool wasn't heated.</t>
+  </si>
+  <si>
+    <t>LovinHotelLife</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r141885303-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -1659,6 +1857,9 @@
 There are no upgrades because every 'apartment' is pretty much the same. You'll find a very spacious and clean place with a living room area complete with sofa and desk ... a pretty nice kitchen ... and a bedroom/bathroom. The decor is sort of a modern/Ikea sort of decor. The walls are red and the counter is made of granite and the furniture is the cheap looking/feeling 'rent a center' furniture you'd expect a young married couple to start out with. Still, comfortable....I had some business in the Fullerton area ... which dissapointed me because I normally stay in LA/Hollywood where there is more excitement. However, I didn't want to contend with the horrible traffic that makes a 45 minute morning commute into more of a 2 hour plus deal. So, I decided to boost my Marriott points and stay in Fullerton at the Residence Inn. The idea of this type of chain fascinates me ... everything about it seems like an apartment complex I would have lived in when I was in college. Yet, it is strangely comfortable.Although I was just there for one night, I realize that these types of hotels are more designed for the traveler who are on an extended business trip and want apartment/homey type of living vs. hotel living for a week or even a month. If you've ever lived in a cheap apartment, that is the vibe you will get here.There are no upgrades because every 'apartment' is pretty much the same. You'll find a very spacious and clean place with a living room area complete with sofa and desk ... a pretty nice kitchen ... and a bedroom/bathroom. The decor is sort of a modern/Ikea sort of decor. The walls are red and the counter is made of granite and the furniture is the cheap looking/feeling 'rent a center' furniture you'd expect a young married couple to start out with. Still, comfortable.The exterior corridors are nicely kept and landscaped. Maybe not as comfortable feeling as a hotel because each apartment has a sliding door that leads to heavily wooded/leafy walkways. I think if I was a solo female traveler, I would feel safer in a hotel room than a separate apartment unit with a sliding patio door. However, these are good for business travelers and families who may be visiting Disneyland. (which is a little further than I'd expected it to be from this place given the distance listed on the Marriott site.)There is a nice pool area with chairs. A basketball court. And a nice breakfast lobby area. The breakfast area was expectedly insanely crowded with children and couples. The variety was pretty good and although some things ran out, the staff did a good job at trying to keep the options stocked through the madness. The scrambled eggs were a bit watery for me ... but I liked the bacon, which was obviously the microwavable kind. There was also oatmeal, yogurt, bagels and lots of other options. As well as a waffle maker with the option to make mini-waffle bites for the kids.I didn't spend more than a night here but I can see where it could feel like a bit of a homey oasis while on business vs. a hotel room. The price is great ... although with not much at all in the area in terms of restaurants, etc. (most are 10 minutes away) I can see why the hotel is inexpensive. Disneyland isn't right down the street ... I had expected it to be nearby. After a long day at the park, the 10 to 15 minute ride feels like it takes much longer and it is just far enough where you won't want to get in the car and go back to the hotel for a little pool or relax time to break up a full day at the park vs. a hotel that is right next to Disneyland.However, the Marriott rewards category on this hotel is Category 4, so if you are using your points or free night vouchers from the promotions ... you will have to stay here vs. spending a lot more points on a hotel right next to Disneyland. I would say that staying next to Disneyland would be worth the extra $20 - $30 you'd pay to stay at a Marriott hotel or non-chain hotel right at the park entrance vs. having to get in your car and drive back and forth to this Residence Inn.Everything was great here and I'd be back if I was in Fullerton on business again. The cleanliness and homey feel was great and I will also say that the staff was great here. Free parking is always nice too.More</t>
   </si>
   <si>
+    <t>trip14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r140236584-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1677,6 +1878,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>craftywriter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r139115779-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1698,6 +1902,9 @@
     <t>I stayed at the hotel for several weeks (Mon-Fri) over the course of 1 month. The staff was super-friendly and helpful. I stayed in the studio room which was perfect for me. Full kitchen, desk/table for working or eating. Air conditioning worked great in the room (very thankful for that during my stay in Aug).There's a pool and a basketball court. Breakfast was hot each morning - eggs, potatoes, oatmeal, yogurt, waffles, fruit, juice, muffins, etc. Changed daily. Mon, Tues, and Wed nights from 5:30 - 7:00pm there's a happy hour with beer, wine, punch, fruit, and a rotating selection of things like hamburgers, pasta, hot wings, salsbury steak, etc.Location is convenient to the 57 and 91 freeways. Nearest store and Target is 4-5 blocks down the road (not far at all).More</t>
   </si>
   <si>
+    <t>Brock_79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r136317754-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1719,6 +1926,9 @@
     <t>I was in the process of moving to CA fromt the midwest and ended up having to stay in the hotel for over 10 days.  Breakfast was decent and rotated so that it wasn't too repetitve.  Rooms were comfortable and clean - having the full kitchen was great so I could prepare some of my dinners/lunches.  The only thing that bothered me about the room is that it was overly red.  Red is such a strong color to have on the wall and it was rather overpowering/dark.  There was a Juliette balcony off my room but I couldn't keep it open b/c there wasn't a screen and i was afraid that my cat would get out.  (Wonderful that the hotel accepts pets for a 1 time fee of $100).There was also a group of teenangers staying in the hotel and they would get very loud.  I finally complained one night b/c it was after 11 and I had to work the next day.  Security quickly came and broke up the 'party' and there didn't seem to be any noise problems after that.  Overall the hotel was great.More</t>
   </si>
   <si>
+    <t>stef9371</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r132989433-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1732,6 +1942,9 @@
   </si>
   <si>
     <t>Not sure how helpful this review will be as we checked in at 11.30 pm and left by 8.00am the next morning.  The location was not what we were expecting but since we weren't staying long that didn't matter much to us.  The bed was comfy.  We fell asleep immediately. We didn't have the free breakfast.  The room was clean and for us, that's important.</t>
+  </si>
+  <si>
+    <t>P N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r130360849-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -1757,6 +1970,9 @@
 The hotel is located at the east end of Kimberly Ave in Placentia, the location is really great because it is minutes away from Fullerton College, about 10 minutes away from Disney Land, 15 minutes away from Angel Station and Honda Center where the Anaheim Angels and Anaheim Mighty Ducks play. There is a motel nearby and then all the other neighbors of the hotel are various businesses so after the working hours it is really quiet at the hotel. All rooms in the hotels are of condo/resort style, usually there are about 8 or so units in each building (4 on each floor) and the doors to the rooms open to the outside, the landscape inbetween buildings are really neatly kept and the parking lots are clean. The rooms come with a full size fridge and a full kitchen with stove, oven, microwave to pots, pans, plates and utensils readily available. There is also a 40" or so flat screen LCD TV in every room with free HBO. The house keeping staff does a good job on keeping the rooms clean and towels and tissue papers well stashed. The hotel also offers a gym, an outdoor pool, a...I was on a two-week business trip to Fullerton, California and I had the pleasure of staying at the Residence Inn in Placentia, checked in on Monday and out on Friday of the following week and it was a great experience.The hotel is located at the east end of Kimberly Ave in Placentia, the location is really great because it is minutes away from Fullerton College, about 10 minutes away from Disney Land, 15 minutes away from Angel Station and Honda Center where the Anaheim Angels and Anaheim Mighty Ducks play. There is a motel nearby and then all the other neighbors of the hotel are various businesses so after the working hours it is really quiet at the hotel. All rooms in the hotels are of condo/resort style, usually there are about 8 or so units in each building (4 on each floor) and the doors to the rooms open to the outside, the landscape inbetween buildings are really neatly kept and the parking lots are clean. The rooms come with a full size fridge and a full kitchen with stove, oven, microwave to pots, pans, plates and utensils readily available. There is also a 40" or so flat screen LCD TV in every room with free HBO. The house keeping staff does a good job on keeping the rooms clean and towels and tissue papers well stashed. The hotel also offers a gym, an outdoor pool, a basketball/tennis court that were well maintained. There is also a fire pit in the pool area and BBQ grills located in various areas of the hotel. The front lobby of the hotel has free breakfast everyday of the week and a free dinner buffet Monday through Wednesday with free wine and draft beer, the chef there, Teresa, is a great cook and does a really good job on mixing up the menu (the menu is posted on the fridge door for the whole month). Internet (both wired and wireless) is available in every room, the unit I stayed in was far from the front lobby and I can still get really good signal on my tablet computer. There are a few things that could improve on. First the toilets in the rooms are extremely small, very uncomfortable to sit on and I'm only 5'9" 170 lbs, I can't imagine how a taller/bigger person would feel about that. The gym inside the front office is really small and it only has 2 standard treadmill machines and one elliptical non-contact stepping machines, basically the only you can do there is cardio. The air condition system in the rooms can be a bit noisy, especially at the moment when it turns on or shuts off it shouts out a loud thud like someone knocking on the wall, and also I'm not sure if the pipes are old or for some other reason but right after the AC shuts off there is a period for about 20 seconds I hear a continuous knocking noise from the walls, at first I thought it was the upstairs neighbor jumping on the floor but after a few times I realized it was coming from AC system inside the wall, though it only lasts about 20 seconds but can be annoy at nights. Last there is only one area on the hotel property where smoking is allowed and it is located on the northside of the hotel past the parking lot, it's really just a picnic table and a trash can there with no roof cover, basically if it rains you won't be able to smoke outside. I'm not a smoker but my coworker that traveled with me is, it was really inconvenient for him to walk all the way across the hotel property to just have a quick cigarette.Overall it was a great stay for the two weeks I spent in California, there were a lot places to go see nearby and a lot of good restaurants in Fullerton as it being a college town. I picked this hotel to stay because it was recommended by the sponsors of my trip and it turned out to be a winner, if I am ever in the area again for business or pleasure I'd definitely choose the Residence Inn in Placentia again.More</t>
   </si>
   <si>
+    <t>Scott O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r130101411-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1772,6 +1988,9 @@
     <t>My familty of four stayed at this Residence Inn for a trip to Disneyland.  While it was about a 10-minute drive to the park, I am so happy we decided to stay here instead of the congestion of being on top of the park.  The staff was friendly and ready to satisfy all of my family's questions and needs.  The property is great, pods of condo-style rooms with courtyards, many of which have BBQs.  I will stay here everytime I return to the area.</t>
   </si>
   <si>
+    <t>Clint B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r129707662-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1793,6 +2012,9 @@
     <t>Great hotel for the price. We used Priceline and got a rate of $55/night for Thanksgiving weekend. The place looks and feels like a townhome/apartment complex with multiple free-standing buildings on the property, each housing several rooms.Our room had a king-sized bed, flat screen TV that was probably 42 inches, a decent sized living room, and kitchenette with a full-sized oven and range, microwave, and fridge. The interior, as with most new Marriott places, has a modern fell -- lots of neutrals with red accents and fixtures and appliances with a brushed metal look.The only negative is that there is no wifi. They have an ethernet connection located in the desk by the kitchenette, but that's useless if you have an iPad or want to use a laptop anywhere else in the room.There's a complimentary breakfast with scrambled eggs, sausage patties, pancakes, waffles, bagels, muffins, etc. It gets packed in the morning and seating is limited so you may have to grab your food and go.They also have a pool area with a fire pit and a sports court for tennis and basketball.With its location fairly close to Anaheim and Disney, the spacious rooms, and affordable price this is a great place to stay.More</t>
   </si>
   <si>
+    <t>dcbc81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r129616804-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1811,6 +2033,9 @@
     <t>Just returned from a weekend in Disneyland.  Looked for a hotel closer to Disney, but the reviews were not great for something affordable and close.  I decided I wanted my Marriott...you can always count on a great bed and shower and they are always clean.  We couldn't afford one right by Disney, but this one was right off the freeway and a short drive to Disney.  The staff at check-in was great!  She asked where we were going and provided a map with directions to Disneyland and a list of local restaurants.  Some other customers were using the BBQ grill outside and asked for plates, napkins, cups etc which they provided.  I loved the unique way they had different buildings with 8 rooms each.  It looked more like little condos than a hotel. The grounds were very beautiful and nicely kept.  The pool looked inviting, but didn't get a chance to use it.  As usual the beds were great and the shower was fabulous!  We enjoyed the breakfast every morning before leaving for the day.  Thank you Marriott for another great stay!More</t>
   </si>
   <si>
+    <t>Anuhea G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r127699144-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1838,6 +2063,9 @@
     <t>I had a very bad experience at this Residence Inn.  It is one of the older type Residence Inn.  I was first given a room towards the back.  With the travels I have done, I felt unsafe.  I requested another room and this one had bedbugs.  There were clump of bites on my back and arms.  It took over 2 weeks for the itchiness to go away and left dark scars. I contacted the hotel and spoke with Manager who indicated that they would inspect the room and contact me on their findings.  No return call was ever received. My coworkers suggested I contact the health authorities.  I have done much travel for work, and was at this facility due to last minute assignment and the cap on my travel allowance.More</t>
   </si>
   <si>
+    <t>Swamilama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r125378445-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1859,6 +2087,9 @@
     <t>Stopped in here for the second time in the past 6 months.  Both times I found the front desk very friendly and helpful.  As others have written, the facility is set up in pods of eight rooms, 4 uppers &amp; 4 lowers.  They do have the some giant suites with an upper loft and bedroom (was upgraded to this suite the first time...a lot of room for a solo traveler!!).  Mon-Wed night they have complimentary dinner - nothing to get excited about, but if you're too tired to find a restaurant in the area (which is a challenge) it is a good place to fill up (includes beer and wine).  Complimentary breakfast us served 7 days a week - again nothing to get excited about.  The rooms are spacious and clean, although the furniture is starting to show a little wear.  The room has a good desk to work at with plenty of power receptacles - wired internet, no wifi.Pool, patio, fire pit, fitness, laundry - all the things you normally find at a Residence Inn.  My only fault is it is not within close walking distance of anything, but would give it a thumbs up.More</t>
   </si>
   <si>
+    <t>HonestReviewForU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r125239759-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1877,6 +2108,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>amh1769</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r124252810-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1913,6 +2147,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r120138379-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1934,6 +2171,9 @@
     <t>I had a great experience at this property during my 5 night stay.  The staff was very friendly and attentive.  Great perks like the morning breakfast and the early evening snacks (with Beer or Wine)...how cool is that!  They will even do grocery shopping for you during the day with no service charge.  I got a very good price (about $99 per night) and with the food and beverages (am and pm) this was an exceptional value.  The property is a collection of smaller buildings (perhaps 8 units per building) with nicely landscaped walkways to the lobby, pool and recreation area (hoops, etc.)  The bed was excellent and the room spacious with a kitchen, living area and bed area.  The neighborhood has an industrial feel and is a little off the beaten path. Only a 10 or 15 minute drive to Disney.  This is a STRONG yes!  I will stay again.  In the room wired High Speed Internet is available.  Some WiFi is available near the lobby.More</t>
   </si>
   <si>
+    <t>WeThreeAdventurers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r119226371-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1950,6 +2190,9 @@
   </si>
   <si>
     <t>We just returned from a five night stay here.  The purpose of our trip was Disneyland...this was just what we needed.  There were five in our party, so we had the 2 BDRM loft.  Bedroom/bath upstairs and a two queens and bath in a bedroom downstairs.  Also a full kitchen and sofa bed in the living area.  Excellent breakfast in the morning with something different for the "main dish" daily, with the same waffles, cereal, cooked (not instant) oatmeal, pastries, etc. also included.  The staff was fantastic at the breakfast area, keeping things stocked and even bringing things to our table when something was out.We had a car so driving was not an issue.  The drive to Disney was very easy on surface streets and took about 10-15 minutes.  No traffic until you hit Harbor Blvd. for Disney parking.  The way Disney has the parking now, it was just as easy to stay here than to walk from a hotel by the park.  The $15 per day parking was less than the difference in price to stay at a closer hotel.  Add in the free breakfast and having a full kitchen and this was by far the best choice for us and I am glad we did it.  When we next go to Disneyland, we will stay here again!More</t>
+  </si>
+  <si>
+    <t>RamboSacto</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r117006002-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -1981,6 +2224,9 @@
 The freeway is nearby but we had a room facing away and could not...My wife and I were driving back from San Diego and stopped in to see the Nixon Museum in Yorba Linda.  We planned to stay overnight somewhere close and this hotel fit our needs. The Residence Inn Marriott in Placentia is a very nice suite type complex. It’s a condo style building in clusters of eight rooms, four rooms on the first floor and four on the second. The room is large size with a couch, recliner and coffee table.  There’s a large flat screen TV in the middle of the room on top of a dresser that you swivel and watch from the bed.  There were some HD channels coming across cable that looked outstanding.  There’s a full kitchen, stove, dishwasher, refrigerator, sink, dishes and utensils.In this large room, there was no suit case stand and I was rather surprised.  There’s also no WiFi but they did have a cable from the table next to the kitchen you could plug into the internet.  The desk/kitchen table has a nice multiple plug area at that location.For breakfast there were scambled eggs, with rotating menu of sausage patties, fried potatoes, biscuits and gravy.  There were also waffles, cereals, pastries, hard boiled eggs, yogurt, juice and coffee.  It was pretty busy in the eating area but the staff worked hard keeping everything stocked and cleaned up.The freeway is nearby but we had a room facing away and could not hear road noises.  There are also train tracks nearby but could barely hear the train.  It was pretty quiet in the room, no noises from the other rooms.  I’d definitely stay again.More</t>
   </si>
   <si>
+    <t>CAgrand</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r115019904-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -1996,6 +2242,9 @@
     <t>I was looking for a place for our family to stay while we visited the Disneyland Resort.  We had a car that we could take to and from the resort - so proximity wasn't an issue.  It was a 4 mile trip.  We stayed in the 2 bedroom/ 2 bath suite.  Downstairs is a kitchen, living room (with pull out sofabed) and a bedroom with 2 queen beds and bath.  Upstairs is a loft with 1 queen bed and a bathroom.  We were very comfortable with our group of 4 adults and 1 child.  Free parking and complimentary breakfast are an added bonus.</t>
   </si>
   <si>
+    <t>adac1121</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r114767001-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2014,6 +2263,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>MommyLovesToTravel15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r112076146-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2035,6 +2287,9 @@
     <t>We've stayed at almost half of the Anaheim area hotels in the past few years searching for the perfect combination of value, amenities and location. This Residence Inn has made up for its location (a good 10-15 min. drive from Disneyland) with the great rooms, great service (loved the little breakfast lady who spoiled my kids!), and great value. It's a quiet property without the overwhelming amount of children screaming - common for Anaheim hotels. We had a couple of issues with our room - a phone issue, a light that wouldn't turn off and no bedding for the crib or sofabed. With only one employee on the premises at night, we ended up fixing things ourselves or doing without. But really, nothing major and we will return.More</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r94187104-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2056,6 +2311,9 @@
     <t>This was our second time staying at this Residence Inn, and I'm so happy we did! We had a bi-level loft suite. Very roomy with a full kitchen and supplies. Two full bathrooms, fireplace, living room area, dining table and chairs.  We had a queen size bed in the upstairs loft and two queen size beds in the bedroom on the first floor.  We had three flat screens TVs, 1 upstairs and 2 downstairs. It was very quite, very relaxing and just like our last visit, it was a little slice of heaven.In the mornings they serve a free breakfast. It's very good. They have a swimming pool, jacquizzi, BBQ grill and plenty of lounge chairs. They also have a combination volleyball/basketball court. Laundry room and in the lobby they have a 24 hour little market. Very convenient.My only complaint, the suite we had, the microwave did not work.  Looked brand new, too.Also, just like our last stay, the TV remote upstairs also controlled the TV over the fireplace.  A bit of a nuisance.Still, it's a great stay and I can't wait to stay here again!More</t>
   </si>
   <si>
+    <t>SeanAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r89684830-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2077,6 +2335,9 @@
     <t>Having stayed at a few Residence Inns in the past few years, I have to say that they never disappoint.  This property is a great option for families visiting the local theme parks (Knott's or Disneyland) they're both only 15 minutes away.  No other real amenities nearby as the property is in the middle of a light industrial/commercial area.  Room was a 2 bedroom (1 upstairs in a loft) 2 bath suite with full kitchen.  The only complaint (and it was more amusing than annoying) that I have about the room is that the remote controls for the LG flat screen TVs were too sensitive and you could change the channel on both TVs from either the loft or the downstairs living room.  Breakfast was standard buffet type with some pre made sausage and egg muffins, a waffle iron with batter dispenser, yogurts, cereals, etc.  If you have a family of 4  this is a great way to feed everybody breakfast since it's part of the room rate.More</t>
   </si>
   <si>
+    <t>ShannonT78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r84853872-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2095,6 +2356,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>faulkner2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r84845852-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2104,6 +2368,9 @@
     <t>Reserved room via hotels.com and got an excellent price.  This hotel excels the nearby Holiday Inn Express in Placentia.  Spacious room with kitchenette, free hot and cold breakfast in lobby area, very clean and quiet, friendly staff.  Only negative is no DVD player in room, so bring your computer or DVD player.  Otherwise would strongly recommend.</t>
   </si>
   <si>
+    <t>CuriousTraveler8048</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r83663881-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2119,6 +2386,9 @@
     <t>I was very pleased with my 2-day stay this week.  The room was large, bright and felt safe.  The staff was very friendly and seemed to sincerely want to make the customer experience a good one.  In terms of location, you really do need a car but it is a short drive to a grocery, restaurants, etc.  There were also many options for in-room delivery from lots of restaurants.  I was attending a conference in Yorba Linda and it was a very short commute with little to no traffic.</t>
   </si>
   <si>
+    <t>DitchwaterSal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r54751710-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2155,6 +2425,9 @@
     <t>This was our first time staying at a Residence Inn, and I'm so happy we found it!  We had a bi-level loft suite.  Very roomy with a full kitchen and supplies.  Two full bathrooms, fireplace, living room area, dining room and computer area, then at night it converts into a Murphy bed which was very comfy.  We had two flat screens TVs, upstairs and downstairs.  It was very quite, very relaxing and it just made our little trip a little slice of heaven.In the mornings they serve a free breakfast.  It's very good.  They have a swimming pool, jacquizzi, BBQ grill and plenty of lounge chairs.  They also have a combonation volleyball/basketball court.  Laundry room and in the lobby they have a 24 hour little market.  Very convenient.Can't wait to stay here again!More</t>
   </si>
   <si>
+    <t>roadgirl999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r53566930-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2173,6 +2446,9 @@
     <t>My hubby and I had a funeral to attend in the southern California area, so I booked a 3 star room on Priceline for $45 a night. I have never stayed at a Ressidence Inn before, so I didn't know what to expect. We arrived around 5 on a Tues. evening and check-in was a breeze. Mon-Wed. they have a lite dinner in the dinning area, but we had already eaten. Our room was in the back next to the highway, but the noice wasn't bad at all. I was very impressed! Our room had a full kitchen with modern appliances and the everything you might need (plates, flatware, glasses, even cloth napkins!!). It had granite counter tops, tile floors, nice lighting. The room was large, with sofa, chair and coffee table, and large, flat screen T.V. The bathroom area wasn't anything special, but all was clean and the tub was larger than most I've stayed in. The bed was very comfy, and we slept well. They have a GREAT breakfast  with biscuts and gravy, oatmeal, eggs, waffles and much more. Check out was easy. I only had one problem with the room--the coffee table wasn't clean. It had dried milk on it and looked kinda gross. We didn't eat in the room, so I didn't complain. It was a small thing, and I would stay here again!! Our "overall" stay was wonderful!More</t>
   </si>
   <si>
+    <t>annettebrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r50074348-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2188,6 +2464,9 @@
     <t>I stayed at the Residence in for 3 weeks in October/November.  This was my 3rd stay.  In my past visits, I found the self-contained rooms quite comfortable, but getting tired.  This visit, my suite (with loft) had just been modernised and upgraded.  It was beautiful and fresh.  There were flat screen TVs in the livingroom,  master bedroom and loft bedroom.  The staff accommodated my desire for unrushed mornings and did all the cleaning when I was out in the afternoon.  All in all it was a perfect stay and very, very good value.  I love this place.</t>
   </si>
   <si>
+    <t>Boeing_engineer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r35266070-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2207,6 +2486,9 @@
   </si>
   <si>
     <t>I was a little concerned after reading some of the reviews on tripadvisor. Our experience was great though. We stayed in one of the rooms with a King in one bedroom and a queen in the upstairs loft. Every thing was clean and well taken care of, as expected at a Residence Inn. The beds were good and the room was in good order. It's true some of the cabinetry is a little dated and the like, but in general the facility is well maintained. They started another renovation in June, but only have completed three rooms. My wife is very particular when it comes to hotels, but she was very happy. It was nice to have a  full kitchen so we did not have to eat out all the time. It is less than 10 min to Disney land on CA 57 and half the cost of  the Residence Inn Main gate.More</t>
+  </si>
+  <si>
+    <t>saktunes</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r33411506-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -2233,6 +2515,9 @@
 This stay, the bed was quite uncomfortable.  It felt like a 400 lb. man had been sleeping there for two months in the same place.  I could not find any position on the bed where I couldn't feel the "canyon" in the middle of the bed.  Maybe flipping the mattress once a month would help this problem.  But the bigger...I have stayed here before, but two or three years ago.  I usually stay in Anaheim, but this past trip the hotels were all booked there, so I came up here again.  It's only about 10 minutes from Anaheim, so the location is good.The hotel is laid out in little buildings with a few units in each and walkways in between.  The staff here is very nice and helpful.  The breakfast is just OK, but certainly adequate for a quick bite on the way out the door.  The pool and hot tub look nice, but I did not get a chance to use them.The rooms are nice and big and with a nice work surface in between the kitchen area and sitting area.  The kitchen comes with a stove, coffee maker, refrigerator, microwave oven, sink, and dishwasher.  It is also stocked with plates, glasses, pans, silverware, and some kitchen utensils.  The bathroom is small, but not too cramped.  The area outside the bathroom has a sink and little dressing area.  I had a suite with a king-size bed.This stay, the bed was quite uncomfortable.  It felt like a 400 lb. man had been sleeping there for two months in the same place.  I could not find any position on the bed where I couldn't feel the "canyon" in the middle of the bed.  Maybe flipping the mattress once a month would help this problem.  But the bigger problem with my stay this time is that the room is looking a little tired.  It needs to be upgraded.  Fortunately, it looks like they have just started on a big facelift.  Unfortunately, the construction storage trailers eat up a lot of parking room.  For those guests in units at the end of the complex, there is no place to park close to their units.  But this is a temporary situation.All in all, I would stay here again.  The quality of the place, even this stay, outweighs the little issues I had.  (I might wait another 10 months or so, just to be sure the construction is finished.)More</t>
   </si>
   <si>
+    <t>vegaseaglesfan1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r24607165-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2254,6 +2539,9 @@
     <t>We used Marriott points for our week long Southern California getaway.  The staff was very courteous and met everyone of our needs attentively.  Breakfast was average, but that's what I pretty much expected.  They did have a large variety to choose from and it did change daily.  The rooms were a little on the outdated side but overall the room was very clean and housekeeping did a good job of cleaning the entire studio daily.  The only downfall was the location, a little bit out of the way and off the beaten path.  Overall if I was to choose a Residence Inn it would probably be one of the Residence Inn's closer to Disneyland but if booked I would stay here again.More</t>
   </si>
   <si>
+    <t>TravellerfromPhilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r24223469-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2272,6 +2560,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>Widmark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r18083417-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2290,6 +2581,9 @@
     <t>We got to our room where we found waiting for us about 15 flies in each of the bedrooms and about the same number in the kitchen.  There was some left over food crumbs from the last occupant sitting on the fireplace surround.  Called the front desk and they said the flies were typical of the rooms in June, so moving rooms wouldn't help.  They put in some flypaper in each of the rooms (they offered to spray but we didn't want that with our young kids).  We went to the tiny pool and it was towel-less, with cloudy as opposed to clear water.  Went to breakfast the next morning and it was overrun with people with no tables, with cereal all over the floor, and many of the complimentary breakfast items like eggs and waffle batter were empty for at least 30 minutes.  The staff said the good news was the place is scheduled to be upgraded later in the year.  I wouldn't stay there myself until after the upgrades are done.  On the positive, the front desk staff was apologetic and courteous about the problems.More</t>
   </si>
   <si>
+    <t>jengled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r12226218-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2308,6 +2602,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>vegaschick1219</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r8349261-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2320,6 +2617,9 @@
     <t>July 2007</t>
   </si>
   <si>
+    <t>rdlove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r8040511-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2329,6 +2629,9 @@
     <t>07/01/2007</t>
   </si>
   <si>
+    <t>Lattenut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r3703309-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2338,6 +2641,9 @@
     <t>07/26/2005</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r3487268-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
   </si>
   <si>
@@ -2345,6 +2651,9 @@
   </si>
   <si>
     <t>05/18/2005</t>
+  </si>
+  <si>
+    <t>yayhasplz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32897-d78444-r1878601-Residence_Inn_Anaheim_Placentia_Fullerton-Placentia_California.html</t>
@@ -2858,43 +3167,47 @@
       <c r="A2" t="n">
         <v>19091</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2910,56 +3223,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19091</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2977,56 +3294,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19091</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3038,56 +3359,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19091</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -3105,56 +3430,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19091</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3166,56 +3495,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19091</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3227,56 +3560,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19091</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3294,50 +3631,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19091</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3357,50 +3698,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19091</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3418,56 +3763,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19091</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3487,50 +3836,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19091</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -3548,47 +3901,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19091</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -3607,50 +3964,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19091</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3668,56 +4029,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19091</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3733,56 +4098,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19091</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3800,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19091</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3861,56 +4234,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19091</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3926,56 +4303,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19091</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3991,56 +4372,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19091</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4058,56 +4443,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19091</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4119,56 +4508,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19091</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4184,56 +4577,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19091</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4245,56 +4642,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19091</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4310,56 +4711,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19091</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4375,47 +4780,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19091</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -4432,56 +4841,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19091</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4497,47 +4910,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>19091</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -4554,56 +4971,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="X28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19091</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="O29" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4615,56 +5036,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19091</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>303</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4682,56 +5107,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="X30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="Y30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19091</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>313</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4743,56 +5172,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19091</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>321</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O32" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4808,56 +5241,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="X32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>19091</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O33" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4875,56 +5312,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>19091</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>339</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4942,47 +5383,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="X34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>19091</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -4999,56 +5444,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="Y35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>19091</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>357</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5060,56 +5509,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>19091</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>364</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5121,56 +5574,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="X37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>19091</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5188,56 +5645,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="X38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>19091</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5253,56 +5714,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="X39" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="Y39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>19091</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5318,56 +5783,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="X40" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Y40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>19091</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>398</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5387,50 +5856,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>19091</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="J42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5448,50 +5921,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>19091</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5509,41 +5986,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>19091</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -5570,56 +6051,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>19091</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>430</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5637,56 +6122,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>19091</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>438</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5704,50 +6193,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>19091</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>445</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5761,50 +6254,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>19091</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>452</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5826,56 +6323,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="X48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>19091</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>462</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5899,50 +6400,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>19091</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5964,56 +6469,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="X50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="Y50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>19091</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6035,56 +6544,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="X51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="Y51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>19091</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>487</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="J52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="K52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="L52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="O52" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6108,50 +6621,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>19091</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="J53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="L53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6175,50 +6692,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>19091</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="K54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6242,50 +6763,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>19091</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="L55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6309,50 +6834,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>19091</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>515</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="J56" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="K56" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="L56" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6376,50 +6905,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>19091</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>522</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="J57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="K57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="O57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6443,50 +6976,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>19091</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>529</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="J58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="K58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="L58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6508,56 +7045,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="X58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="Y58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>19091</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>538</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="J59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="K59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="L59" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6581,50 +7122,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>19091</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>546</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="J60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="K60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="O60" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6648,50 +7193,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>19091</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>553</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="J61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="L61" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6715,50 +7264,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>19091</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>560</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="J62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="K62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="L62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6782,50 +7335,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>19091</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>566</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="J63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="K63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="L63" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="O63" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6849,50 +7406,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>19091</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>573</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="J64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="K64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="L64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="O64" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6916,50 +7477,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>19091</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>579</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="J65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="K65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="L65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6983,50 +7548,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>19091</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>586</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="J66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="K66" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="L66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7050,50 +7619,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>19091</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>592</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="J67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="K67" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="L67" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7117,50 +7690,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>19091</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>599</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="J68" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="K68" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="L68" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7184,50 +7761,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>19091</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>606</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="J69" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="K69" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="L69" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7251,50 +7832,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>19091</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>614</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="J70" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="K70" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="L70" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="O70" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7318,50 +7903,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>19091</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>622</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="J71" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="K71" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="L71" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7385,50 +7974,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>19091</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>628</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="J72" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="K72" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="L72" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="O72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7452,50 +8045,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>19091</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>636</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="J73" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="K73" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="L73" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7519,50 +8116,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>19091</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>642</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="J74" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="K74" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="L74" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7586,50 +8187,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>19091</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>650</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="J75" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="K75" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="L75" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7653,50 +8258,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>19091</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>657</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="J76" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="K76" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="L76" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="O76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7718,56 +8327,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="X76" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="Y76" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>19091</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>667</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="J77" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="K77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
       <c r="L77" t="s">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>597</v>
+        <v>673</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7791,50 +8404,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>19091</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>675</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="J78" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="K78" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="L78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7858,50 +8475,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>19091</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>682</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="J79" t="s">
-        <v>607</v>
+        <v>685</v>
       </c>
       <c r="K79" t="s">
-        <v>608</v>
+        <v>686</v>
       </c>
       <c r="L79" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7925,50 +8546,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>19091</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>573</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="J80" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="K80" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="L80" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7992,50 +8617,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>19091</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>695</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="J81" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="K81" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="L81" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8059,50 +8688,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>623</v>
+        <v>702</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>19091</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>703</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="J82" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="K82" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="L82" t="s">
-        <v>628</v>
+        <v>708</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>622</v>
+        <v>701</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8126,50 +8759,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>19091</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>710</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="J83" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="K83" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="L83" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8189,50 +8826,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>19091</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>718</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="J84" t="s">
-        <v>639</v>
+        <v>721</v>
       </c>
       <c r="K84" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="L84" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8252,50 +8893,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>641</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>19091</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>724</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="J85" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="K85" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="L85" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>647</v>
+        <v>730</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8315,50 +8960,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>19091</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>731</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="J86" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="K86" t="s">
-        <v>651</v>
+        <v>735</v>
       </c>
       <c r="L86" t="s">
-        <v>652</v>
+        <v>736</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>653</v>
+        <v>737</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8378,50 +9027,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>654</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>19091</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>739</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>655</v>
+        <v>740</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="J87" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="K87" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="L87" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>660</v>
+        <v>745</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8445,50 +9098,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>19091</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>747</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="J88" t="s">
-        <v>664</v>
+        <v>750</v>
       </c>
       <c r="K88" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
       <c r="L88" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8512,50 +9169,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>19091</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>755</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>670</v>
+        <v>757</v>
       </c>
       <c r="J89" t="s">
-        <v>671</v>
+        <v>758</v>
       </c>
       <c r="K89" t="s">
-        <v>672</v>
+        <v>759</v>
       </c>
       <c r="L89" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8579,50 +9240,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>19091</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>762</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>675</v>
+        <v>763</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>676</v>
+        <v>764</v>
       </c>
       <c r="J90" t="s">
-        <v>671</v>
+        <v>758</v>
       </c>
       <c r="K90" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L90" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="O90" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8646,50 +9311,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>677</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>19091</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>766</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="J91" t="s">
-        <v>680</v>
+        <v>769</v>
       </c>
       <c r="K91" t="s">
-        <v>681</v>
+        <v>770</v>
       </c>
       <c r="L91" t="s">
-        <v>682</v>
+        <v>771</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8713,50 +9382,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>682</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>19091</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>772</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="J92" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="K92" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="L92" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8780,50 +9453,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>19091</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>739</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="J93" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="K93" t="s">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="L93" t="s">
-        <v>693</v>
+        <v>783</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8847,50 +9524,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>694</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>19091</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>785</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="J94" t="s">
-        <v>697</v>
+        <v>788</v>
       </c>
       <c r="K94" t="s">
-        <v>698</v>
+        <v>789</v>
       </c>
       <c r="L94" t="s">
-        <v>699</v>
+        <v>790</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="O94" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8914,41 +9595,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>19091</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>792</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>702</v>
+        <v>794</v>
       </c>
       <c r="J95" t="s">
-        <v>703</v>
+        <v>795</v>
       </c>
       <c r="K95" t="s">
-        <v>704</v>
+        <v>796</v>
       </c>
       <c r="L95" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
@@ -8977,50 +9662,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>705</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>19091</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>798</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>706</v>
+        <v>799</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>707</v>
+        <v>800</v>
       </c>
       <c r="J96" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="K96" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="L96" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9044,50 +9733,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>19091</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>806</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="J97" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="K97" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
       <c r="L97" t="s">
-        <v>717</v>
+        <v>811</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="O97" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9111,50 +9804,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>718</v>
+        <v>812</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>19091</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>813</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>719</v>
+        <v>814</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>720</v>
+        <v>815</v>
       </c>
       <c r="J98" t="s">
-        <v>721</v>
+        <v>816</v>
       </c>
       <c r="K98" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="L98" t="s">
-        <v>723</v>
+        <v>818</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="O98" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9178,50 +9875,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>19091</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>821</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>726</v>
+        <v>822</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>727</v>
+        <v>823</v>
       </c>
       <c r="J99" t="s">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="K99" t="s">
-        <v>729</v>
+        <v>825</v>
       </c>
       <c r="L99" t="s">
-        <v>730</v>
+        <v>826</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9245,41 +9946,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>730</v>
+        <v>826</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>19091</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>828</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
       <c r="J100" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
       <c r="K100" t="s">
-        <v>735</v>
+        <v>832</v>
       </c>
       <c r="L100" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
@@ -9306,48 +10011,52 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>19091</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>835</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
       <c r="J101" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="n">
@@ -9367,35 +10076,39 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>19091</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>842</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>745</v>
+        <v>844</v>
       </c>
       <c r="J102" t="s">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="K102" t="s"/>
       <c r="L102" t="s"/>
@@ -9403,10 +10116,10 @@
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="O102" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P102" t="n">
         <v>1</v>
@@ -9427,49 +10140,50 @@
       <c r="V102" t="n">
         <v>0</v>
       </c>
-      <c r="W102" t="s"/>
-      <c r="X102" t="s"/>
-      <c r="Y102" t="s"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>19091</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>847</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="J103" t="s">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="K103" t="s"/>
       <c r="L103" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9493,39 +10207,43 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>19091</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>851</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
       <c r="J104" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
@@ -9552,35 +10270,39 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>19091</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>855</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>754</v>
+        <v>856</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="J105" t="s">
-        <v>756</v>
+        <v>858</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s"/>
@@ -9598,40 +10320,41 @@
       <c r="V105" t="n">
         <v>0</v>
       </c>
-      <c r="W105" t="s"/>
-      <c r="X105" t="s"/>
-      <c r="Y105" t="s"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>19091</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>859</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>757</v>
+        <v>860</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>758</v>
+        <v>861</v>
       </c>
       <c r="J106" t="s">
-        <v>759</v>
+        <v>862</v>
       </c>
       <c r="K106" t="s"/>
       <c r="L106" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -9650,7 +10373,7 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
